--- a/public/export/tkbgiaovien.xlsx
+++ b/public/export/tkbgiaovien.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="316">
   <si>
     <t>THỜI KHÓA BIỂU GIÁO VIÊN</t>
   </si>
@@ -65,1288 +65,898 @@
     <t>Tiết 5</t>
   </si>
   <si>
-    <t>Nguyễn Thị Cang</t>
+    <t>Huỳnh Thị Xuân Duyên</t>
   </si>
   <si>
     <t>Sáng</t>
   </si>
   <si>
-    <t>Ngữ văn-9A6</t>
-  </si>
-  <si>
-    <t>Ngữ văn-9A8</t>
-  </si>
-  <si>
-    <t>Đặng Thị Kim Huệ</t>
+    <t>Lê Mỹ Duyên</t>
   </si>
   <si>
     <t>Chiều</t>
   </si>
   <si>
-    <t>Nguyễn  Thị Thơ</t>
-  </si>
-  <si>
-    <t>Ngữ văn-6A3</t>
-  </si>
-  <si>
-    <t>Ngữ văn-6A5</t>
-  </si>
-  <si>
-    <t>Ngữ văn-6A1</t>
-  </si>
-  <si>
-    <t>GDCD-9A6</t>
-  </si>
-  <si>
-    <t>GDCD-9A4</t>
-  </si>
-  <si>
-    <t>GDCD-9A5</t>
-  </si>
-  <si>
-    <t>GDCD-9A3</t>
-  </si>
-  <si>
-    <t>Nguyễn Trung</t>
-  </si>
-  <si>
-    <t>Toán-9A3</t>
-  </si>
-  <si>
-    <t>Toán-9A7</t>
-  </si>
-  <si>
-    <t>Toán-6A1</t>
-  </si>
-  <si>
-    <t>Toán-6A7</t>
-  </si>
-  <si>
-    <t>Sinh hoạt lớp-9A7</t>
-  </si>
-  <si>
-    <t>Chào cờ-9A7</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn Thanh</t>
-  </si>
-  <si>
-    <t>Ngữ văn-9A4</t>
-  </si>
-  <si>
-    <t>GDCD-9A7</t>
-  </si>
-  <si>
-    <t>GDCD-9A8</t>
-  </si>
-  <si>
-    <t>Võ Thị Thuận</t>
-  </si>
-  <si>
-    <t>Ngữ văn-9A1</t>
-  </si>
-  <si>
-    <t>Ngữ văn-9A5</t>
-  </si>
-  <si>
-    <t>Sinh hoạt lớp-9A5</t>
-  </si>
-  <si>
-    <t>Chào cờ-9A5</t>
-  </si>
-  <si>
-    <t>Phạm Thị Ngọc Hân</t>
-  </si>
-  <si>
-    <t>Ngữ văn-8A7</t>
-  </si>
-  <si>
-    <t>Ngữ văn-8A1</t>
-  </si>
-  <si>
-    <t>Ngữ văn-8A2</t>
-  </si>
-  <si>
-    <t>GDCD-8A5</t>
-  </si>
-  <si>
-    <t>GDCD-8A4</t>
-  </si>
-  <si>
-    <t>Sinh hoạt lớp-8A2</t>
-  </si>
-  <si>
-    <t>Chào cờ-8A2</t>
-  </si>
-  <si>
-    <t>Hồ Đình Phương</t>
-  </si>
-  <si>
-    <t>Ngữ văn-8A8</t>
-  </si>
-  <si>
-    <t>Ngữ văn-8A4</t>
-  </si>
-  <si>
-    <t>GDCD-7A4</t>
-  </si>
-  <si>
-    <t>GDCD-7A5</t>
-  </si>
-  <si>
-    <t>GDCD-7A6</t>
-  </si>
-  <si>
-    <t>Sinh hoạt lớp-7A5</t>
-  </si>
-  <si>
-    <t>Chào cờ-7A5</t>
-  </si>
-  <si>
-    <t>HDNGLL-7A5</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Thao</t>
-  </si>
-  <si>
-    <t>Ngữ văn-8A3</t>
-  </si>
-  <si>
-    <t>Ngữ văn-8A5</t>
-  </si>
-  <si>
-    <t>Ngữ văn-8A6</t>
-  </si>
-  <si>
-    <t>GDCD-7A1</t>
-  </si>
-  <si>
-    <t>GDCD-7A7</t>
-  </si>
-  <si>
-    <t>Sinh hoạt lớp-7A7</t>
-  </si>
-  <si>
-    <t>Chào cờ-7A7</t>
-  </si>
-  <si>
-    <t>HDNGLL-7A7</t>
-  </si>
-  <si>
-    <t>Đinh Thị Mỹ Hiệp</t>
-  </si>
-  <si>
-    <t>Ngữ văn-7A6</t>
-  </si>
-  <si>
-    <t>Ngữ văn-7A1</t>
-  </si>
-  <si>
-    <t>Ngữ văn-7A7</t>
-  </si>
-  <si>
-    <t>GDCD-8A3</t>
-  </si>
-  <si>
-    <t>GDCD-8A1</t>
-  </si>
-  <si>
-    <t>Sinh hoạt lớp-7A1</t>
-  </si>
-  <si>
-    <t>Chào cờ-7A1</t>
-  </si>
-  <si>
-    <t>GDCD-8A2</t>
-  </si>
-  <si>
-    <t>HDNGLL-7A1</t>
-  </si>
-  <si>
-    <t>Phạm Thị Thắm</t>
-  </si>
-  <si>
-    <t>Ngữ văn-7A2</t>
-  </si>
-  <si>
-    <t>Ngữ văn-7A3</t>
-  </si>
-  <si>
-    <t>Ngữ văn-7A5</t>
-  </si>
-  <si>
-    <t>Ngữ văn-7A4</t>
-  </si>
-  <si>
-    <t>Sinh hoạt lớp-7A4</t>
-  </si>
-  <si>
-    <t>Chào cờ-7A4</t>
-  </si>
-  <si>
-    <t>HDNGLL-7A4</t>
-  </si>
-  <si>
-    <t>Phan Thị Thu Văn</t>
-  </si>
-  <si>
-    <t>Lịch sử-8A5</t>
-  </si>
-  <si>
-    <t>Lịch sử-8A6</t>
-  </si>
-  <si>
-    <t>Lịch sử-8A3</t>
-  </si>
-  <si>
-    <t>Lịch sử-8A4</t>
-  </si>
-  <si>
-    <t>Lịch sử-8A2</t>
-  </si>
-  <si>
-    <t>Lịch sử-8A1</t>
-  </si>
-  <si>
-    <t>Sinh hoạt lớp-8A1</t>
-  </si>
-  <si>
-    <t>Chào cờ-8A1</t>
-  </si>
-  <si>
-    <t>Lê  Văn Lân</t>
-  </si>
-  <si>
-    <t>Lịch sử-6A1</t>
-  </si>
-  <si>
-    <t>Lịch sử-9A8</t>
-  </si>
-  <si>
-    <t>Lịch sử-9A2</t>
-  </si>
-  <si>
-    <t>Lịch sử-9A7</t>
-  </si>
-  <si>
-    <t>Lịch sử-9A5</t>
-  </si>
-  <si>
-    <t>Lịch sử-9A3</t>
-  </si>
-  <si>
-    <t>GDCD-6A6</t>
-  </si>
-  <si>
-    <t>GDCD-6A2</t>
-  </si>
-  <si>
-    <t>GDCD-6A3</t>
-  </si>
-  <si>
-    <t>GDCD-6A1</t>
-  </si>
-  <si>
-    <t>GDCD-6A4</t>
-  </si>
-  <si>
-    <t>GDCD-6A5</t>
-  </si>
-  <si>
-    <t>GDCD-6A7</t>
-  </si>
-  <si>
-    <t>Đồng  Thị Nữ</t>
-  </si>
-  <si>
-    <t>Lịch sử-6A6</t>
-  </si>
-  <si>
-    <t>Lịch sử-6A4</t>
-  </si>
-  <si>
-    <t>Lịch sử-6A7</t>
-  </si>
-  <si>
-    <t>Lịch sử-6A5</t>
-  </si>
-  <si>
-    <t>Mai Thị Phương Thu</t>
-  </si>
-  <si>
-    <t>Lịch sử-7A1</t>
-  </si>
-  <si>
-    <t>Lịch sử-7A3</t>
-  </si>
-  <si>
-    <t>Lịch sử-7A2</t>
-  </si>
-  <si>
-    <t>Lịch sử-7A6</t>
-  </si>
-  <si>
-    <t>Lịch sử-7A7</t>
-  </si>
-  <si>
-    <t>GDCD-8A8</t>
-  </si>
-  <si>
-    <t>GDCD-8A7</t>
-  </si>
-  <si>
-    <t>GDCD-8A6</t>
-  </si>
-  <si>
-    <t>Tống Thị Thu Hiền</t>
-  </si>
-  <si>
-    <t>Ngoại ngữ-6A4</t>
-  </si>
-  <si>
-    <t>Ngoại ngữ-6A7</t>
-  </si>
-  <si>
-    <t>Ngoại ngữ-9A8</t>
-  </si>
-  <si>
-    <t>Ngoại ngữ-6A1</t>
-  </si>
-  <si>
-    <t>Ngoại ngữ-9A7</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Sơn</t>
-  </si>
-  <si>
-    <t>Ngoại ngữ-6A6</t>
-  </si>
-  <si>
-    <t>Ngoại ngữ-6A3</t>
-  </si>
-  <si>
-    <t>HDNGLL-6A3</t>
-  </si>
-  <si>
-    <t>Ngoại ngữ-8A8</t>
-  </si>
-  <si>
-    <t>Lê Thị TSen</t>
-  </si>
-  <si>
-    <t>Ngoại ngữ-9A5</t>
-  </si>
-  <si>
-    <t>Ngoại ngữ-8A5</t>
-  </si>
-  <si>
-    <t>Ngoại ngữ-9A2</t>
-  </si>
-  <si>
-    <t>Ngoại ngữ-8A7</t>
-  </si>
-  <si>
-    <t>Ngoại ngữ-7A3</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị T.Huệ</t>
-  </si>
-  <si>
-    <t>Ngoại ngữ-7A4</t>
-  </si>
-  <si>
-    <t>Ngoại ngữ-7A1</t>
-  </si>
-  <si>
-    <t>Ngoại ngữ-7A5</t>
-  </si>
-  <si>
-    <t>Ngoại ngữ-8A2</t>
-  </si>
-  <si>
-    <t>Ngoại ngữ-7A7</t>
-  </si>
-  <si>
-    <t>Lý  Quốc Sinh</t>
-  </si>
-  <si>
-    <t>Ngoại ngữ-6A2</t>
-  </si>
-  <si>
-    <t>Ngoại ngữ-8A1</t>
-  </si>
-  <si>
-    <t>Ngoại ngữ-9A3</t>
-  </si>
-  <si>
-    <t>Ngoại ngữ-6A5</t>
-  </si>
-  <si>
-    <t>Sinh hoạt lớp-6A5</t>
-  </si>
-  <si>
-    <t>Chào cờ-6A5</t>
-  </si>
-  <si>
-    <t>HDNGLL-6A5</t>
-  </si>
-  <si>
-    <t>Hồ Đắc Duy</t>
-  </si>
-  <si>
-    <t>Mỹ thuật-9A7</t>
-  </si>
-  <si>
-    <t>Mỹ thuật-9A2</t>
-  </si>
-  <si>
-    <t>Mỹ thuật-9A8</t>
-  </si>
-  <si>
-    <t>Mỹ thuật-6A7</t>
-  </si>
-  <si>
-    <t>Mỹ thuật-6A6</t>
-  </si>
-  <si>
-    <t>Mỹ thuật-9A4</t>
-  </si>
-  <si>
-    <t>Mỹ thuật-6A3</t>
-  </si>
-  <si>
-    <t>Mỹ thuật-9A3</t>
-  </si>
-  <si>
-    <t>Mỹ thuật-6A5</t>
-  </si>
-  <si>
-    <t>Mỹ thuật-6A1</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Mĩ Dưỡng</t>
-  </si>
-  <si>
-    <t>Mỹ thuật-8A1</t>
-  </si>
-  <si>
-    <t>Mỹ thuật-7A5</t>
-  </si>
-  <si>
-    <t>Mỹ thuật-7A7</t>
-  </si>
-  <si>
-    <t>Mỹ thuật-8A2</t>
-  </si>
-  <si>
-    <t>Mỹ thuật-8A7</t>
-  </si>
-  <si>
-    <t>Mỹ thuật-7A2</t>
-  </si>
-  <si>
-    <t>Mỹ thuật-7A3</t>
-  </si>
-  <si>
-    <t>Mỹ thuật-8A6</t>
-  </si>
-  <si>
-    <t>Mỹ thuật-7A6</t>
-  </si>
-  <si>
-    <t>Sinh hoạt lớp-7A6</t>
-  </si>
-  <si>
-    <t>Chào cờ-7A6</t>
-  </si>
-  <si>
-    <t>Mỹ thuật-7A4</t>
-  </si>
-  <si>
-    <t>HDNGLL-7A6</t>
-  </si>
-  <si>
-    <t>Mỹ thuật-7A1</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn Tiến</t>
-  </si>
-  <si>
-    <t>Thể dục-9A2</t>
-  </si>
-  <si>
-    <t>Thể dục-9A7</t>
-  </si>
-  <si>
-    <t>Thể dục-9A5</t>
-  </si>
-  <si>
-    <t>Thể dục-6A7</t>
-  </si>
-  <si>
-    <t>Thể dục-9A4</t>
-  </si>
-  <si>
-    <t>Thể dục-9A3</t>
-  </si>
-  <si>
-    <t>Thể dục-9A6</t>
-  </si>
-  <si>
-    <t>Đinh Quốc Bảo</t>
-  </si>
-  <si>
-    <t>Thể dục-7A7</t>
-  </si>
-  <si>
-    <t>Thể dục-7A4</t>
-  </si>
-  <si>
-    <t>Thể dục-7A5</t>
-  </si>
-  <si>
-    <t>Thể dục-7A3</t>
-  </si>
-  <si>
-    <t>Thể dục-7A2</t>
-  </si>
-  <si>
-    <t>Thể dục-7A1</t>
-  </si>
-  <si>
-    <t>Thể dục-8A6</t>
-  </si>
-  <si>
-    <t>Thể dục-8A7</t>
-  </si>
-  <si>
-    <t>Thể dục-8A8</t>
-  </si>
-  <si>
-    <t>Mai Công Tình</t>
-  </si>
-  <si>
-    <t>Thể dục-9A1</t>
-  </si>
-  <si>
-    <t>Vương Quốc Long</t>
-  </si>
-  <si>
-    <t>Âm nhạc-7A5</t>
-  </si>
-  <si>
-    <t>Âm nhạc-8A2</t>
-  </si>
-  <si>
-    <t>Âm nhạc-8A8</t>
-  </si>
-  <si>
-    <t>Âm nhạc-7A1</t>
-  </si>
-  <si>
-    <t>Âm nhạc-8A5</t>
-  </si>
-  <si>
-    <t>Âm nhạc-8A4</t>
-  </si>
-  <si>
-    <t>Âm nhạc-7A2</t>
-  </si>
-  <si>
-    <t>Âm nhạc-8A3</t>
-  </si>
-  <si>
-    <t>Sinh hoạt lớp-7A2</t>
-  </si>
-  <si>
-    <t>Âm nhạc-8A6</t>
-  </si>
-  <si>
-    <t>Âm nhạc-7A4</t>
-  </si>
-  <si>
-    <t>Âm nhạc-7A3</t>
-  </si>
-  <si>
-    <t>Chào cờ-7A2</t>
-  </si>
-  <si>
-    <t>HDNGLL-7A2</t>
-  </si>
-  <si>
-    <t>Đỗ  Thị Vâng</t>
-  </si>
-  <si>
-    <t>Âm nhạc-9A8</t>
-  </si>
-  <si>
-    <t>Âm nhạc-6A1</t>
-  </si>
-  <si>
-    <t>Âm nhạc-9A7</t>
-  </si>
-  <si>
-    <t>Âm nhạc-6A2</t>
-  </si>
-  <si>
-    <t>Sinh hoạt lớp-6A1</t>
-  </si>
-  <si>
-    <t>Âm nhạc-9A2</t>
-  </si>
-  <si>
-    <t>Âm nhạc-6A3</t>
-  </si>
-  <si>
-    <t>Âm nhạc-9A1</t>
-  </si>
-  <si>
-    <t>Âm nhạc-9A3</t>
-  </si>
-  <si>
-    <t>Âm nhạc-6A5</t>
-  </si>
-  <si>
-    <t>Âm nhạc-6A7</t>
-  </si>
-  <si>
-    <t>Chào cờ-6A1</t>
-  </si>
-  <si>
-    <t>HDNGLL-6A1</t>
-  </si>
-  <si>
-    <t>Phan Thị Hay</t>
-  </si>
-  <si>
-    <t>Sinh hoạt lớp-9A8</t>
-  </si>
-  <si>
-    <t>Toán-9A6</t>
-  </si>
-  <si>
-    <t>Toán-9A1</t>
-  </si>
-  <si>
-    <t>Toán-9A8</t>
-  </si>
-  <si>
-    <t>Toán-9A5</t>
-  </si>
-  <si>
-    <t>Phan Thanh Tâm</t>
-  </si>
-  <si>
-    <t>HDNGLL-6A4</t>
-  </si>
-  <si>
-    <t>Toán-6A6</t>
-  </si>
-  <si>
-    <t>Toán-6A4</t>
-  </si>
-  <si>
-    <t>Toán-9A4</t>
-  </si>
-  <si>
-    <t>Toán-9A2</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn Bình</t>
-  </si>
-  <si>
-    <t>Toán-6A5</t>
-  </si>
-  <si>
-    <t>Toán-7A5</t>
-  </si>
-  <si>
-    <t>Toán-6A2</t>
-  </si>
-  <si>
-    <t>Toán-7A1</t>
-  </si>
-  <si>
-    <t>Lê Thái Ninh</t>
-  </si>
-  <si>
-    <t>Sinh hoạt lớp-8A6</t>
-  </si>
-  <si>
-    <t>Chào cờ-8A6</t>
-  </si>
-  <si>
-    <t>Toán-8A2</t>
-  </si>
-  <si>
-    <t>Toán-8A8</t>
-  </si>
-  <si>
-    <t>Toán-8A6</t>
-  </si>
-  <si>
-    <t>Toán-8A4</t>
-  </si>
-  <si>
-    <t>Lê Hận</t>
-  </si>
-  <si>
-    <t>Toán-7A7</t>
-  </si>
-  <si>
-    <t>Toán-7A2</t>
-  </si>
-  <si>
-    <t>Toán-7A4</t>
-  </si>
-  <si>
-    <t>Toán-7A6</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn Đồng</t>
-  </si>
-  <si>
-    <t>Toán-8A3</t>
-  </si>
-  <si>
-    <t>Toán-8A1</t>
-  </si>
-  <si>
-    <t>Toán-8A5</t>
-  </si>
-  <si>
-    <t>Toán-8A7</t>
-  </si>
-  <si>
-    <t>Sinh hoạt lớp-8A5</t>
-  </si>
-  <si>
-    <t>Chào cờ-8A5</t>
-  </si>
-  <si>
-    <t>Võ Thị Nhàn</t>
-  </si>
-  <si>
-    <t>Công nghệ-7A3</t>
-  </si>
-  <si>
-    <t>Vật lý-9A1</t>
-  </si>
-  <si>
-    <t>Sinh hoạt lớp-9A1</t>
-  </si>
-  <si>
-    <t>Chào cờ-9A1</t>
-  </si>
-  <si>
-    <t>Công nghệ-7A2</t>
-  </si>
-  <si>
-    <t>Công nghệ-7A1</t>
-  </si>
-  <si>
-    <t>Nguyễn Trường Thi</t>
-  </si>
-  <si>
-    <t>Công nghệ-9A2</t>
-  </si>
-  <si>
-    <t>Công nghệ-9A4</t>
-  </si>
-  <si>
-    <t>Chào cờ-9A6</t>
-  </si>
-  <si>
-    <t>Công nghệ-9A3</t>
-  </si>
-  <si>
-    <t>Công nghệ-9A1</t>
-  </si>
-  <si>
-    <t>Công nghệ-9A6</t>
-  </si>
-  <si>
-    <t>Công nghệ-9A7</t>
-  </si>
-  <si>
-    <t>Công nghệ-9A8</t>
-  </si>
-  <si>
-    <t>Vật lý-7A2</t>
-  </si>
-  <si>
-    <t>Vật lý-7A1</t>
-  </si>
-  <si>
-    <t>Ngô Tùng Đức</t>
-  </si>
-  <si>
-    <t>Vật lý-6A7</t>
-  </si>
-  <si>
-    <t>Vật lý-6A1</t>
-  </si>
-  <si>
-    <t>Vật lý-6A4</t>
-  </si>
-  <si>
-    <t>Vật lý-6A3</t>
-  </si>
-  <si>
-    <t>Vật lý-9A5</t>
-  </si>
-  <si>
-    <t>Vật lý-6A5</t>
-  </si>
-  <si>
-    <t>Vật lý-9A6</t>
-  </si>
-  <si>
-    <t>Vật lý-9A7</t>
-  </si>
-  <si>
-    <t>Vật lý-9A3</t>
-  </si>
-  <si>
-    <t>Đỗ Hồng Quang</t>
-  </si>
-  <si>
-    <t>Vật lý-7A3</t>
-  </si>
-  <si>
-    <t>Công nghệ-8A7</t>
-  </si>
-  <si>
-    <t>Công nghệ-8A8</t>
-  </si>
-  <si>
-    <t>Vật lý-7A6</t>
-  </si>
-  <si>
-    <t>HDNGLL-7A3</t>
-  </si>
-  <si>
-    <t>Sinh hoạt lớp-7A3</t>
-  </si>
-  <si>
-    <t>Vật lý-7A5</t>
-  </si>
-  <si>
-    <t>Chào cờ-7A3</t>
-  </si>
-  <si>
-    <t>Lê Văn Viến</t>
-  </si>
-  <si>
-    <t>Vật lý-8A2</t>
-  </si>
-  <si>
-    <t>Công nghệ-8A1</t>
-  </si>
-  <si>
-    <t>Công nghệ-8A5</t>
-  </si>
-  <si>
-    <t>Công nghệ-8A3</t>
-  </si>
-  <si>
-    <t>Vật lý-8A1</t>
-  </si>
-  <si>
-    <t>Công nghệ-8A6</t>
-  </si>
-  <si>
-    <t>Sinh hoạt lớp-8A3</t>
-  </si>
-  <si>
-    <t>Chào cờ-8A3</t>
-  </si>
-  <si>
-    <t>Lương  Thị Ngọc</t>
-  </si>
-  <si>
-    <t>Công nghệ-8A4</t>
-  </si>
-  <si>
-    <t>Vật lý-8A5</t>
-  </si>
-  <si>
-    <t>Vật lý-8A7</t>
-  </si>
-  <si>
-    <t>Vật lý-8A8</t>
-  </si>
-  <si>
-    <t>Sinh hoạt lớp-8A8</t>
-  </si>
-  <si>
-    <t>Công nghệ-8A2</t>
-  </si>
-  <si>
-    <t>Vật lý-8A3</t>
-  </si>
-  <si>
-    <t>Vật lý-8A4</t>
-  </si>
-  <si>
-    <t>Vật lý-8A6</t>
-  </si>
-  <si>
-    <t>Chào cờ-8A8</t>
-  </si>
-  <si>
-    <t>Nguyễn  Xuân Hoà</t>
-  </si>
-  <si>
-    <t>Vật lý-9A2</t>
-  </si>
-  <si>
-    <t>Sinh hoạt lớp-9A2</t>
-  </si>
-  <si>
-    <t>Chào cờ-9A2</t>
-  </si>
-  <si>
-    <t>Vật lý-9A4</t>
-  </si>
-  <si>
-    <t>Công nghệ-7A4</t>
-  </si>
-  <si>
-    <t>Công nghệ-7A5</t>
-  </si>
-  <si>
-    <t>Công nghệ-7A7</t>
-  </si>
-  <si>
-    <t>Đinh Thị Ngọc N.Thuận</t>
-  </si>
-  <si>
-    <t>Tin học-9A2</t>
-  </si>
-  <si>
-    <t>Tin học-9A3</t>
-  </si>
-  <si>
-    <t>Tin học-9A5</t>
-  </si>
-  <si>
-    <t>Tin học-9A4</t>
-  </si>
-  <si>
-    <t>Tin học-9A1</t>
-  </si>
-  <si>
-    <t>Đinh Lê Thị.Như Trang</t>
-  </si>
-  <si>
-    <t>Tin học-6A1</t>
-  </si>
-  <si>
-    <t>Tin học-6A2</t>
-  </si>
-  <si>
-    <t>Tin học-6A4</t>
-  </si>
-  <si>
-    <t>Tin học-6A7</t>
-  </si>
-  <si>
-    <t>Tin học-6A3</t>
-  </si>
-  <si>
-    <t>Tin học-6A6</t>
-  </si>
-  <si>
-    <t>Toán-6A3</t>
-  </si>
-  <si>
-    <t>Tin học-6A5</t>
-  </si>
-  <si>
-    <t>Trần Cao Hoàng</t>
-  </si>
-  <si>
-    <t>Tin học-8A5</t>
-  </si>
-  <si>
-    <t>Tin học-8A3</t>
-  </si>
-  <si>
-    <t>Tin học-8A2</t>
-  </si>
-  <si>
-    <t>Tin học-8A4</t>
-  </si>
-  <si>
-    <t>Tin học-8A1</t>
-  </si>
-  <si>
-    <t>Võ Văn Lâm</t>
-  </si>
-  <si>
-    <t>Tin học-7A3</t>
-  </si>
-  <si>
-    <t>Tin học-7A7</t>
-  </si>
-  <si>
-    <t>Tin học-7A6</t>
-  </si>
-  <si>
-    <t>Tin học-7A5</t>
-  </si>
-  <si>
-    <t>Tin học-7A1</t>
-  </si>
-  <si>
-    <t>Tin học-7A2</t>
-  </si>
-  <si>
-    <t>Nguyễn  Thị Chín</t>
-  </si>
-  <si>
-    <t>Hóa học-9A2</t>
-  </si>
-  <si>
-    <t>Hóa học-9A3</t>
-  </si>
-  <si>
-    <t>Hóa học-9A1</t>
-  </si>
-  <si>
-    <t>Hóa học-9A4</t>
-  </si>
-  <si>
-    <t>Hóa học-9A5</t>
-  </si>
-  <si>
-    <t>Trần Minh Sen</t>
-  </si>
-  <si>
-    <t>Hóa học-8A4</t>
-  </si>
-  <si>
-    <t>Hóa học-8A3</t>
-  </si>
-  <si>
-    <t>Hóa học-8A2</t>
-  </si>
-  <si>
-    <t>Hóa học-8A7</t>
-  </si>
-  <si>
-    <t>Hóa học-8A1</t>
-  </si>
-  <si>
-    <t>Khổng Thị Xuân Diệu</t>
-  </si>
-  <si>
-    <t>Sinh học-9A6</t>
-  </si>
-  <si>
-    <t>Sinh học-9A3</t>
-  </si>
-  <si>
-    <t>Sinh học-9A4</t>
-  </si>
-  <si>
-    <t>Sinh học-9A1</t>
-  </si>
-  <si>
-    <t>Sinh học-9A2</t>
-  </si>
-  <si>
-    <t>Lê Thị Ngọc Tuyền</t>
-  </si>
-  <si>
-    <t>Sinh học-6A7</t>
-  </si>
-  <si>
-    <t>Sinh học-6A2</t>
-  </si>
-  <si>
-    <t>Sinh học-6A6</t>
-  </si>
-  <si>
-    <t>Sinh học-6A4</t>
-  </si>
-  <si>
-    <t>Sinh học-6A3</t>
-  </si>
-  <si>
-    <t>Sinh học-6A1</t>
-  </si>
-  <si>
-    <t>Sinh học-6A5</t>
-  </si>
-  <si>
-    <t>Sinh hoạt lớp-6A2</t>
-  </si>
-  <si>
-    <t>Chào cờ-6A2</t>
-  </si>
-  <si>
-    <t>Phạm Đình Tuấn</t>
-  </si>
-  <si>
-    <t>Sinh học-8A5</t>
-  </si>
-  <si>
-    <t>Sinh học-8A7</t>
-  </si>
-  <si>
-    <t>Sinh học-8A4</t>
-  </si>
-  <si>
-    <t>Sinh học-8A2</t>
-  </si>
-  <si>
-    <t>Sinh học-8A1</t>
-  </si>
-  <si>
-    <t>Lê  Hữu Nhương</t>
-  </si>
-  <si>
-    <t>Sinh học-7A6</t>
-  </si>
-  <si>
-    <t>Sinh học-7A3</t>
-  </si>
-  <si>
-    <t>Sinh học-7A7</t>
-  </si>
-  <si>
-    <t>Sinh học-7A2</t>
-  </si>
-  <si>
-    <t>Sinh học-7A1</t>
-  </si>
-  <si>
-    <t>Phạm Đình Tiếng</t>
-  </si>
-  <si>
-    <t>Phan Thanh Hải</t>
-  </si>
-  <si>
-    <t>Địa lí-6A2</t>
-  </si>
-  <si>
-    <t>Địa lí-6A3</t>
-  </si>
-  <si>
-    <t>Địa lí-6A1</t>
-  </si>
-  <si>
-    <t>Địa lí-9A5</t>
-  </si>
-  <si>
-    <t>Địa lí-9A3</t>
-  </si>
-  <si>
-    <t>Phan Thị Thúy Hằng</t>
-  </si>
-  <si>
-    <t>Địa lí-6A4</t>
-  </si>
-  <si>
-    <t>Địa lí-6A6</t>
-  </si>
-  <si>
-    <t>Địa lí-6A5</t>
-  </si>
-  <si>
-    <t>Địa lí-6A7</t>
-  </si>
-  <si>
-    <t>HDNGLL-6A7</t>
-  </si>
-  <si>
-    <t>Sinh hoạt lớp-6A7</t>
-  </si>
-  <si>
-    <t>Chào cờ-6A7</t>
-  </si>
-  <si>
-    <t>Địa lí-7A7</t>
-  </si>
-  <si>
-    <t>Địa lí-7A3</t>
-  </si>
-  <si>
-    <t>Địa lí-7A4</t>
-  </si>
-  <si>
-    <t>Mai Thị Trường An</t>
-  </si>
-  <si>
-    <t>Địa lí-9A7</t>
-  </si>
-  <si>
-    <t>Địa lí-9A8</t>
-  </si>
-  <si>
-    <t>Địa lí-9A6</t>
-  </si>
-  <si>
-    <t>Địa lí-8A3</t>
-  </si>
-  <si>
-    <t>Địa lí-8A4</t>
-  </si>
-  <si>
-    <t>Lê Công Thơ</t>
-  </si>
-  <si>
-    <t>Công nghệ-6A4</t>
-  </si>
-  <si>
-    <t>Công nghệ-6A2</t>
-  </si>
-  <si>
-    <t>HDNGLL-6A6</t>
-  </si>
-  <si>
-    <t>Sinh hoạt lớp-6A6</t>
-  </si>
-  <si>
-    <t>Chào cờ-6A6</t>
-  </si>
-  <si>
-    <t>Công nghệ-6A6</t>
-  </si>
-  <si>
-    <t>Công nghệ-6A1</t>
-  </si>
-  <si>
-    <t>Công nghệ-6A3</t>
-  </si>
-  <si>
-    <t>Phạm Quang Trung</t>
-  </si>
-  <si>
-    <t>Ngữ văn-6A7</t>
-  </si>
-  <si>
-    <t>Ngữ văn-6A4</t>
-  </si>
-  <si>
-    <t>Ngữ văn-6A2</t>
-  </si>
-  <si>
-    <t>Ngữ văn-6A6</t>
-  </si>
-  <si>
-    <t>Thể dục-6A3</t>
-  </si>
-  <si>
-    <t>Thể dục-6A2</t>
-  </si>
-  <si>
-    <t>Thể dục-8A4</t>
-  </si>
-  <si>
-    <t>Thể dục-6A1</t>
+    <t>Anh văn-4C</t>
+  </si>
+  <si>
+    <t>Anh văn-4A</t>
+  </si>
+  <si>
+    <t>Anh văn-4B</t>
+  </si>
+  <si>
+    <t>Anh văn-3C</t>
+  </si>
+  <si>
+    <t>Anh văn-3D</t>
+  </si>
+  <si>
+    <t>Lê Xuân Phong</t>
+  </si>
+  <si>
+    <t>Tập đọc-5D</t>
+  </si>
+  <si>
+    <t>Luyện từ và câu-5D</t>
+  </si>
+  <si>
+    <t>Tập làm văn-5D</t>
+  </si>
+  <si>
+    <t>Toán-5D</t>
+  </si>
+  <si>
+    <t>Đạo đức-5D</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-5D</t>
+  </si>
+  <si>
+    <t>Chính tả-5D</t>
+  </si>
+  <si>
+    <t>Sinh hoạt lớp-5D</t>
+  </si>
+  <si>
+    <t>Chào cờ-5D</t>
+  </si>
+  <si>
+    <t>Khoa học-5D</t>
+  </si>
+  <si>
+    <t>Lịch sử-5D</t>
+  </si>
+  <si>
+    <t>Địa lý-5D</t>
+  </si>
+  <si>
+    <t>Kỹ thuật-5D</t>
+  </si>
+  <si>
+    <t>Kể chuyện-5D</t>
+  </si>
+  <si>
+    <t>Nguyễn Thanh Tùng</t>
+  </si>
+  <si>
+    <t>Tập đọc-5C</t>
+  </si>
+  <si>
+    <t>Luyện từ và câu-5C</t>
+  </si>
+  <si>
+    <t>Tập làm văn-5C</t>
+  </si>
+  <si>
+    <t>Toán-5C</t>
+  </si>
+  <si>
+    <t>Đạo đức-5C</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-5C</t>
+  </si>
+  <si>
+    <t>Chính tả-5C</t>
+  </si>
+  <si>
+    <t>Sinh hoạt lớp-5C</t>
+  </si>
+  <si>
+    <t>Chào cờ-5C</t>
+  </si>
+  <si>
+    <t>Khoa học-5C</t>
+  </si>
+  <si>
+    <t>Lịch sử-5C</t>
+  </si>
+  <si>
+    <t>Địa lý-5C</t>
+  </si>
+  <si>
+    <t>Kỹ thuật-5C</t>
+  </si>
+  <si>
+    <t>Kể chuyện-5C</t>
+  </si>
+  <si>
+    <t>Võ Thị Hồng Phương</t>
+  </si>
+  <si>
+    <t>Tập đọc-5B</t>
+  </si>
+  <si>
+    <t>Luyện từ và câu-5B</t>
+  </si>
+  <si>
+    <t>Tập làm văn-5B</t>
+  </si>
+  <si>
+    <t>Toán-5B</t>
+  </si>
+  <si>
+    <t>Đạo đức-5B</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-5B</t>
+  </si>
+  <si>
+    <t>Chính tả-5B</t>
+  </si>
+  <si>
+    <t>Sinh hoạt lớp-5B</t>
+  </si>
+  <si>
+    <t>Chào cờ-5B</t>
+  </si>
+  <si>
+    <t>Khoa học-5B</t>
+  </si>
+  <si>
+    <t>Lịch sử-5B</t>
+  </si>
+  <si>
+    <t>Địa lý-5B</t>
+  </si>
+  <si>
+    <t>Kỹ thuật-5B</t>
+  </si>
+  <si>
+    <t>Kể chuyện-5B</t>
+  </si>
+  <si>
+    <t>Trần Công Đức</t>
+  </si>
+  <si>
+    <t>Tập đọc-5A</t>
+  </si>
+  <si>
+    <t>Luyện từ và câu-5A</t>
+  </si>
+  <si>
+    <t>Tập làm văn-5A</t>
+  </si>
+  <si>
+    <t>Toán-5A</t>
+  </si>
+  <si>
+    <t>Đạo đức-5A</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-5A</t>
+  </si>
+  <si>
+    <t>Chính tả-5A</t>
+  </si>
+  <si>
+    <t>Sinh hoạt lớp-5A</t>
+  </si>
+  <si>
+    <t>Chào cờ-5A</t>
+  </si>
+  <si>
+    <t>Khoa học-5A</t>
+  </si>
+  <si>
+    <t>Lịch sử-5A</t>
+  </si>
+  <si>
+    <t>Địa lý-5A</t>
+  </si>
+  <si>
+    <t>Kỹ thuật-5A</t>
+  </si>
+  <si>
+    <t>Kể chuyện-5A</t>
+  </si>
+  <si>
+    <t>Huỳnh Thị Diễm</t>
+  </si>
+  <si>
+    <t>Tập đọc-4C</t>
+  </si>
+  <si>
+    <t>Luyện từ và câu-4C</t>
+  </si>
+  <si>
+    <t>Tập làm văn-4C</t>
+  </si>
+  <si>
+    <t>Toán-4C</t>
+  </si>
+  <si>
+    <t>Đạo đức-4C</t>
+  </si>
+  <si>
+    <t>Chính tả-4C</t>
+  </si>
+  <si>
+    <t>Sinh hoạt lớp-4C</t>
+  </si>
+  <si>
+    <t>Chào cờ-4C</t>
+  </si>
+  <si>
+    <t>Khoa học-4C</t>
+  </si>
+  <si>
+    <t>Lịch sử-4C</t>
+  </si>
+  <si>
+    <t>Địa lý-4C</t>
+  </si>
+  <si>
+    <t>Kỹ thuật-4C</t>
+  </si>
+  <si>
+    <t>Kể chuyện-4C</t>
+  </si>
+  <si>
+    <t>Đỗ Thị Quốc Danh</t>
+  </si>
+  <si>
+    <t>Tập đọc-4B</t>
+  </si>
+  <si>
+    <t>Luyện từ và câu-4B</t>
+  </si>
+  <si>
+    <t>Tập làm văn-4B</t>
+  </si>
+  <si>
+    <t>Toán-4B</t>
+  </si>
+  <si>
+    <t>Đạo đức-4B</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-4B</t>
+  </si>
+  <si>
+    <t>Chính tả-4B</t>
+  </si>
+  <si>
+    <t>Sinh hoạt lớp-4B</t>
+  </si>
+  <si>
+    <t>Chào cờ-4B</t>
+  </si>
+  <si>
+    <t>Khoa học-4B</t>
+  </si>
+  <si>
+    <t>Lịch sử-4B</t>
+  </si>
+  <si>
+    <t>Địa lý-4B</t>
+  </si>
+  <si>
+    <t>Kỹ thuật-4B</t>
+  </si>
+  <si>
+    <t>Kể chuyện-4B</t>
+  </si>
+  <si>
+    <t>Trần Quang Phú</t>
+  </si>
+  <si>
+    <t>Tập đọc-4A</t>
+  </si>
+  <si>
+    <t>Luyện từ và câu-4A</t>
+  </si>
+  <si>
+    <t>Tập làm văn-4A</t>
+  </si>
+  <si>
+    <t>Toán-4A</t>
+  </si>
+  <si>
+    <t>Đạo đức-4A</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-4A</t>
+  </si>
+  <si>
+    <t>Chính tả-4A</t>
+  </si>
+  <si>
+    <t>Sinh hoạt lớp-4A</t>
+  </si>
+  <si>
+    <t>Chào cờ-4A</t>
+  </si>
+  <si>
+    <t>Khoa học-4A</t>
+  </si>
+  <si>
+    <t>Lịch sử-4A</t>
+  </si>
+  <si>
+    <t>Địa lý-4A</t>
+  </si>
+  <si>
+    <t>Kỹ thuật-4A</t>
+  </si>
+  <si>
+    <t>Kể chuyện-4A</t>
+  </si>
+  <si>
+    <t>Mai Anh Tùng</t>
+  </si>
+  <si>
+    <t>Tập đọc-3D</t>
+  </si>
+  <si>
+    <t>Luyện từ và câu-3D</t>
+  </si>
+  <si>
+    <t>Tập viết-3D</t>
+  </si>
+  <si>
+    <t>Tập làm văn-3D</t>
+  </si>
+  <si>
+    <t>Đạo đức-3D</t>
+  </si>
+  <si>
+    <t>Tự nhiên và Xã hội-3D</t>
+  </si>
+  <si>
+    <t>Thủ công-3D</t>
+  </si>
+  <si>
+    <t>Thể dục-3D</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-3D</t>
+  </si>
+  <si>
+    <t>Chính tả-3D</t>
+  </si>
+  <si>
+    <t>Sinh hoạt lớp-3D</t>
+  </si>
+  <si>
+    <t>Chào cờ-3D</t>
+  </si>
+  <si>
+    <t>Toán-3D</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Nga</t>
+  </si>
+  <si>
+    <t>Tập đọc-3C</t>
+  </si>
+  <si>
+    <t>Luyện từ và câu-3C</t>
+  </si>
+  <si>
+    <t>Tập viết-3C</t>
+  </si>
+  <si>
+    <t>Tập làm văn-3C</t>
+  </si>
+  <si>
+    <t>Đạo đức-3C</t>
+  </si>
+  <si>
+    <t>Tự nhiên và Xã hội-3C</t>
+  </si>
+  <si>
+    <t>Thủ công-3C</t>
+  </si>
+  <si>
+    <t>Thể dục-3C</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-3C</t>
+  </si>
+  <si>
+    <t>Chính tả-3C</t>
+  </si>
+  <si>
+    <t>Sinh hoạt lớp-3C</t>
+  </si>
+  <si>
+    <t>Chào cờ-3C</t>
+  </si>
+  <si>
+    <t>Toán-3C</t>
+  </si>
+  <si>
+    <t>Lê Thị Diễm Lệ</t>
+  </si>
+  <si>
+    <t>Tập đọc-3B</t>
+  </si>
+  <si>
+    <t>Luyện từ và câu-3B</t>
+  </si>
+  <si>
+    <t>Tập viết-3B</t>
+  </si>
+  <si>
+    <t>Tập làm văn-3B</t>
+  </si>
+  <si>
+    <t>Đạo đức-3B</t>
+  </si>
+  <si>
+    <t>Tự nhiên và Xã hội-3B</t>
+  </si>
+  <si>
+    <t>Thủ công-3B</t>
+  </si>
+  <si>
+    <t>Thể dục-3B</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-3B</t>
+  </si>
+  <si>
+    <t>Chính tả-3B</t>
+  </si>
+  <si>
+    <t>Sinh hoạt lớp-3B</t>
+  </si>
+  <si>
+    <t>Chào cờ-3B</t>
+  </si>
+  <si>
+    <t>Toán-3B</t>
+  </si>
+  <si>
+    <t>Phan Thị Đức</t>
+  </si>
+  <si>
+    <t>Tập đọc-3A</t>
+  </si>
+  <si>
+    <t>Luyện từ và câu-3A</t>
+  </si>
+  <si>
+    <t>Tập viết-3A</t>
+  </si>
+  <si>
+    <t>Tập làm văn-3A</t>
+  </si>
+  <si>
+    <t>Đạo đức-3A</t>
+  </si>
+  <si>
+    <t>Tự nhiên và Xã hội-3A</t>
+  </si>
+  <si>
+    <t>Thủ công-3A</t>
+  </si>
+  <si>
+    <t>Thể dục-3A</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-3A</t>
+  </si>
+  <si>
+    <t>Chính tả-3A</t>
+  </si>
+  <si>
+    <t>Sinh hoạt lớp-3A</t>
+  </si>
+  <si>
+    <t>Chào cờ-3A</t>
+  </si>
+  <si>
+    <t>Toán-3A</t>
+  </si>
+  <si>
+    <t>Nguyễn Công Mỹ Trang</t>
+  </si>
+  <si>
+    <t>Tập đọc-2E</t>
+  </si>
+  <si>
+    <t>Kể chuyện-2E</t>
+  </si>
+  <si>
+    <t>Luyện từ và câu-2E</t>
+  </si>
+  <si>
+    <t>Toán-2E</t>
+  </si>
+  <si>
+    <t>Đạo đức-2E</t>
+  </si>
+  <si>
+    <t>Tự nhiên và Xã hội-2E</t>
+  </si>
+  <si>
+    <t>Thủ công-2E</t>
+  </si>
+  <si>
+    <t>Thể dục-2E</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-2E</t>
+  </si>
+  <si>
+    <t>Chính tả-2E</t>
+  </si>
+  <si>
+    <t>Sinh hoạt lớp-2E</t>
+  </si>
+  <si>
+    <t>Chào cờ-2E</t>
+  </si>
+  <si>
+    <t>Tập viết-2E</t>
+  </si>
+  <si>
+    <t>Tập làm văn-2E</t>
+  </si>
+  <si>
+    <t>Trần Thị Thu Hà</t>
+  </si>
+  <si>
+    <t>Tập đọc-2D</t>
+  </si>
+  <si>
+    <t>Kể chuyện-2D</t>
+  </si>
+  <si>
+    <t>Luyện từ và câu-2D</t>
+  </si>
+  <si>
+    <t>Toán-2D</t>
+  </si>
+  <si>
+    <t>Đạo đức-2D</t>
+  </si>
+  <si>
+    <t>Tự nhiên và Xã hội-2D</t>
+  </si>
+  <si>
+    <t>Thủ công-2D</t>
+  </si>
+  <si>
+    <t>Thể dục-2D</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-2D</t>
+  </si>
+  <si>
+    <t>Chính tả-2D</t>
+  </si>
+  <si>
+    <t>Sinh hoạt lớp-2D</t>
+  </si>
+  <si>
+    <t>Chào cờ-2D</t>
+  </si>
+  <si>
+    <t>Tập viết-2D</t>
+  </si>
+  <si>
+    <t>Tập làm văn-2D</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Ngọc Thạch</t>
+  </si>
+  <si>
+    <t>Tập đọc-2C</t>
+  </si>
+  <si>
+    <t>Kể chuyện-2C</t>
+  </si>
+  <si>
+    <t>Luyện từ và câu-2C</t>
+  </si>
+  <si>
+    <t>Toán-2C</t>
+  </si>
+  <si>
+    <t>Đạo đức-2C</t>
+  </si>
+  <si>
+    <t>Tự nhiên và Xã hội-2C</t>
+  </si>
+  <si>
+    <t>Thủ công-2C</t>
+  </si>
+  <si>
+    <t>Thể dục-2C</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-2C</t>
+  </si>
+  <si>
+    <t>Chính tả-2C</t>
+  </si>
+  <si>
+    <t>Sinh hoạt lớp-2C</t>
+  </si>
+  <si>
+    <t>Chào cờ-2C</t>
+  </si>
+  <si>
+    <t>Tập viết-2C</t>
+  </si>
+  <si>
+    <t>Tập làm văn-2C</t>
+  </si>
+  <si>
+    <t>Đào Thị Ngọc</t>
+  </si>
+  <si>
+    <t>Tập đọc-2B</t>
+  </si>
+  <si>
+    <t>Kể chuyện-2B</t>
+  </si>
+  <si>
+    <t>Luyện từ và câu-2B</t>
+  </si>
+  <si>
+    <t>Toán-2B</t>
+  </si>
+  <si>
+    <t>Đạo đức-2B</t>
+  </si>
+  <si>
+    <t>Tự nhiên và Xã hội-2B</t>
+  </si>
+  <si>
+    <t>Thủ công-2B</t>
+  </si>
+  <si>
+    <t>Thể dục-2B</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-2B</t>
+  </si>
+  <si>
+    <t>Chính tả-2B</t>
+  </si>
+  <si>
+    <t>Sinh hoạt lớp-2B</t>
+  </si>
+  <si>
+    <t>Chào cờ-2B</t>
+  </si>
+  <si>
+    <t>Tập viết-2B</t>
+  </si>
+  <si>
+    <t>Tập làm văn-2B</t>
+  </si>
+  <si>
+    <t>Tạ Nguyễn Hướng Dương</t>
+  </si>
+  <si>
+    <t>Tập đọc-2A</t>
+  </si>
+  <si>
+    <t>Kể chuyện-2A</t>
+  </si>
+  <si>
+    <t>Luyện từ và câu-2A</t>
+  </si>
+  <si>
+    <t>Toán-2A</t>
+  </si>
+  <si>
+    <t>Đạo đức-2A</t>
+  </si>
+  <si>
+    <t>Tự nhiên và Xã hội-2A</t>
+  </si>
+  <si>
+    <t>Thủ công-2A</t>
+  </si>
+  <si>
+    <t>Thể dục-2A</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-2A</t>
+  </si>
+  <si>
+    <t>Chính tả-2A</t>
+  </si>
+  <si>
+    <t>Sinh hoạt lớp-2A</t>
+  </si>
+  <si>
+    <t>Chào cờ-2A</t>
+  </si>
+  <si>
+    <t>Tập viết-2A</t>
+  </si>
+  <si>
+    <t>Tập làm văn-2A</t>
+  </si>
+  <si>
+    <t>Đỗ Thị Phân</t>
+  </si>
+  <si>
+    <t>Học vần-1D</t>
+  </si>
+  <si>
+    <t>Toán-1D</t>
+  </si>
+  <si>
+    <t>Đạo đức-1D</t>
+  </si>
+  <si>
+    <t>Tự nhiên và Xã hội-1D</t>
+  </si>
+  <si>
+    <t>Thủ công-1D</t>
+  </si>
+  <si>
+    <t>Thể dục-1D</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-1D</t>
+  </si>
+  <si>
+    <t>Sinh hoạt lớp-1D</t>
+  </si>
+  <si>
+    <t>Chào cờ-1D</t>
+  </si>
+  <si>
+    <t>Phan Thị Ngân</t>
+  </si>
+  <si>
+    <t>Học vần-1C</t>
+  </si>
+  <si>
+    <t>Toán-1C</t>
+  </si>
+  <si>
+    <t>Đạo đức-1C</t>
+  </si>
+  <si>
+    <t>Tự nhiên và Xã hội-1C</t>
+  </si>
+  <si>
+    <t>Thủ công-1C</t>
+  </si>
+  <si>
+    <t>Thể dục-1C</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-1C</t>
+  </si>
+  <si>
+    <t>Sinh hoạt lớp-1C</t>
+  </si>
+  <si>
+    <t>Chào cờ-1C</t>
+  </si>
+  <si>
+    <t>Trịnh Thị Lệ Hoa</t>
+  </si>
+  <si>
+    <t>Học vần-1B</t>
+  </si>
+  <si>
+    <t>Toán-1B</t>
+  </si>
+  <si>
+    <t>Đạo đức-1B</t>
+  </si>
+  <si>
+    <t>Tự nhiên và Xã hội-1B</t>
+  </si>
+  <si>
+    <t>Thủ công-1B</t>
+  </si>
+  <si>
+    <t>Thể dục-1B</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-1B</t>
+  </si>
+  <si>
+    <t>Sinh hoạt lớp-1B</t>
+  </si>
+  <si>
+    <t>Chào cờ-1B</t>
+  </si>
+  <si>
+    <t>Võ Thị Thanh Khiết</t>
+  </si>
+  <si>
+    <t>Học vần-1A</t>
+  </si>
+  <si>
+    <t>Toán-1A</t>
+  </si>
+  <si>
+    <t>Sinh hoạt lớp-1A</t>
+  </si>
+  <si>
+    <t>Chào cờ-1A</t>
+  </si>
+  <si>
+    <t>Đạo đức-1A</t>
+  </si>
+  <si>
+    <t>Tự nhiên và Xã hội-1A</t>
+  </si>
+  <si>
+    <t>Trần Văn Thành</t>
+  </si>
+  <si>
+    <t>Anh văn-3A</t>
+  </si>
+  <si>
+    <t>Anh văn-5A</t>
+  </si>
+  <si>
+    <t>Anh văn-5B</t>
+  </si>
+  <si>
+    <t>Anh văn-5C</t>
+  </si>
+  <si>
+    <t>Anh văn-3B</t>
+  </si>
+  <si>
+    <t>Âm nhạc-4D</t>
+  </si>
+  <si>
+    <t>Âm nhạc-1A</t>
+  </si>
+  <si>
+    <t>Âm nhạc-1B</t>
+  </si>
+  <si>
+    <t>Âm nhạc-1C</t>
+  </si>
+  <si>
+    <t>Âm nhạc-1D</t>
+  </si>
+  <si>
+    <t>Âm nhạc-2A</t>
+  </si>
+  <si>
+    <t>Âm nhạc-2B</t>
+  </si>
+  <si>
+    <t>Âm nhạc-2C</t>
+  </si>
+  <si>
+    <t>Âm nhạc-2D</t>
+  </si>
+  <si>
+    <t>Âm nhạc-2E</t>
+  </si>
+  <si>
+    <t>Âm nhạc-3A</t>
   </si>
   <si>
     <t>KT. HIỆU TRƯỞNG</t>
@@ -2127,35 +1737,35 @@
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="4.570313" bestFit="true" customWidth="true" style="1"/>
-    <col min="2" max="2" width="25.85083" bestFit="true" customWidth="true" style="1"/>
+    <col min="2" max="2" width="24.708252" bestFit="true" customWidth="true" style="1"/>
     <col min="3" max="3" width="10.568848" bestFit="true" customWidth="true" style="1"/>
-    <col min="4" max="4" width="8.140869" bestFit="true" customWidth="true" style="1"/>
-    <col min="5" max="5" width="8.140869" bestFit="true" customWidth="true" style="1"/>
-    <col min="6" max="6" width="8.140869" bestFit="true" customWidth="true" style="1"/>
-    <col min="7" max="7" width="8.140869" bestFit="true" customWidth="true" style="1"/>
-    <col min="8" max="8" width="8.140869" bestFit="true" customWidth="true" style="1"/>
-    <col min="9" max="9" width="21.137695" bestFit="true" customWidth="true" style="1"/>
-    <col min="10" max="10" width="16.424561" bestFit="true" customWidth="true" style="1"/>
-    <col min="11" max="11" width="16.424561" bestFit="true" customWidth="true" style="1"/>
-    <col min="12" max="12" width="21.137695" bestFit="true" customWidth="true" style="1"/>
-    <col min="13" max="13" width="21.137695" bestFit="true" customWidth="true" style="1"/>
-    <col min="14" max="14" width="16.424561" bestFit="true" customWidth="true" style="1"/>
-    <col min="15" max="15" width="16.424561" bestFit="true" customWidth="true" style="1"/>
-    <col min="16" max="16" width="21.137695" bestFit="true" customWidth="true" style="1"/>
-    <col min="17" max="17" width="21.137695" bestFit="true" customWidth="true" style="1"/>
-    <col min="18" max="18" width="21.137695" bestFit="true" customWidth="true" style="1"/>
-    <col min="19" max="19" width="21.137695" bestFit="true" customWidth="true" style="1"/>
-    <col min="20" max="20" width="21.137695" bestFit="true" customWidth="true" style="1"/>
-    <col min="21" max="21" width="21.137695" bestFit="true" customWidth="true" style="1"/>
-    <col min="22" max="22" width="16.424561" bestFit="true" customWidth="true" style="1"/>
-    <col min="23" max="23" width="21.137695" bestFit="true" customWidth="true" style="1"/>
-    <col min="24" max="24" width="21.137695" bestFit="true" customWidth="true" style="1"/>
-    <col min="25" max="25" width="21.137695" bestFit="true" customWidth="true" style="1"/>
-    <col min="26" max="26" width="16.424561" bestFit="true" customWidth="true" style="1"/>
-    <col min="27" max="27" width="16.424561" bestFit="true" customWidth="true" style="1"/>
-    <col min="28" max="28" width="21.137695" bestFit="true" customWidth="true" style="1"/>
-    <col min="29" max="29" width="21.137695" bestFit="true" customWidth="true" style="1"/>
-    <col min="30" max="30" width="16.424561" bestFit="true" customWidth="true" style="1"/>
+    <col min="4" max="4" width="12.854004" bestFit="true" customWidth="true" style="1"/>
+    <col min="5" max="5" width="12.854004" bestFit="true" customWidth="true" style="1"/>
+    <col min="6" max="6" width="22.280273" bestFit="true" customWidth="true" style="1"/>
+    <col min="7" max="7" width="22.280273" bestFit="true" customWidth="true" style="1"/>
+    <col min="8" max="8" width="22.280273" bestFit="true" customWidth="true" style="1"/>
+    <col min="9" max="9" width="19.995117" bestFit="true" customWidth="true" style="1"/>
+    <col min="10" max="10" width="25.85083" bestFit="true" customWidth="true" style="1"/>
+    <col min="11" max="11" width="25.85083" bestFit="true" customWidth="true" style="1"/>
+    <col min="12" max="12" width="25.85083" bestFit="true" customWidth="true" style="1"/>
+    <col min="13" max="13" width="19.995117" bestFit="true" customWidth="true" style="1"/>
+    <col min="14" max="14" width="25.85083" bestFit="true" customWidth="true" style="1"/>
+    <col min="15" max="15" width="13.996582" bestFit="true" customWidth="true" style="1"/>
+    <col min="16" max="16" width="13.996582" bestFit="true" customWidth="true" style="1"/>
+    <col min="17" max="17" width="13.996582" bestFit="true" customWidth="true" style="1"/>
+    <col min="18" max="18" width="19.995117" bestFit="true" customWidth="true" style="1"/>
+    <col min="19" max="19" width="19.995117" bestFit="true" customWidth="true" style="1"/>
+    <col min="20" max="20" width="15.281982" bestFit="true" customWidth="true" style="1"/>
+    <col min="21" max="21" width="12.854004" bestFit="true" customWidth="true" style="1"/>
+    <col min="22" max="22" width="12.854004" bestFit="true" customWidth="true" style="1"/>
+    <col min="23" max="23" width="12.854004" bestFit="true" customWidth="true" style="1"/>
+    <col min="24" max="24" width="12.854004" bestFit="true" customWidth="true" style="1"/>
+    <col min="25" max="25" width="12.854004" bestFit="true" customWidth="true" style="1"/>
+    <col min="26" max="26" width="12.854004" bestFit="true" customWidth="true" style="1"/>
+    <col min="27" max="27" width="12.854004" bestFit="true" customWidth="true" style="1"/>
+    <col min="28" max="28" width="12.854004" bestFit="true" customWidth="true" style="1"/>
+    <col min="29" max="29" width="17.567139" bestFit="true" customWidth="true" style="1"/>
+    <col min="30" max="30" width="25.85083" bestFit="true" customWidth="true" style="1"/>
     <col min="31" max="31" width="8.140869" bestFit="true" customWidth="true" style="1"/>
     <col min="32" max="32" width="8.140869" bestFit="true" customWidth="true" style="1"/>
     <col min="33" max="33" width="8.140869" bestFit="true" customWidth="true" style="1"/>
@@ -2405,41 +2015,21 @@
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
-      <c r="N7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="O7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="P7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="R7" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="N7" s="6"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
       <c r="S7" s="6"/>
       <c r="T7" s="5"/>
       <c r="U7" s="5"/>
       <c r="V7" s="5"/>
       <c r="W7" s="5"/>
-      <c r="X7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB7" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
       <c r="AC7" s="6"/>
       <c r="AD7" s="5"/>
       <c r="AE7" s="5"/>
@@ -2449,56 +2039,54 @@
     <row r="8" spans="1:35" customHeight="1" ht="18">
       <c r="A8" s="17"/>
       <c r="B8" s="18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
-      <c r="I8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="N8" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="O8" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="P8" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q8" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="R8" s="8" t="s">
-        <v>19</v>
-      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
       <c r="S8" s="9"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
-      <c r="X8" s="9"/>
-      <c r="Y8" s="8"/>
-      <c r="Z8" s="8"/>
-      <c r="AA8" s="8"/>
-      <c r="AB8" s="8"/>
+      <c r="T8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="U8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="V8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="W8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="X8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB8" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="AC8" s="9"/>
       <c r="AD8" s="8"/>
       <c r="AE8" s="8"/>
@@ -2510,50 +2098,62 @@
         <v>2</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
+      <c r="D9" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>28</v>
+      </c>
       <c r="I9" s="12" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="N9" s="12" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="O9" s="11" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="P9" s="11" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="Q9" s="11" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="R9" s="11" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="S9" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="T9" s="11"/>
+        <v>38</v>
+      </c>
+      <c r="T9" s="11" t="s">
+        <v>39</v>
+      </c>
       <c r="U9" s="11"/>
       <c r="V9" s="11"/>
       <c r="W9" s="11"/>
@@ -2562,8 +2162,12 @@
       <c r="Z9" s="11"/>
       <c r="AA9" s="11"/>
       <c r="AB9" s="11"/>
-      <c r="AC9" s="12"/>
-      <c r="AD9" s="11"/>
+      <c r="AC9" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD9" s="11" t="s">
+        <v>29</v>
+      </c>
       <c r="AE9" s="11"/>
       <c r="AF9" s="11"/>
       <c r="AG9" s="13"/>
@@ -2571,55 +2175,63 @@
     <row r="10" spans="1:35" customHeight="1" ht="18">
       <c r="A10" s="17"/>
       <c r="B10" s="18" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
+        <v>19</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="I10" s="9" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="P10" s="8" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="Q10" s="8" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="R10" s="8" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="S10" s="9" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="T10" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="U10" s="8" t="s">
-        <v>36</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="U10" s="8"/>
       <c r="V10" s="8"/>
       <c r="W10" s="8"/>
       <c r="X10" s="9"/>
@@ -2627,8 +2239,12 @@
       <c r="Z10" s="8"/>
       <c r="AA10" s="8"/>
       <c r="AB10" s="8"/>
-      <c r="AC10" s="9"/>
-      <c r="AD10" s="8"/>
+      <c r="AC10" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD10" s="8" t="s">
+        <v>44</v>
+      </c>
       <c r="AE10" s="8"/>
       <c r="AF10" s="8"/>
       <c r="AG10" s="10"/>
@@ -2638,42 +2254,62 @@
         <v>3</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
+      <c r="D11" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="I11" s="12" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="M11" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="N11" s="12"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
+        <v>63</v>
+      </c>
+      <c r="N11" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="O11" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="P11" s="11" t="s">
+        <v>65</v>
+      </c>
       <c r="Q11" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="R11" s="11"/>
+        <v>66</v>
+      </c>
+      <c r="R11" s="11" t="s">
+        <v>67</v>
+      </c>
       <c r="S11" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="T11" s="11"/>
+        <v>68</v>
+      </c>
+      <c r="T11" s="11" t="s">
+        <v>69</v>
+      </c>
       <c r="U11" s="11"/>
       <c r="V11" s="11"/>
       <c r="W11" s="11"/>
@@ -2682,8 +2318,12 @@
       <c r="Z11" s="11"/>
       <c r="AA11" s="11"/>
       <c r="AB11" s="11"/>
-      <c r="AC11" s="12"/>
-      <c r="AD11" s="11"/>
+      <c r="AC11" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD11" s="11" t="s">
+        <v>59</v>
+      </c>
       <c r="AE11" s="11"/>
       <c r="AF11" s="11"/>
       <c r="AG11" s="13"/>
@@ -2691,53 +2331,63 @@
     <row r="12" spans="1:35" customHeight="1" ht="18">
       <c r="A12" s="17"/>
       <c r="B12" s="18" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
+        <v>19</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>73</v>
+      </c>
       <c r="I12" s="9" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="N12" s="9" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="O12" s="8" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="P12" s="8" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="Q12" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="R12" s="8"/>
+        <v>81</v>
+      </c>
+      <c r="R12" s="8" t="s">
+        <v>82</v>
+      </c>
       <c r="S12" s="9" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="T12" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="U12" s="8" t="s">
-        <v>45</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="U12" s="8"/>
       <c r="V12" s="8"/>
       <c r="W12" s="8"/>
       <c r="X12" s="9"/>
@@ -2745,8 +2395,12 @@
       <c r="Z12" s="8"/>
       <c r="AA12" s="8"/>
       <c r="AB12" s="8"/>
-      <c r="AC12" s="9"/>
-      <c r="AD12" s="8"/>
+      <c r="AC12" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD12" s="8" t="s">
+        <v>74</v>
+      </c>
       <c r="AE12" s="8"/>
       <c r="AF12" s="8"/>
       <c r="AG12" s="10"/>
@@ -2756,48 +2410,58 @@
         <v>4</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
+      <c r="D13" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>88</v>
+      </c>
       <c r="I13" s="12" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="L13" s="11" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="M13" s="11" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="N13" s="12" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="O13" s="11" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="P13" s="11" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="Q13" s="11" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="R13" s="11" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="S13" s="12" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="T13" s="11"/>
       <c r="U13" s="11"/>
@@ -2808,8 +2472,12 @@
       <c r="Z13" s="11"/>
       <c r="AA13" s="11"/>
       <c r="AB13" s="11"/>
-      <c r="AC13" s="12"/>
-      <c r="AD13" s="11"/>
+      <c r="AC13" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD13" s="11" t="s">
+        <v>89</v>
+      </c>
       <c r="AE13" s="11"/>
       <c r="AF13" s="11"/>
       <c r="AG13" s="13"/>
@@ -2817,50 +2485,62 @@
     <row r="14" spans="1:35" customHeight="1" ht="18">
       <c r="A14" s="17"/>
       <c r="B14" s="18" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
+        <v>19</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>102</v>
+      </c>
       <c r="I14" s="9" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>56</v>
+        <v>107</v>
       </c>
       <c r="N14" s="9" t="s">
-        <v>57</v>
+        <v>108</v>
       </c>
       <c r="O14" s="8" t="s">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="P14" s="8" t="s">
-        <v>59</v>
+        <v>109</v>
       </c>
       <c r="Q14" s="8" t="s">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="R14" s="8" t="s">
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="S14" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="T14" s="8"/>
+        <v>112</v>
+      </c>
+      <c r="T14" s="8" t="s">
+        <v>113</v>
+      </c>
       <c r="U14" s="8"/>
       <c r="V14" s="8"/>
       <c r="W14" s="8"/>
@@ -2869,8 +2549,12 @@
       <c r="Z14" s="8"/>
       <c r="AA14" s="8"/>
       <c r="AB14" s="8"/>
-      <c r="AC14" s="9"/>
-      <c r="AD14" s="8"/>
+      <c r="AC14" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD14" s="8" t="s">
+        <v>103</v>
+      </c>
       <c r="AE14" s="8"/>
       <c r="AF14" s="8"/>
       <c r="AG14" s="10"/>
@@ -2880,51 +2564,61 @@
         <v>5</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>63</v>
+        <v>114</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
+      <c r="D15" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>117</v>
+      </c>
       <c r="I15" s="12" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>64</v>
+        <v>119</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>64</v>
+        <v>120</v>
       </c>
       <c r="L15" s="11" t="s">
-        <v>64</v>
+        <v>121</v>
       </c>
       <c r="M15" s="11" t="s">
-        <v>65</v>
+        <v>122</v>
       </c>
       <c r="N15" s="12" t="s">
-        <v>66</v>
+        <v>123</v>
       </c>
       <c r="O15" s="11" t="s">
-        <v>66</v>
+        <v>124</v>
       </c>
       <c r="P15" s="11" t="s">
-        <v>67</v>
+        <v>124</v>
       </c>
       <c r="Q15" s="11" t="s">
-        <v>68</v>
+        <v>125</v>
       </c>
       <c r="R15" s="11" t="s">
-        <v>69</v>
+        <v>126</v>
       </c>
       <c r="S15" s="12" t="s">
-        <v>70</v>
+        <v>127</v>
       </c>
       <c r="T15" s="11" t="s">
-        <v>71</v>
+        <v>128</v>
       </c>
       <c r="U15" s="11"/>
       <c r="V15" s="11"/>
@@ -2934,8 +2628,12 @@
       <c r="Z15" s="11"/>
       <c r="AA15" s="11"/>
       <c r="AB15" s="11"/>
-      <c r="AC15" s="12"/>
-      <c r="AD15" s="11"/>
+      <c r="AC15" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD15" s="11" t="s">
+        <v>118</v>
+      </c>
       <c r="AE15" s="11"/>
       <c r="AF15" s="11"/>
       <c r="AG15" s="13"/>
@@ -2943,55 +2641,61 @@
     <row r="16" spans="1:35" customHeight="1" ht="18">
       <c r="A16" s="17"/>
       <c r="B16" s="18" t="s">
-        <v>72</v>
+        <v>129</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
+        <v>19</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>133</v>
+      </c>
       <c r="I16" s="9" t="s">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>73</v>
+        <v>135</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>73</v>
+        <v>135</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>73</v>
+        <v>136</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>74</v>
+        <v>137</v>
       </c>
       <c r="N16" s="9" t="s">
-        <v>75</v>
+        <v>137</v>
       </c>
       <c r="O16" s="8" t="s">
-        <v>75</v>
+        <v>138</v>
       </c>
       <c r="P16" s="8" t="s">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c r="Q16" s="8" t="s">
-        <v>77</v>
+        <v>139</v>
       </c>
       <c r="R16" s="8" t="s">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="S16" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="T16" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="U16" s="8" t="s">
-        <v>81</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
       <c r="V16" s="8"/>
       <c r="W16" s="8"/>
       <c r="X16" s="9"/>
@@ -2999,8 +2703,12 @@
       <c r="Z16" s="8"/>
       <c r="AA16" s="8"/>
       <c r="AB16" s="8"/>
-      <c r="AC16" s="9"/>
-      <c r="AD16" s="8"/>
+      <c r="AC16" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="AD16" s="8" t="s">
+        <v>142</v>
+      </c>
       <c r="AE16" s="8"/>
       <c r="AF16" s="8"/>
       <c r="AG16" s="10"/>
@@ -3010,66 +2718,74 @@
         <v>6</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>82</v>
+        <v>143</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
+      <c r="D17" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>147</v>
+      </c>
       <c r="I17" s="12" t="s">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>83</v>
+        <v>149</v>
       </c>
       <c r="K17" s="11" t="s">
-        <v>83</v>
+        <v>149</v>
       </c>
       <c r="L17" s="11" t="s">
-        <v>83</v>
+        <v>150</v>
       </c>
       <c r="M17" s="11" t="s">
-        <v>84</v>
+        <v>151</v>
       </c>
       <c r="N17" s="12" t="s">
-        <v>85</v>
+        <v>151</v>
       </c>
       <c r="O17" s="11" t="s">
-        <v>86</v>
+        <v>152</v>
       </c>
       <c r="P17" s="11" t="s">
-        <v>86</v>
+        <v>153</v>
       </c>
       <c r="Q17" s="11" t="s">
-        <v>87</v>
+        <v>153</v>
       </c>
       <c r="R17" s="11" t="s">
-        <v>88</v>
+        <v>154</v>
       </c>
       <c r="S17" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="T17" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="U17" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="V17" s="11" t="s">
-        <v>85</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
       <c r="W17" s="11"/>
       <c r="X17" s="12"/>
       <c r="Y17" s="11"/>
       <c r="Z17" s="11"/>
       <c r="AA17" s="11"/>
       <c r="AB17" s="11"/>
-      <c r="AC17" s="12"/>
-      <c r="AD17" s="11"/>
+      <c r="AC17" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD17" s="11" t="s">
+        <v>156</v>
+      </c>
       <c r="AE17" s="11"/>
       <c r="AF17" s="11"/>
       <c r="AG17" s="13"/>
@@ -3077,55 +2793,61 @@
     <row r="18" spans="1:35" customHeight="1" ht="18">
       <c r="A18" s="17"/>
       <c r="B18" s="18" t="s">
-        <v>90</v>
+        <v>157</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
+        <v>19</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>161</v>
+      </c>
       <c r="I18" s="9" t="s">
-        <v>91</v>
+        <v>162</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>91</v>
+        <v>163</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>92</v>
+        <v>163</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>92</v>
+        <v>164</v>
       </c>
       <c r="M18" s="8" t="s">
-        <v>93</v>
+        <v>165</v>
       </c>
       <c r="N18" s="9" t="s">
-        <v>94</v>
+        <v>165</v>
       </c>
       <c r="O18" s="8" t="s">
-        <v>94</v>
+        <v>166</v>
       </c>
       <c r="P18" s="8" t="s">
-        <v>95</v>
+        <v>167</v>
       </c>
       <c r="Q18" s="8" t="s">
-        <v>95</v>
+        <v>167</v>
       </c>
       <c r="R18" s="8" t="s">
-        <v>96</v>
+        <v>168</v>
       </c>
       <c r="S18" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="T18" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="U18" s="8" t="s">
-        <v>98</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
       <c r="V18" s="8"/>
       <c r="W18" s="8"/>
       <c r="X18" s="9"/>
@@ -3133,8 +2855,12 @@
       <c r="Z18" s="8"/>
       <c r="AA18" s="8"/>
       <c r="AB18" s="8"/>
-      <c r="AC18" s="9"/>
-      <c r="AD18" s="8"/>
+      <c r="AC18" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD18" s="8" t="s">
+        <v>170</v>
+      </c>
       <c r="AE18" s="8"/>
       <c r="AF18" s="8"/>
       <c r="AG18" s="10"/>
@@ -3144,55 +2870,61 @@
         <v>7</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
+      <c r="D19" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>175</v>
+      </c>
       <c r="I19" s="12" t="s">
-        <v>100</v>
+        <v>176</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>101</v>
+        <v>177</v>
       </c>
       <c r="K19" s="11" t="s">
-        <v>102</v>
+        <v>177</v>
       </c>
       <c r="L19" s="11" t="s">
-        <v>103</v>
+        <v>178</v>
       </c>
       <c r="M19" s="11" t="s">
-        <v>104</v>
+        <v>179</v>
       </c>
       <c r="N19" s="12" t="s">
-        <v>105</v>
+        <v>179</v>
       </c>
       <c r="O19" s="11" t="s">
-        <v>106</v>
+        <v>180</v>
       </c>
       <c r="P19" s="11" t="s">
-        <v>107</v>
+        <v>181</v>
       </c>
       <c r="Q19" s="11" t="s">
-        <v>108</v>
+        <v>181</v>
       </c>
       <c r="R19" s="11" t="s">
-        <v>109</v>
+        <v>182</v>
       </c>
       <c r="S19" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="T19" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="U19" s="11" t="s">
-        <v>112</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
       <c r="V19" s="11"/>
       <c r="W19" s="11"/>
       <c r="X19" s="12"/>
@@ -3200,8 +2932,12 @@
       <c r="Z19" s="11"/>
       <c r="AA19" s="11"/>
       <c r="AB19" s="11"/>
-      <c r="AC19" s="12"/>
-      <c r="AD19" s="11"/>
+      <c r="AC19" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD19" s="11" t="s">
+        <v>184</v>
+      </c>
       <c r="AE19" s="11"/>
       <c r="AF19" s="11"/>
       <c r="AG19" s="13"/>
@@ -3209,36 +2945,62 @@
     <row r="20" spans="1:35" customHeight="1" ht="18">
       <c r="A20" s="17"/>
       <c r="B20" s="18" t="s">
-        <v>113</v>
+        <v>185</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
+        <v>19</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>188</v>
+      </c>
       <c r="I20" s="9" t="s">
-        <v>114</v>
+        <v>189</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>115</v>
+        <v>189</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>116</v>
+        <v>190</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="M20" s="8"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="8"/>
-      <c r="S20" s="9"/>
-      <c r="T20" s="8"/>
+        <v>191</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="N20" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="O20" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="P20" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q20" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="R20" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="S20" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="T20" s="8" t="s">
+        <v>197</v>
+      </c>
       <c r="U20" s="8"/>
       <c r="V20" s="8"/>
       <c r="W20" s="8"/>
@@ -3247,8 +3009,12 @@
       <c r="Z20" s="8"/>
       <c r="AA20" s="8"/>
       <c r="AB20" s="8"/>
-      <c r="AC20" s="9"/>
-      <c r="AD20" s="8"/>
+      <c r="AC20" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="AD20" s="8" t="s">
+        <v>199</v>
+      </c>
       <c r="AE20" s="8"/>
       <c r="AF20" s="8"/>
       <c r="AG20" s="10"/>
@@ -3258,53 +3024,63 @@
         <v>8</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>118</v>
+        <v>200</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
+      <c r="D21" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>203</v>
+      </c>
       <c r="I21" s="12" t="s">
-        <v>119</v>
+        <v>204</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>119</v>
+        <v>204</v>
       </c>
       <c r="K21" s="11" t="s">
-        <v>120</v>
+        <v>205</v>
       </c>
       <c r="L21" s="11" t="s">
-        <v>120</v>
+        <v>206</v>
       </c>
       <c r="M21" s="11" t="s">
-        <v>121</v>
+        <v>207</v>
       </c>
       <c r="N21" s="12" t="s">
-        <v>122</v>
+        <v>208</v>
       </c>
       <c r="O21" s="11" t="s">
-        <v>122</v>
+        <v>208</v>
       </c>
       <c r="P21" s="11" t="s">
-        <v>123</v>
+        <v>209</v>
       </c>
       <c r="Q21" s="11" t="s">
-        <v>124</v>
+        <v>210</v>
       </c>
       <c r="R21" s="11" t="s">
-        <v>125</v>
+        <v>210</v>
       </c>
       <c r="S21" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="T21" s="11"/>
-      <c r="U21" s="11" t="s">
-        <v>123</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="T21" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="U21" s="11"/>
       <c r="V21" s="11"/>
       <c r="W21" s="11"/>
       <c r="X21" s="12"/>
@@ -3312,8 +3088,12 @@
       <c r="Z21" s="11"/>
       <c r="AA21" s="11"/>
       <c r="AB21" s="11"/>
-      <c r="AC21" s="12"/>
-      <c r="AD21" s="11"/>
+      <c r="AC21" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="AD21" s="11" t="s">
+        <v>214</v>
+      </c>
       <c r="AE21" s="11"/>
       <c r="AF21" s="11"/>
       <c r="AG21" s="13"/>
@@ -3321,62 +3101,76 @@
     <row r="22" spans="1:35" customHeight="1" ht="18">
       <c r="A22" s="17"/>
       <c r="B22" s="18" t="s">
-        <v>127</v>
+        <v>215</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
+        <v>19</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>218</v>
+      </c>
       <c r="I22" s="9" t="s">
-        <v>128</v>
+        <v>219</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>129</v>
+        <v>219</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>128</v>
+        <v>220</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>128</v>
+        <v>221</v>
       </c>
       <c r="M22" s="8" t="s">
-        <v>130</v>
+        <v>222</v>
       </c>
       <c r="N22" s="9" t="s">
-        <v>129</v>
+        <v>223</v>
       </c>
       <c r="O22" s="8" t="s">
-        <v>129</v>
+        <v>223</v>
       </c>
       <c r="P22" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q22" s="8"/>
+        <v>224</v>
+      </c>
+      <c r="Q22" s="8" t="s">
+        <v>225</v>
+      </c>
       <c r="R22" s="8" t="s">
-        <v>132</v>
+        <v>225</v>
       </c>
       <c r="S22" s="9" t="s">
-        <v>131</v>
+        <v>226</v>
       </c>
       <c r="T22" s="8" t="s">
-        <v>131</v>
+        <v>227</v>
       </c>
       <c r="U22" s="8"/>
-      <c r="V22" s="8" t="s">
-        <v>132</v>
-      </c>
+      <c r="V22" s="8"/>
       <c r="W22" s="8"/>
       <c r="X22" s="9"/>
       <c r="Y22" s="8"/>
       <c r="Z22" s="8"/>
       <c r="AA22" s="8"/>
       <c r="AB22" s="8"/>
-      <c r="AC22" s="9"/>
-      <c r="AD22" s="8"/>
+      <c r="AC22" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="AD22" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="AE22" s="8"/>
       <c r="AF22" s="8"/>
       <c r="AG22" s="10"/>
@@ -3386,40 +3180,62 @@
         <v>9</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>133</v>
+        <v>230</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="12"/>
+      <c r="D23" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>234</v>
+      </c>
       <c r="J23" s="11" t="s">
-        <v>134</v>
+        <v>234</v>
       </c>
       <c r="K23" s="11" t="s">
-        <v>134</v>
+        <v>235</v>
       </c>
       <c r="L23" s="11" t="s">
-        <v>134</v>
+        <v>236</v>
       </c>
       <c r="M23" s="11" t="s">
-        <v>135</v>
+        <v>237</v>
       </c>
       <c r="N23" s="12" t="s">
-        <v>136</v>
+        <v>238</v>
       </c>
       <c r="O23" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="11"/>
-      <c r="S23" s="12"/>
-      <c r="T23" s="11"/>
+        <v>238</v>
+      </c>
+      <c r="P23" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q23" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="R23" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="S23" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="T23" s="11" t="s">
+        <v>242</v>
+      </c>
       <c r="U23" s="11"/>
       <c r="V23" s="11"/>
       <c r="W23" s="11"/>
@@ -3428,8 +3244,12 @@
       <c r="Z23" s="11"/>
       <c r="AA23" s="11"/>
       <c r="AB23" s="11"/>
-      <c r="AC23" s="12"/>
-      <c r="AD23" s="11"/>
+      <c r="AC23" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="AD23" s="11" t="s">
+        <v>244</v>
+      </c>
       <c r="AE23" s="11"/>
       <c r="AF23" s="11"/>
       <c r="AG23" s="13"/>
@@ -3437,48 +3257,62 @@
     <row r="24" spans="1:35" customHeight="1" ht="18">
       <c r="A24" s="17"/>
       <c r="B24" s="18" t="s">
-        <v>138</v>
+        <v>245</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
+        <v>19</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>248</v>
+      </c>
       <c r="I24" s="9" t="s">
-        <v>139</v>
+        <v>249</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>139</v>
+        <v>249</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>140</v>
+        <v>250</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>141</v>
+        <v>251</v>
       </c>
       <c r="M24" s="8" t="s">
-        <v>141</v>
+        <v>252</v>
       </c>
       <c r="N24" s="9" t="s">
-        <v>142</v>
+        <v>253</v>
       </c>
       <c r="O24" s="8" t="s">
-        <v>142</v>
+        <v>253</v>
       </c>
       <c r="P24" s="8" t="s">
-        <v>142</v>
+        <v>254</v>
       </c>
       <c r="Q24" s="8" t="s">
-        <v>143</v>
+        <v>255</v>
       </c>
       <c r="R24" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="S24" s="9"/>
-      <c r="T24" s="8"/>
+        <v>255</v>
+      </c>
+      <c r="S24" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="T24" s="8" t="s">
+        <v>257</v>
+      </c>
       <c r="U24" s="8"/>
       <c r="V24" s="8"/>
       <c r="W24" s="8"/>
@@ -3487,8 +3321,12 @@
       <c r="Z24" s="8"/>
       <c r="AA24" s="8"/>
       <c r="AB24" s="8"/>
-      <c r="AC24" s="9"/>
-      <c r="AD24" s="8"/>
+      <c r="AC24" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="AD24" s="8" t="s">
+        <v>259</v>
+      </c>
       <c r="AE24" s="8"/>
       <c r="AF24" s="8"/>
       <c r="AG24" s="10"/>
@@ -3498,64 +3336,74 @@
         <v>10</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>144</v>
+        <v>260</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="12"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
+      <c r="D25" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>261</v>
+      </c>
       <c r="I25" s="12" t="s">
-        <v>145</v>
+        <v>262</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>145</v>
+        <v>262</v>
       </c>
       <c r="K25" s="11" t="s">
-        <v>146</v>
+        <v>262</v>
       </c>
       <c r="L25" s="11" t="s">
-        <v>146</v>
+        <v>262</v>
       </c>
       <c r="M25" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="N25" s="12"/>
-      <c r="O25" s="11"/>
+        <v>263</v>
+      </c>
+      <c r="N25" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="O25" s="11" t="s">
+        <v>265</v>
+      </c>
       <c r="P25" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q25" s="11"/>
-      <c r="R25" s="11"/>
-      <c r="S25" s="12"/>
+        <v>266</v>
+      </c>
+      <c r="Q25" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="R25" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="S25" s="12" t="s">
+        <v>269</v>
+      </c>
       <c r="T25" s="11"/>
-      <c r="U25" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="V25" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="W25" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="X25" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="Y25" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="Z25" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="AA25" s="11" t="s">
-        <v>148</v>
-      </c>
+      <c r="U25" s="11"/>
+      <c r="V25" s="11"/>
+      <c r="W25" s="11"/>
+      <c r="X25" s="12"/>
+      <c r="Y25" s="11"/>
+      <c r="Z25" s="11"/>
+      <c r="AA25" s="11"/>
       <c r="AB25" s="11"/>
-      <c r="AC25" s="12"/>
-      <c r="AD25" s="11"/>
+      <c r="AC25" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="AD25" s="11" t="s">
+        <v>261</v>
+      </c>
       <c r="AE25" s="11"/>
       <c r="AF25" s="11"/>
       <c r="AG25" s="13"/>
@@ -3563,47 +3411,59 @@
     <row r="26" spans="1:35" customHeight="1" ht="18">
       <c r="A26" s="17"/>
       <c r="B26" s="18" t="s">
-        <v>150</v>
+        <v>270</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
+        <v>19</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>271</v>
+      </c>
       <c r="I26" s="9" t="s">
-        <v>151</v>
+        <v>272</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>151</v>
+        <v>272</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>151</v>
+        <v>272</v>
       </c>
       <c r="L26" s="8" t="s">
-        <v>152</v>
+        <v>272</v>
       </c>
       <c r="M26" s="8" t="s">
-        <v>153</v>
+        <v>273</v>
       </c>
       <c r="N26" s="9" t="s">
-        <v>154</v>
+        <v>274</v>
       </c>
       <c r="O26" s="8" t="s">
-        <v>153</v>
+        <v>275</v>
       </c>
       <c r="P26" s="8" t="s">
-        <v>155</v>
+        <v>276</v>
       </c>
       <c r="Q26" s="8" t="s">
-        <v>156</v>
+        <v>277</v>
       </c>
       <c r="R26" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="S26" s="9"/>
+        <v>278</v>
+      </c>
+      <c r="S26" s="9" t="s">
+        <v>279</v>
+      </c>
       <c r="T26" s="8"/>
       <c r="U26" s="8"/>
       <c r="V26" s="8"/>
@@ -3613,8 +3473,12 @@
       <c r="Z26" s="8"/>
       <c r="AA26" s="8"/>
       <c r="AB26" s="8"/>
-      <c r="AC26" s="9"/>
-      <c r="AD26" s="8"/>
+      <c r="AC26" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="AD26" s="8" t="s">
+        <v>271</v>
+      </c>
       <c r="AE26" s="8"/>
       <c r="AF26" s="8"/>
       <c r="AG26" s="10"/>
@@ -3624,49 +3488,61 @@
         <v>11</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>158</v>
+        <v>280</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="12"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
+      <c r="D27" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>281</v>
+      </c>
       <c r="I27" s="12" t="s">
-        <v>159</v>
+        <v>282</v>
       </c>
       <c r="J27" s="11" t="s">
-        <v>160</v>
+        <v>282</v>
       </c>
       <c r="K27" s="11" t="s">
-        <v>161</v>
+        <v>282</v>
       </c>
       <c r="L27" s="11" t="s">
-        <v>162</v>
+        <v>282</v>
       </c>
       <c r="M27" s="11" t="s">
-        <v>163</v>
+        <v>283</v>
       </c>
       <c r="N27" s="12" t="s">
-        <v>164</v>
+        <v>284</v>
       </c>
       <c r="O27" s="11" t="s">
-        <v>165</v>
+        <v>285</v>
       </c>
       <c r="P27" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q27" s="11"/>
-      <c r="R27" s="11"/>
+        <v>286</v>
+      </c>
+      <c r="Q27" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="R27" s="11" t="s">
+        <v>288</v>
+      </c>
       <c r="S27" s="12" t="s">
-        <v>167</v>
+        <v>289</v>
       </c>
       <c r="T27" s="11"/>
-      <c r="U27" s="11" t="s">
-        <v>168</v>
-      </c>
+      <c r="U27" s="11"/>
       <c r="V27" s="11"/>
       <c r="W27" s="11"/>
       <c r="X27" s="12"/>
@@ -3674,8 +3550,12 @@
       <c r="Z27" s="11"/>
       <c r="AA27" s="11"/>
       <c r="AB27" s="11"/>
-      <c r="AC27" s="12"/>
-      <c r="AD27" s="11"/>
+      <c r="AC27" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="AD27" s="11" t="s">
+        <v>281</v>
+      </c>
       <c r="AE27" s="11"/>
       <c r="AF27" s="11"/>
       <c r="AG27" s="13"/>
@@ -3683,66 +3563,56 @@
     <row r="28" spans="1:35" customHeight="1" ht="18">
       <c r="A28" s="17"/>
       <c r="B28" s="18" t="s">
-        <v>169</v>
+        <v>290</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
+        <v>19</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>292</v>
+      </c>
       <c r="I28" s="9" t="s">
-        <v>170</v>
+        <v>293</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="K28" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="L28" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="M28" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="N28" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="O28" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="P28" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q28" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="R28" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="S28" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="T28" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="U28" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="V28" s="8" t="s">
-        <v>183</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="8"/>
+      <c r="U28" s="8"/>
+      <c r="V28" s="8"/>
       <c r="W28" s="8"/>
       <c r="X28" s="9"/>
       <c r="Y28" s="8"/>
       <c r="Z28" s="8"/>
       <c r="AA28" s="8"/>
       <c r="AB28" s="8"/>
-      <c r="AC28" s="9"/>
-      <c r="AD28" s="8"/>
+      <c r="AC28" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="AD28" s="8" t="s">
+        <v>296</v>
+      </c>
       <c r="AE28" s="8"/>
       <c r="AF28" s="8"/>
       <c r="AG28" s="10"/>
@@ -3752,7 +3622,7 @@
         <v>12</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>184</v>
+        <v>297</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>17</v>
@@ -3762,52 +3632,44 @@
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
-      <c r="I29" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="J29" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="K29" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="L29" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="M29" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="N29" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="O29" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="P29" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q29" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="R29" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="S29" s="12" t="s">
-        <v>186</v>
-      </c>
+      <c r="I29" s="12"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="12"/>
       <c r="T29" s="11" t="s">
-        <v>191</v>
+        <v>298</v>
       </c>
       <c r="U29" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="V29" s="11"/>
-      <c r="W29" s="11"/>
-      <c r="X29" s="12"/>
-      <c r="Y29" s="11"/>
-      <c r="Z29" s="11"/>
-      <c r="AA29" s="11"/>
-      <c r="AB29" s="11"/>
+        <v>299</v>
+      </c>
+      <c r="V29" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="W29" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="X29" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="Y29" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="Z29" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="AA29" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="AB29" s="11" t="s">
+        <v>302</v>
+      </c>
       <c r="AC29" s="12"/>
       <c r="AD29" s="11"/>
       <c r="AE29" s="11"/>
@@ -3816,67 +3678,57 @@
     </row>
     <row r="30" spans="1:35" customHeight="1" ht="18">
       <c r="A30" s="17"/>
-      <c r="B30" s="18" t="s">
-        <v>192</v>
-      </c>
+      <c r="B30" s="18"/>
       <c r="C30" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D30" s="9"/>
+        <v>19</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>303</v>
+      </c>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
-      <c r="I30" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="J30" s="8" t="s">
-        <v>193</v>
-      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="8"/>
       <c r="K30" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="L30" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="M30" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="N30" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="O30" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="P30" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q30" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="R30" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="S30" s="9" t="s">
-        <v>196</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="9"/>
       <c r="T30" s="8" t="s">
-        <v>200</v>
+        <v>305</v>
       </c>
       <c r="U30" s="8" t="s">
-        <v>199</v>
+        <v>306</v>
       </c>
       <c r="V30" s="8" t="s">
-        <v>201</v>
+        <v>307</v>
       </c>
       <c r="W30" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="X30" s="9"/>
-      <c r="Y30" s="8"/>
-      <c r="Z30" s="8"/>
-      <c r="AA30" s="8"/>
-      <c r="AB30" s="8"/>
+        <v>308</v>
+      </c>
+      <c r="X30" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="Y30" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="Z30" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="AA30" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="AB30" s="8" t="s">
+        <v>313</v>
+      </c>
       <c r="AC30" s="9"/>
       <c r="AD30" s="8"/>
       <c r="AE30" s="8"/>
@@ -3887,9 +3739,7 @@
       <c r="A31" s="17">
         <v>13</v>
       </c>
-      <c r="B31" s="18" t="s">
-        <v>202</v>
-      </c>
+      <c r="B31" s="18"/>
       <c r="C31" s="11" t="s">
         <v>17</v>
       </c>
@@ -3903,9 +3753,7 @@
       <c r="K31" s="11"/>
       <c r="L31" s="11"/>
       <c r="M31" s="11"/>
-      <c r="N31" s="12" t="s">
-        <v>203</v>
-      </c>
+      <c r="N31" s="12"/>
       <c r="O31" s="11"/>
       <c r="P31" s="11"/>
       <c r="Q31" s="11"/>
@@ -3928,61 +3776,31 @@
     </row>
     <row r="32" spans="1:35" customHeight="1" ht="18">
       <c r="A32" s="17"/>
-      <c r="B32" s="18" t="s">
-        <v>204</v>
-      </c>
+      <c r="B32" s="18"/>
       <c r="C32" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
-      <c r="I32" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="J32" s="8" t="s">
-        <v>206</v>
-      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
-      <c r="M32" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="N32" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="O32" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="P32" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q32" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="R32" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="S32" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="T32" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="U32" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="V32" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="W32" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="X32" s="9" t="s">
-        <v>218</v>
-      </c>
+      <c r="M32" s="8"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="9"/>
+      <c r="T32" s="8"/>
+      <c r="U32" s="8"/>
+      <c r="V32" s="8"/>
+      <c r="W32" s="8"/>
+      <c r="X32" s="9"/>
       <c r="Y32" s="8"/>
       <c r="Z32" s="8"/>
       <c r="AA32" s="8"/>
@@ -3997,9 +3815,7 @@
       <c r="A33" s="17">
         <v>14</v>
       </c>
-      <c r="B33" s="18" t="s">
-        <v>219</v>
-      </c>
+      <c r="B33" s="18"/>
       <c r="C33" s="11" t="s">
         <v>17</v>
       </c>
@@ -4008,48 +3824,22 @@
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
-      <c r="I33" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="J33" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="K33" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="L33" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="M33" s="11" t="s">
-        <v>224</v>
-      </c>
+      <c r="I33" s="12"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
       <c r="N33" s="12"/>
-      <c r="O33" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="P33" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q33" s="11" t="s">
-        <v>227</v>
-      </c>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
       <c r="R33" s="11"/>
       <c r="S33" s="12"/>
-      <c r="T33" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="U33" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="V33" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="W33" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="X33" s="12" t="s">
-        <v>232</v>
-      </c>
+      <c r="T33" s="11"/>
+      <c r="U33" s="11"/>
+      <c r="V33" s="11"/>
+      <c r="W33" s="11"/>
+      <c r="X33" s="12"/>
       <c r="Y33" s="11"/>
       <c r="Z33" s="11"/>
       <c r="AA33" s="11"/>
@@ -4062,11 +3852,9 @@
     </row>
     <row r="34" spans="1:35" customHeight="1" ht="18">
       <c r="A34" s="17"/>
-      <c r="B34" s="18" t="s">
-        <v>233</v>
-      </c>
+      <c r="B34" s="18"/>
       <c r="C34" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="8"/>
@@ -4076,52 +3864,22 @@
       <c r="I34" s="9"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
-      <c r="L34" s="8" t="s">
-        <v>234</v>
-      </c>
+      <c r="L34" s="8"/>
       <c r="M34" s="8"/>
-      <c r="N34" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="O34" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="P34" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q34" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="R34" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="S34" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="T34" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="U34" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="V34" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="W34" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="X34" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="Y34" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="Z34" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="AA34" s="8" t="s">
-        <v>238</v>
-      </c>
+      <c r="N34" s="9"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="8"/>
+      <c r="S34" s="9"/>
+      <c r="T34" s="8"/>
+      <c r="U34" s="8"/>
+      <c r="V34" s="8"/>
+      <c r="W34" s="8"/>
+      <c r="X34" s="9"/>
+      <c r="Y34" s="8"/>
+      <c r="Z34" s="8"/>
+      <c r="AA34" s="8"/>
       <c r="AB34" s="8"/>
       <c r="AC34" s="9"/>
       <c r="AD34" s="8"/>
@@ -4133,9 +3891,7 @@
       <c r="A35" s="17">
         <v>15</v>
       </c>
-      <c r="B35" s="18" t="s">
-        <v>239</v>
-      </c>
+      <c r="B35" s="18"/>
       <c r="C35" s="11" t="s">
         <v>17</v>
       </c>
@@ -4148,51 +3904,21 @@
       <c r="J35" s="11"/>
       <c r="K35" s="11"/>
       <c r="L35" s="11"/>
-      <c r="M35" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="N35" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="O35" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="P35" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q35" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="R35" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="S35" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="T35" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="U35" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="V35" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="W35" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="X35" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="Y35" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="Z35" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="AA35" s="11" t="s">
-        <v>244</v>
-      </c>
+      <c r="M35" s="11"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="11"/>
+      <c r="R35" s="11"/>
+      <c r="S35" s="12"/>
+      <c r="T35" s="11"/>
+      <c r="U35" s="11"/>
+      <c r="V35" s="11"/>
+      <c r="W35" s="11"/>
+      <c r="X35" s="12"/>
+      <c r="Y35" s="11"/>
+      <c r="Z35" s="11"/>
+      <c r="AA35" s="11"/>
       <c r="AB35" s="11"/>
       <c r="AC35" s="12"/>
       <c r="AD35" s="11"/>
@@ -4202,54 +3928,32 @@
     </row>
     <row r="36" spans="1:35" customHeight="1" ht="18">
       <c r="A36" s="17"/>
-      <c r="B36" s="18" t="s">
-        <v>245</v>
-      </c>
+      <c r="B36" s="18"/>
       <c r="C36" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
-      <c r="I36" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="J36" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="K36" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="L36" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="M36" s="8" t="s">
-        <v>248</v>
-      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
       <c r="N36" s="9"/>
-      <c r="O36" s="8" t="s">
-        <v>246</v>
-      </c>
+      <c r="O36" s="8"/>
       <c r="P36" s="8"/>
       <c r="Q36" s="8"/>
       <c r="R36" s="8"/>
       <c r="S36" s="9"/>
-      <c r="T36" s="8" t="s">
-        <v>249</v>
-      </c>
+      <c r="T36" s="8"/>
       <c r="U36" s="8"/>
       <c r="V36" s="8"/>
-      <c r="W36" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="X36" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="Y36" s="8" t="s">
-        <v>249</v>
-      </c>
+      <c r="W36" s="8"/>
+      <c r="X36" s="9"/>
+      <c r="Y36" s="8"/>
       <c r="Z36" s="8"/>
       <c r="AA36" s="8"/>
       <c r="AB36" s="8"/>
@@ -4263,9 +3967,7 @@
       <c r="A37" s="17">
         <v>16</v>
       </c>
-      <c r="B37" s="18" t="s">
-        <v>250</v>
-      </c>
+      <c r="B37" s="18"/>
       <c r="C37" s="11" t="s">
         <v>17</v>
       </c>
@@ -4274,54 +3976,24 @@
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
       <c r="H37" s="11"/>
-      <c r="I37" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="J37" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="K37" s="11" t="s">
-        <v>253</v>
-      </c>
+      <c r="I37" s="12"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
       <c r="L37" s="11"/>
-      <c r="M37" s="11" t="s">
-        <v>253</v>
-      </c>
+      <c r="M37" s="11"/>
       <c r="N37" s="12"/>
       <c r="O37" s="11"/>
-      <c r="P37" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q37" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="R37" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="S37" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="T37" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="U37" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="V37" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="W37" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="X37" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="Y37" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="Z37" s="11" t="s">
-        <v>255</v>
-      </c>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="11"/>
+      <c r="S37" s="12"/>
+      <c r="T37" s="11"/>
+      <c r="U37" s="11"/>
+      <c r="V37" s="11"/>
+      <c r="W37" s="11"/>
+      <c r="X37" s="12"/>
+      <c r="Y37" s="11"/>
+      <c r="Z37" s="11"/>
       <c r="AA37" s="11"/>
       <c r="AB37" s="11"/>
       <c r="AC37" s="12"/>
@@ -4332,11 +4004,9 @@
     </row>
     <row r="38" spans="1:35" customHeight="1" ht="18">
       <c r="A38" s="17"/>
-      <c r="B38" s="18" t="s">
-        <v>257</v>
-      </c>
+      <c r="B38" s="18"/>
       <c r="C38" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="8"/>
@@ -4346,50 +4016,24 @@
       <c r="I38" s="9"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
-      <c r="L38" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="M38" s="8" t="s">
-        <v>258</v>
-      </c>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
       <c r="N38" s="9"/>
       <c r="O38" s="8"/>
       <c r="P38" s="8"/>
       <c r="Q38" s="8"/>
-      <c r="R38" s="8" t="s">
-        <v>259</v>
-      </c>
+      <c r="R38" s="8"/>
       <c r="S38" s="9"/>
-      <c r="T38" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="U38" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="V38" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="W38" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="X38" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="Y38" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="Z38" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="AA38" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="AB38" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="AC38" s="9" t="s">
-        <v>261</v>
-      </c>
+      <c r="T38" s="8"/>
+      <c r="U38" s="8"/>
+      <c r="V38" s="8"/>
+      <c r="W38" s="8"/>
+      <c r="X38" s="9"/>
+      <c r="Y38" s="8"/>
+      <c r="Z38" s="8"/>
+      <c r="AA38" s="8"/>
+      <c r="AB38" s="8"/>
+      <c r="AC38" s="9"/>
       <c r="AD38" s="8"/>
       <c r="AE38" s="8"/>
       <c r="AF38" s="8"/>
@@ -4399,9 +4043,7 @@
       <c r="A39" s="17">
         <v>17</v>
       </c>
-      <c r="B39" s="18" t="s">
-        <v>262</v>
-      </c>
+      <c r="B39" s="18"/>
       <c r="C39" s="11" t="s">
         <v>17</v>
       </c>
@@ -4415,54 +4057,22 @@
       <c r="K39" s="11"/>
       <c r="L39" s="11"/>
       <c r="M39" s="11"/>
-      <c r="N39" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="O39" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="P39" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q39" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="R39" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="S39" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="T39" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="U39" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="V39" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="W39" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="X39" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="Y39" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="Z39" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="AA39" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="AB39" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="AC39" s="12" t="s">
-        <v>268</v>
-      </c>
+      <c r="N39" s="12"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="11"/>
+      <c r="R39" s="11"/>
+      <c r="S39" s="12"/>
+      <c r="T39" s="11"/>
+      <c r="U39" s="11"/>
+      <c r="V39" s="11"/>
+      <c r="W39" s="11"/>
+      <c r="X39" s="12"/>
+      <c r="Y39" s="11"/>
+      <c r="Z39" s="11"/>
+      <c r="AA39" s="11"/>
+      <c r="AB39" s="11"/>
+      <c r="AC39" s="12"/>
       <c r="AD39" s="11"/>
       <c r="AE39" s="11"/>
       <c r="AF39" s="11"/>
@@ -4470,56 +4080,34 @@
     </row>
     <row r="40" spans="1:35" customHeight="1" ht="18">
       <c r="A40" s="17"/>
-      <c r="B40" s="18" t="s">
-        <v>269</v>
-      </c>
+      <c r="B40" s="18"/>
       <c r="C40" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
-      <c r="I40" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="J40" s="8" t="s">
-        <v>270</v>
-      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="8"/>
       <c r="M40" s="8"/>
       <c r="N40" s="9"/>
-      <c r="O40" s="8" t="s">
-        <v>271</v>
-      </c>
+      <c r="O40" s="8"/>
       <c r="P40" s="8"/>
       <c r="Q40" s="8"/>
-      <c r="R40" s="8" t="s">
-        <v>271</v>
-      </c>
+      <c r="R40" s="8"/>
       <c r="S40" s="9"/>
-      <c r="T40" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="U40" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="V40" s="8" t="s">
-        <v>274</v>
-      </c>
+      <c r="T40" s="8"/>
+      <c r="U40" s="8"/>
+      <c r="V40" s="8"/>
       <c r="W40" s="8"/>
-      <c r="X40" s="9" t="s">
-        <v>275</v>
-      </c>
+      <c r="X40" s="9"/>
       <c r="Y40" s="8"/>
-      <c r="Z40" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="AA40" s="8" t="s">
-        <v>274</v>
-      </c>
+      <c r="Z40" s="8"/>
+      <c r="AA40" s="8"/>
       <c r="AB40" s="8"/>
       <c r="AC40" s="9"/>
       <c r="AD40" s="8"/>
@@ -4531,9 +4119,7 @@
       <c r="A41" s="17">
         <v>18</v>
       </c>
-      <c r="B41" s="18" t="s">
-        <v>276</v>
-      </c>
+      <c r="B41" s="18"/>
       <c r="C41" s="11" t="s">
         <v>17</v>
       </c>
@@ -4549,38 +4135,18 @@
       <c r="M41" s="11"/>
       <c r="N41" s="12"/>
       <c r="O41" s="11"/>
-      <c r="P41" s="11" t="s">
-        <v>277</v>
-      </c>
+      <c r="P41" s="11"/>
       <c r="Q41" s="11"/>
-      <c r="R41" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="S41" s="12" t="s">
-        <v>279</v>
-      </c>
+      <c r="R41" s="11"/>
+      <c r="S41" s="12"/>
       <c r="T41" s="11"/>
-      <c r="U41" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="V41" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="W41" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="X41" s="12" t="s">
-        <v>283</v>
-      </c>
-      <c r="Y41" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="Z41" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="AA41" s="11" t="s">
-        <v>286</v>
-      </c>
+      <c r="U41" s="11"/>
+      <c r="V41" s="11"/>
+      <c r="W41" s="11"/>
+      <c r="X41" s="12"/>
+      <c r="Y41" s="11"/>
+      <c r="Z41" s="11"/>
+      <c r="AA41" s="11"/>
       <c r="AB41" s="11"/>
       <c r="AC41" s="12"/>
       <c r="AD41" s="11"/>
@@ -4590,62 +4156,36 @@
     </row>
     <row r="42" spans="1:35" customHeight="1" ht="18">
       <c r="A42" s="17"/>
-      <c r="B42" s="18" t="s">
-        <v>287</v>
-      </c>
+      <c r="B42" s="18"/>
       <c r="C42" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c r="H42" s="8"/>
-      <c r="I42" s="9" t="s">
-        <v>288</v>
-      </c>
+      <c r="I42" s="9"/>
       <c r="J42" s="8"/>
-      <c r="K42" s="8" t="s">
-        <v>289</v>
-      </c>
+      <c r="K42" s="8"/>
       <c r="L42" s="8"/>
       <c r="M42" s="8"/>
-      <c r="N42" s="9" t="s">
-        <v>290</v>
-      </c>
+      <c r="N42" s="9"/>
       <c r="O42" s="8"/>
       <c r="P42" s="8"/>
       <c r="Q42" s="8"/>
-      <c r="R42" s="8" t="s">
-        <v>291</v>
-      </c>
+      <c r="R42" s="8"/>
       <c r="S42" s="9"/>
       <c r="T42" s="8"/>
       <c r="U42" s="8"/>
-      <c r="V42" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="W42" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="X42" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="Y42" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="Z42" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="AA42" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="AB42" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="AC42" s="9" t="s">
-        <v>296</v>
-      </c>
+      <c r="V42" s="8"/>
+      <c r="W42" s="8"/>
+      <c r="X42" s="9"/>
+      <c r="Y42" s="8"/>
+      <c r="Z42" s="8"/>
+      <c r="AA42" s="8"/>
+      <c r="AB42" s="8"/>
+      <c r="AC42" s="9"/>
       <c r="AD42" s="8"/>
       <c r="AE42" s="8"/>
       <c r="AF42" s="8"/>
@@ -4655,9 +4195,7 @@
       <c r="A43" s="17">
         <v>19</v>
       </c>
-      <c r="B43" s="18" t="s">
-        <v>297</v>
-      </c>
+      <c r="B43" s="18"/>
       <c r="C43" s="11" t="s">
         <v>17</v>
       </c>
@@ -4673,37 +4211,17 @@
       <c r="M43" s="11"/>
       <c r="N43" s="12"/>
       <c r="O43" s="11"/>
-      <c r="P43" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q43" s="11" t="s">
-        <v>299</v>
-      </c>
-      <c r="R43" s="11" t="s">
-        <v>300</v>
-      </c>
-      <c r="S43" s="12" t="s">
-        <v>300</v>
-      </c>
-      <c r="T43" s="11" t="s">
-        <v>301</v>
-      </c>
-      <c r="U43" s="11" t="s">
-        <v>302</v>
-      </c>
+      <c r="P43" s="11"/>
+      <c r="Q43" s="11"/>
+      <c r="R43" s="11"/>
+      <c r="S43" s="12"/>
+      <c r="T43" s="11"/>
+      <c r="U43" s="11"/>
       <c r="V43" s="11"/>
-      <c r="W43" s="11" t="s">
-        <v>303</v>
-      </c>
-      <c r="X43" s="12" t="s">
-        <v>299</v>
-      </c>
-      <c r="Y43" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="Z43" s="11" t="s">
-        <v>305</v>
-      </c>
+      <c r="W43" s="11"/>
+      <c r="X43" s="12"/>
+      <c r="Y43" s="11"/>
+      <c r="Z43" s="11"/>
       <c r="AA43" s="11"/>
       <c r="AB43" s="11"/>
       <c r="AC43" s="12"/>
@@ -4714,57 +4232,33 @@
     </row>
     <row r="44" spans="1:35" customHeight="1" ht="18">
       <c r="A44" s="17"/>
-      <c r="B44" s="18" t="s">
-        <v>306</v>
-      </c>
+      <c r="B44" s="18"/>
       <c r="C44" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
-      <c r="I44" s="9" t="s">
-        <v>307</v>
-      </c>
+      <c r="I44" s="9"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="8"/>
       <c r="M44" s="8"/>
-      <c r="N44" s="9" t="s">
-        <v>308</v>
-      </c>
+      <c r="N44" s="9"/>
       <c r="O44" s="8"/>
       <c r="P44" s="8"/>
-      <c r="Q44" s="8" t="s">
-        <v>309</v>
-      </c>
+      <c r="Q44" s="8"/>
       <c r="R44" s="8"/>
-      <c r="S44" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="T44" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="U44" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="V44" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="W44" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="X44" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="Y44" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="Z44" s="8" t="s">
-        <v>314</v>
-      </c>
+      <c r="S44" s="9"/>
+      <c r="T44" s="8"/>
+      <c r="U44" s="8"/>
+      <c r="V44" s="8"/>
+      <c r="W44" s="8"/>
+      <c r="X44" s="9"/>
+      <c r="Y44" s="8"/>
+      <c r="Z44" s="8"/>
       <c r="AA44" s="8"/>
       <c r="AB44" s="8"/>
       <c r="AC44" s="9"/>
@@ -4777,9 +4271,7 @@
       <c r="A45" s="17">
         <v>20</v>
       </c>
-      <c r="B45" s="18" t="s">
-        <v>315</v>
-      </c>
+      <c r="B45" s="18"/>
       <c r="C45" s="11" t="s">
         <v>17</v>
       </c>
@@ -4788,46 +4280,24 @@
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
       <c r="H45" s="11"/>
-      <c r="I45" s="12" t="s">
-        <v>316</v>
-      </c>
-      <c r="J45" s="11" t="s">
-        <v>316</v>
-      </c>
+      <c r="I45" s="12"/>
+      <c r="J45" s="11"/>
       <c r="K45" s="11"/>
       <c r="L45" s="11"/>
       <c r="M45" s="11"/>
-      <c r="N45" s="12" t="s">
-        <v>317</v>
-      </c>
+      <c r="N45" s="12"/>
       <c r="O45" s="11"/>
       <c r="P45" s="11"/>
       <c r="Q45" s="11"/>
       <c r="R45" s="11"/>
-      <c r="S45" s="12" t="s">
-        <v>318</v>
-      </c>
-      <c r="T45" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="U45" s="11" t="s">
-        <v>320</v>
-      </c>
-      <c r="V45" s="11" t="s">
-        <v>321</v>
-      </c>
-      <c r="W45" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="X45" s="12" t="s">
-        <v>323</v>
-      </c>
-      <c r="Y45" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="Z45" s="11" t="s">
-        <v>325</v>
-      </c>
+      <c r="S45" s="12"/>
+      <c r="T45" s="11"/>
+      <c r="U45" s="11"/>
+      <c r="V45" s="11"/>
+      <c r="W45" s="11"/>
+      <c r="X45" s="12"/>
+      <c r="Y45" s="11"/>
+      <c r="Z45" s="11"/>
       <c r="AA45" s="11"/>
       <c r="AB45" s="11"/>
       <c r="AC45" s="12"/>
@@ -4838,11 +4308,9 @@
     </row>
     <row r="46" spans="1:35" customHeight="1" ht="18">
       <c r="A46" s="17"/>
-      <c r="B46" s="18" t="s">
-        <v>326</v>
-      </c>
+      <c r="B46" s="18"/>
       <c r="C46" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="8"/>
@@ -4857,42 +4325,20 @@
       <c r="N46" s="9"/>
       <c r="O46" s="8"/>
       <c r="P46" s="8"/>
-      <c r="Q46" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="R46" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="S46" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="T46" s="8" t="s">
-        <v>329</v>
-      </c>
+      <c r="Q46" s="8"/>
+      <c r="R46" s="8"/>
+      <c r="S46" s="9"/>
+      <c r="T46" s="8"/>
       <c r="U46" s="8"/>
-      <c r="V46" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="W46" s="8" t="s">
-        <v>330</v>
-      </c>
+      <c r="V46" s="8"/>
+      <c r="W46" s="8"/>
       <c r="X46" s="9"/>
       <c r="Y46" s="8"/>
-      <c r="Z46" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="AA46" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="AB46" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="AC46" s="9" t="s">
-        <v>332</v>
-      </c>
-      <c r="AD46" s="8" t="s">
-        <v>333</v>
-      </c>
+      <c r="Z46" s="8"/>
+      <c r="AA46" s="8"/>
+      <c r="AB46" s="8"/>
+      <c r="AC46" s="9"/>
+      <c r="AD46" s="8"/>
       <c r="AE46" s="8"/>
       <c r="AF46" s="8"/>
       <c r="AG46" s="10"/>
@@ -4901,9 +4347,7 @@
       <c r="A47" s="17">
         <v>21</v>
       </c>
-      <c r="B47" s="18" t="s">
-        <v>334</v>
-      </c>
+      <c r="B47" s="18"/>
       <c r="C47" s="11" t="s">
         <v>17</v>
       </c>
@@ -4924,47 +4368,25 @@
       <c r="R47" s="11"/>
       <c r="S47" s="12"/>
       <c r="T47" s="11"/>
-      <c r="U47" s="11" t="s">
-        <v>335</v>
-      </c>
-      <c r="V47" s="11" t="s">
-        <v>336</v>
-      </c>
-      <c r="W47" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="X47" s="12" t="s">
-        <v>337</v>
-      </c>
-      <c r="Y47" s="11" t="s">
-        <v>336</v>
-      </c>
-      <c r="Z47" s="11" t="s">
-        <v>338</v>
-      </c>
-      <c r="AA47" s="11" t="s">
-        <v>338</v>
-      </c>
-      <c r="AB47" s="11" t="s">
-        <v>335</v>
-      </c>
-      <c r="AC47" s="12" t="s">
-        <v>339</v>
-      </c>
-      <c r="AD47" s="11" t="s">
-        <v>339</v>
-      </c>
+      <c r="U47" s="11"/>
+      <c r="V47" s="11"/>
+      <c r="W47" s="11"/>
+      <c r="X47" s="12"/>
+      <c r="Y47" s="11"/>
+      <c r="Z47" s="11"/>
+      <c r="AA47" s="11"/>
+      <c r="AB47" s="11"/>
+      <c r="AC47" s="12"/>
+      <c r="AD47" s="11"/>
       <c r="AE47" s="11"/>
       <c r="AF47" s="11"/>
       <c r="AG47" s="13"/>
     </row>
     <row r="48" spans="1:35" customHeight="1" ht="18">
       <c r="A48" s="17"/>
-      <c r="B48" s="18" t="s">
-        <v>340</v>
-      </c>
+      <c r="B48" s="18"/>
       <c r="C48" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D48" s="9"/>
       <c r="E48" s="8"/>
@@ -4974,53 +4396,23 @@
       <c r="I48" s="9"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
-      <c r="L48" s="8" t="s">
-        <v>341</v>
-      </c>
+      <c r="L48" s="8"/>
       <c r="M48" s="8"/>
-      <c r="N48" s="9" t="s">
-        <v>342</v>
-      </c>
-      <c r="O48" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="P48" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="Q48" s="8" t="s">
-        <v>344</v>
-      </c>
+      <c r="N48" s="9"/>
+      <c r="O48" s="8"/>
+      <c r="P48" s="8"/>
+      <c r="Q48" s="8"/>
       <c r="R48" s="8"/>
-      <c r="S48" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="T48" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="U48" s="8" t="s">
-        <v>346</v>
-      </c>
-      <c r="V48" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="W48" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="X48" s="9" t="s">
-        <v>348</v>
-      </c>
-      <c r="Y48" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="Z48" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="AA48" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="AB48" s="8" t="s">
-        <v>347</v>
-      </c>
+      <c r="S48" s="9"/>
+      <c r="T48" s="8"/>
+      <c r="U48" s="8"/>
+      <c r="V48" s="8"/>
+      <c r="W48" s="8"/>
+      <c r="X48" s="9"/>
+      <c r="Y48" s="8"/>
+      <c r="Z48" s="8"/>
+      <c r="AA48" s="8"/>
+      <c r="AB48" s="8"/>
       <c r="AC48" s="9"/>
       <c r="AD48" s="8"/>
       <c r="AE48" s="8"/>
@@ -5031,9 +4423,7 @@
       <c r="A49" s="17">
         <v>22</v>
       </c>
-      <c r="B49" s="18" t="s">
-        <v>349</v>
-      </c>
+      <c r="B49" s="18"/>
       <c r="C49" s="11" t="s">
         <v>17</v>
       </c>
@@ -5054,47 +4444,25 @@
       <c r="R49" s="11"/>
       <c r="S49" s="12"/>
       <c r="T49" s="11"/>
-      <c r="U49" s="11" t="s">
-        <v>350</v>
-      </c>
-      <c r="V49" s="11" t="s">
-        <v>351</v>
-      </c>
-      <c r="W49" s="11" t="s">
-        <v>352</v>
-      </c>
-      <c r="X49" s="12" t="s">
-        <v>352</v>
-      </c>
-      <c r="Y49" s="11" t="s">
-        <v>353</v>
-      </c>
-      <c r="Z49" s="11" t="s">
-        <v>354</v>
-      </c>
-      <c r="AA49" s="11" t="s">
-        <v>354</v>
-      </c>
-      <c r="AB49" s="11" t="s">
-        <v>351</v>
-      </c>
-      <c r="AC49" s="12" t="s">
-        <v>353</v>
-      </c>
-      <c r="AD49" s="11" t="s">
-        <v>350</v>
-      </c>
+      <c r="U49" s="11"/>
+      <c r="V49" s="11"/>
+      <c r="W49" s="11"/>
+      <c r="X49" s="12"/>
+      <c r="Y49" s="11"/>
+      <c r="Z49" s="11"/>
+      <c r="AA49" s="11"/>
+      <c r="AB49" s="11"/>
+      <c r="AC49" s="12"/>
+      <c r="AD49" s="11"/>
       <c r="AE49" s="11"/>
       <c r="AF49" s="11"/>
       <c r="AG49" s="13"/>
     </row>
     <row r="50" spans="1:35" customHeight="1" ht="18">
       <c r="A50" s="17"/>
-      <c r="B50" s="18" t="s">
-        <v>355</v>
-      </c>
+      <c r="B50" s="18"/>
       <c r="C50" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="8"/>
@@ -5112,35 +4480,17 @@
       <c r="Q50" s="8"/>
       <c r="R50" s="8"/>
       <c r="S50" s="9"/>
-      <c r="T50" s="8" t="s">
-        <v>356</v>
-      </c>
+      <c r="T50" s="8"/>
       <c r="U50" s="8"/>
       <c r="V50" s="8"/>
-      <c r="W50" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="X50" s="9" t="s">
-        <v>356</v>
-      </c>
-      <c r="Y50" s="8" t="s">
-        <v>358</v>
-      </c>
-      <c r="Z50" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="AA50" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="AB50" s="8" t="s">
-        <v>360</v>
-      </c>
-      <c r="AC50" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="AD50" s="8" t="s">
-        <v>361</v>
-      </c>
+      <c r="W50" s="8"/>
+      <c r="X50" s="9"/>
+      <c r="Y50" s="8"/>
+      <c r="Z50" s="8"/>
+      <c r="AA50" s="8"/>
+      <c r="AB50" s="8"/>
+      <c r="AC50" s="9"/>
+      <c r="AD50" s="8"/>
       <c r="AE50" s="8"/>
       <c r="AF50" s="8"/>
       <c r="AG50" s="10"/>
@@ -5149,9 +4499,7 @@
       <c r="A51" s="17">
         <v>23</v>
       </c>
-      <c r="B51" s="18" t="s">
-        <v>362</v>
-      </c>
+      <c r="B51" s="18"/>
       <c r="C51" s="11" t="s">
         <v>17</v>
       </c>
@@ -5173,44 +4521,24 @@
       <c r="S51" s="12"/>
       <c r="T51" s="11"/>
       <c r="U51" s="11"/>
-      <c r="V51" s="11" t="s">
-        <v>363</v>
-      </c>
-      <c r="W51" s="11" t="s">
-        <v>363</v>
-      </c>
-      <c r="X51" s="12" t="s">
-        <v>364</v>
-      </c>
-      <c r="Y51" s="11" t="s">
-        <v>365</v>
-      </c>
-      <c r="Z51" s="11" t="s">
-        <v>365</v>
-      </c>
-      <c r="AA51" s="11" t="s">
-        <v>364</v>
-      </c>
-      <c r="AB51" s="11" t="s">
-        <v>366</v>
-      </c>
-      <c r="AC51" s="12" t="s">
-        <v>366</v>
-      </c>
-      <c r="AD51" s="11" t="s">
-        <v>367</v>
-      </c>
+      <c r="V51" s="11"/>
+      <c r="W51" s="11"/>
+      <c r="X51" s="12"/>
+      <c r="Y51" s="11"/>
+      <c r="Z51" s="11"/>
+      <c r="AA51" s="11"/>
+      <c r="AB51" s="11"/>
+      <c r="AC51" s="12"/>
+      <c r="AD51" s="11"/>
       <c r="AE51" s="11"/>
       <c r="AF51" s="11"/>
       <c r="AG51" s="13"/>
     </row>
     <row r="52" spans="1:35" customHeight="1" ht="18">
       <c r="A52" s="17"/>
-      <c r="B52" s="18" t="s">
-        <v>368</v>
-      </c>
+      <c r="B52" s="18"/>
       <c r="C52" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D52" s="9"/>
       <c r="E52" s="8"/>
@@ -5230,33 +4558,15 @@
       <c r="S52" s="9"/>
       <c r="T52" s="8"/>
       <c r="U52" s="8"/>
-      <c r="V52" s="8" t="s">
-        <v>369</v>
-      </c>
-      <c r="W52" s="8" t="s">
-        <v>369</v>
-      </c>
-      <c r="X52" s="9" t="s">
-        <v>370</v>
-      </c>
-      <c r="Y52" s="8" t="s">
-        <v>371</v>
-      </c>
-      <c r="Z52" s="8" t="s">
-        <v>372</v>
-      </c>
-      <c r="AA52" s="8" t="s">
-        <v>370</v>
-      </c>
-      <c r="AB52" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="AC52" s="9" t="s">
-        <v>373</v>
-      </c>
-      <c r="AD52" s="8" t="s">
-        <v>371</v>
-      </c>
+      <c r="V52" s="8"/>
+      <c r="W52" s="8"/>
+      <c r="X52" s="9"/>
+      <c r="Y52" s="8"/>
+      <c r="Z52" s="8"/>
+      <c r="AA52" s="8"/>
+      <c r="AB52" s="8"/>
+      <c r="AC52" s="9"/>
+      <c r="AD52" s="8"/>
       <c r="AE52" s="8"/>
       <c r="AF52" s="8"/>
       <c r="AG52" s="10"/>
@@ -5265,9 +4575,7 @@
       <c r="A53" s="17">
         <v>24</v>
       </c>
-      <c r="B53" s="18" t="s">
-        <v>374</v>
-      </c>
+      <c r="B53" s="18"/>
       <c r="C53" s="11" t="s">
         <v>17</v>
       </c>
@@ -5289,44 +4597,24 @@
       <c r="S53" s="12"/>
       <c r="T53" s="11"/>
       <c r="U53" s="11"/>
-      <c r="V53" s="11" t="s">
-        <v>375</v>
-      </c>
-      <c r="W53" s="11" t="s">
-        <v>376</v>
-      </c>
-      <c r="X53" s="12" t="s">
-        <v>377</v>
-      </c>
-      <c r="Y53" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="Z53" s="11" t="s">
-        <v>376</v>
-      </c>
-      <c r="AA53" s="11" t="s">
-        <v>378</v>
-      </c>
-      <c r="AB53" s="11" t="s">
-        <v>378</v>
-      </c>
-      <c r="AC53" s="12" t="s">
-        <v>379</v>
-      </c>
-      <c r="AD53" s="11" t="s">
-        <v>379</v>
-      </c>
+      <c r="V53" s="11"/>
+      <c r="W53" s="11"/>
+      <c r="X53" s="12"/>
+      <c r="Y53" s="11"/>
+      <c r="Z53" s="11"/>
+      <c r="AA53" s="11"/>
+      <c r="AB53" s="11"/>
+      <c r="AC53" s="12"/>
+      <c r="AD53" s="11"/>
       <c r="AE53" s="11"/>
       <c r="AF53" s="11"/>
       <c r="AG53" s="13"/>
     </row>
     <row r="54" spans="1:35" customHeight="1" ht="18">
       <c r="A54" s="17"/>
-      <c r="B54" s="18" t="s">
-        <v>380</v>
-      </c>
+      <c r="B54" s="18"/>
       <c r="C54" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D54" s="9"/>
       <c r="E54" s="8"/>
@@ -5340,51 +4628,21 @@
       <c r="M54" s="8"/>
       <c r="N54" s="9"/>
       <c r="O54" s="8"/>
-      <c r="P54" s="8" t="s">
-        <v>381</v>
-      </c>
-      <c r="Q54" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="R54" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="S54" s="9" t="s">
-        <v>383</v>
-      </c>
-      <c r="T54" s="8" t="s">
-        <v>384</v>
-      </c>
-      <c r="U54" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="V54" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="W54" s="8" t="s">
-        <v>383</v>
-      </c>
-      <c r="X54" s="9" t="s">
-        <v>384</v>
-      </c>
-      <c r="Y54" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="Z54" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="AA54" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="AB54" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="AC54" s="9" t="s">
-        <v>388</v>
-      </c>
-      <c r="AD54" s="8" t="s">
-        <v>389</v>
-      </c>
+      <c r="P54" s="8"/>
+      <c r="Q54" s="8"/>
+      <c r="R54" s="8"/>
+      <c r="S54" s="9"/>
+      <c r="T54" s="8"/>
+      <c r="U54" s="8"/>
+      <c r="V54" s="8"/>
+      <c r="W54" s="8"/>
+      <c r="X54" s="9"/>
+      <c r="Y54" s="8"/>
+      <c r="Z54" s="8"/>
+      <c r="AA54" s="8"/>
+      <c r="AB54" s="8"/>
+      <c r="AC54" s="9"/>
+      <c r="AD54" s="8"/>
       <c r="AE54" s="8"/>
       <c r="AF54" s="8"/>
       <c r="AG54" s="10"/>
@@ -5393,9 +4651,7 @@
       <c r="A55" s="17">
         <v>25</v>
       </c>
-      <c r="B55" s="18" t="s">
-        <v>390</v>
-      </c>
+      <c r="B55" s="18"/>
       <c r="C55" s="11" t="s">
         <v>17</v>
       </c>
@@ -5417,42 +4673,24 @@
       <c r="S55" s="12"/>
       <c r="T55" s="11"/>
       <c r="U55" s="11"/>
-      <c r="V55" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="W55" s="11" t="s">
-        <v>391</v>
-      </c>
+      <c r="V55" s="11"/>
+      <c r="W55" s="11"/>
       <c r="X55" s="12"/>
-      <c r="Y55" s="11" t="s">
-        <v>392</v>
-      </c>
-      <c r="Z55" s="11" t="s">
-        <v>393</v>
-      </c>
-      <c r="AA55" s="11" t="s">
-        <v>393</v>
-      </c>
-      <c r="AB55" s="11" t="s">
-        <v>394</v>
-      </c>
-      <c r="AC55" s="12" t="s">
-        <v>394</v>
-      </c>
-      <c r="AD55" s="11" t="s">
-        <v>395</v>
-      </c>
+      <c r="Y55" s="11"/>
+      <c r="Z55" s="11"/>
+      <c r="AA55" s="11"/>
+      <c r="AB55" s="11"/>
+      <c r="AC55" s="12"/>
+      <c r="AD55" s="11"/>
       <c r="AE55" s="11"/>
       <c r="AF55" s="11"/>
       <c r="AG55" s="13"/>
     </row>
     <row r="56" spans="1:35" customHeight="1" ht="18">
       <c r="A56" s="17"/>
-      <c r="B56" s="18" t="s">
-        <v>396</v>
-      </c>
+      <c r="B56" s="18"/>
       <c r="C56" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D56" s="9"/>
       <c r="E56" s="8"/>
@@ -5474,27 +4712,13 @@
       <c r="U56" s="8"/>
       <c r="V56" s="8"/>
       <c r="W56" s="8"/>
-      <c r="X56" s="9" t="s">
-        <v>397</v>
-      </c>
-      <c r="Y56" s="8" t="s">
-        <v>398</v>
-      </c>
-      <c r="Z56" s="8" t="s">
-        <v>399</v>
-      </c>
-      <c r="AA56" s="8" t="s">
-        <v>398</v>
-      </c>
-      <c r="AB56" s="8" t="s">
-        <v>400</v>
-      </c>
-      <c r="AC56" s="9" t="s">
-        <v>400</v>
-      </c>
-      <c r="AD56" s="8" t="s">
-        <v>401</v>
-      </c>
+      <c r="X56" s="9"/>
+      <c r="Y56" s="8"/>
+      <c r="Z56" s="8"/>
+      <c r="AA56" s="8"/>
+      <c r="AB56" s="8"/>
+      <c r="AC56" s="9"/>
+      <c r="AD56" s="8"/>
       <c r="AE56" s="8"/>
       <c r="AF56" s="8"/>
       <c r="AG56" s="10"/>
@@ -5503,9 +4727,7 @@
       <c r="A57" s="17">
         <v>26</v>
       </c>
-      <c r="B57" s="18" t="s">
-        <v>402</v>
-      </c>
+      <c r="B57" s="18"/>
       <c r="C57" s="11" t="s">
         <v>17</v>
       </c>
@@ -5542,11 +4764,9 @@
     </row>
     <row r="58" spans="1:35" customHeight="1" ht="18">
       <c r="A58" s="17"/>
-      <c r="B58" s="18" t="s">
-        <v>403</v>
-      </c>
+      <c r="B58" s="18"/>
       <c r="C58" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D58" s="9"/>
       <c r="E58" s="8"/>
@@ -5563,30 +4783,18 @@
       <c r="P58" s="8"/>
       <c r="Q58" s="8"/>
       <c r="R58" s="8"/>
-      <c r="S58" s="9" t="s">
-        <v>404</v>
-      </c>
+      <c r="S58" s="9"/>
       <c r="T58" s="8"/>
       <c r="U58" s="8"/>
       <c r="V58" s="8"/>
       <c r="W58" s="8"/>
-      <c r="X58" s="9" t="s">
-        <v>405</v>
-      </c>
+      <c r="X58" s="9"/>
       <c r="Y58" s="8"/>
       <c r="Z58" s="8"/>
-      <c r="AA58" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="AB58" s="8" t="s">
-        <v>407</v>
-      </c>
-      <c r="AC58" s="9" t="s">
-        <v>407</v>
-      </c>
-      <c r="AD58" s="8" t="s">
-        <v>408</v>
-      </c>
+      <c r="AA58" s="8"/>
+      <c r="AB58" s="8"/>
+      <c r="AC58" s="9"/>
+      <c r="AD58" s="8"/>
       <c r="AE58" s="8"/>
       <c r="AF58" s="8"/>
       <c r="AG58" s="10"/>
@@ -5595,9 +4803,7 @@
       <c r="A59" s="17">
         <v>27</v>
       </c>
-      <c r="B59" s="18" t="s">
-        <v>409</v>
-      </c>
+      <c r="B59" s="18"/>
       <c r="C59" s="11" t="s">
         <v>17</v>
       </c>
@@ -5614,53 +4820,29 @@
       <c r="N59" s="12"/>
       <c r="O59" s="11"/>
       <c r="P59" s="11"/>
-      <c r="Q59" s="11" t="s">
-        <v>410</v>
-      </c>
+      <c r="Q59" s="11"/>
       <c r="R59" s="11"/>
       <c r="S59" s="12"/>
-      <c r="T59" s="11" t="s">
-        <v>411</v>
-      </c>
+      <c r="T59" s="11"/>
       <c r="U59" s="11"/>
-      <c r="V59" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="W59" s="11" t="s">
-        <v>413</v>
-      </c>
-      <c r="X59" s="12" t="s">
-        <v>414</v>
-      </c>
-      <c r="Y59" s="11" t="s">
-        <v>415</v>
-      </c>
-      <c r="Z59" s="11" t="s">
-        <v>416</v>
-      </c>
-      <c r="AA59" s="11" t="s">
-        <v>417</v>
-      </c>
-      <c r="AB59" s="11" t="s">
-        <v>418</v>
-      </c>
-      <c r="AC59" s="12" t="s">
-        <v>418</v>
-      </c>
-      <c r="AD59" s="11" t="s">
-        <v>419</v>
-      </c>
+      <c r="V59" s="11"/>
+      <c r="W59" s="11"/>
+      <c r="X59" s="12"/>
+      <c r="Y59" s="11"/>
+      <c r="Z59" s="11"/>
+      <c r="AA59" s="11"/>
+      <c r="AB59" s="11"/>
+      <c r="AC59" s="12"/>
+      <c r="AD59" s="11"/>
       <c r="AE59" s="11"/>
       <c r="AF59" s="11"/>
       <c r="AG59" s="13"/>
     </row>
     <row r="60" spans="1:35" customHeight="1" ht="18">
       <c r="A60" s="17"/>
-      <c r="B60" s="18" t="s">
-        <v>420</v>
-      </c>
+      <c r="B60" s="18"/>
       <c r="C60" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D60" s="9"/>
       <c r="E60" s="8"/>
@@ -5681,30 +4863,14 @@
       <c r="T60" s="8"/>
       <c r="U60" s="8"/>
       <c r="V60" s="8"/>
-      <c r="W60" s="8" t="s">
-        <v>421</v>
-      </c>
-      <c r="X60" s="9" t="s">
-        <v>422</v>
-      </c>
-      <c r="Y60" s="8" t="s">
-        <v>421</v>
-      </c>
-      <c r="Z60" s="8" t="s">
-        <v>423</v>
-      </c>
-      <c r="AA60" s="8" t="s">
-        <v>423</v>
-      </c>
-      <c r="AB60" s="8" t="s">
-        <v>422</v>
-      </c>
-      <c r="AC60" s="9" t="s">
-        <v>424</v>
-      </c>
-      <c r="AD60" s="8" t="s">
-        <v>425</v>
-      </c>
+      <c r="W60" s="8"/>
+      <c r="X60" s="9"/>
+      <c r="Y60" s="8"/>
+      <c r="Z60" s="8"/>
+      <c r="AA60" s="8"/>
+      <c r="AB60" s="8"/>
+      <c r="AC60" s="9"/>
+      <c r="AD60" s="8"/>
       <c r="AE60" s="8"/>
       <c r="AF60" s="8"/>
       <c r="AG60" s="10"/>
@@ -5713,9 +4879,7 @@
       <c r="A61" s="17">
         <v>28</v>
       </c>
-      <c r="B61" s="18" t="s">
-        <v>426</v>
-      </c>
+      <c r="B61" s="18"/>
       <c r="C61" s="11" t="s">
         <v>17</v>
       </c>
@@ -5733,52 +4897,28 @@
       <c r="O61" s="11"/>
       <c r="P61" s="11"/>
       <c r="Q61" s="11"/>
-      <c r="R61" s="11" t="s">
-        <v>427</v>
-      </c>
+      <c r="R61" s="11"/>
       <c r="S61" s="12"/>
-      <c r="T61" s="11" t="s">
-        <v>428</v>
-      </c>
-      <c r="U61" s="11" t="s">
-        <v>428</v>
-      </c>
-      <c r="V61" s="11" t="s">
-        <v>429</v>
-      </c>
+      <c r="T61" s="11"/>
+      <c r="U61" s="11"/>
+      <c r="V61" s="11"/>
       <c r="W61" s="11"/>
-      <c r="X61" s="12" t="s">
-        <v>430</v>
-      </c>
-      <c r="Y61" s="11" t="s">
-        <v>431</v>
-      </c>
-      <c r="Z61" s="11" t="s">
-        <v>427</v>
-      </c>
-      <c r="AA61" s="11" t="s">
-        <v>432</v>
-      </c>
-      <c r="AB61" s="11" t="s">
-        <v>433</v>
-      </c>
-      <c r="AC61" s="12" t="s">
-        <v>433</v>
-      </c>
-      <c r="AD61" s="11" t="s">
-        <v>434</v>
-      </c>
+      <c r="X61" s="12"/>
+      <c r="Y61" s="11"/>
+      <c r="Z61" s="11"/>
+      <c r="AA61" s="11"/>
+      <c r="AB61" s="11"/>
+      <c r="AC61" s="12"/>
+      <c r="AD61" s="11"/>
       <c r="AE61" s="11"/>
       <c r="AF61" s="11"/>
       <c r="AG61" s="13"/>
     </row>
     <row r="62" spans="1:35" customHeight="1" ht="18">
       <c r="A62" s="17"/>
-      <c r="B62" s="18" t="s">
-        <v>435</v>
-      </c>
+      <c r="B62" s="18"/>
       <c r="C62" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D62" s="9"/>
       <c r="E62" s="8"/>
@@ -5796,39 +4936,17 @@
       <c r="Q62" s="8"/>
       <c r="R62" s="8"/>
       <c r="S62" s="9"/>
-      <c r="T62" s="8" t="s">
-        <v>436</v>
-      </c>
-      <c r="U62" s="8" t="s">
-        <v>437</v>
-      </c>
-      <c r="V62" s="8" t="s">
-        <v>438</v>
-      </c>
-      <c r="W62" s="8" t="s">
-        <v>438</v>
-      </c>
-      <c r="X62" s="9" t="s">
-        <v>438</v>
-      </c>
-      <c r="Y62" s="8" t="s">
-        <v>438</v>
-      </c>
-      <c r="Z62" s="8" t="s">
-        <v>439</v>
-      </c>
-      <c r="AA62" s="8" t="s">
-        <v>437</v>
-      </c>
-      <c r="AB62" s="8" t="s">
-        <v>437</v>
-      </c>
-      <c r="AC62" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="AD62" s="8" t="s">
-        <v>439</v>
-      </c>
+      <c r="T62" s="8"/>
+      <c r="U62" s="8"/>
+      <c r="V62" s="8"/>
+      <c r="W62" s="8"/>
+      <c r="X62" s="9"/>
+      <c r="Y62" s="8"/>
+      <c r="Z62" s="8"/>
+      <c r="AA62" s="8"/>
+      <c r="AB62" s="8"/>
+      <c r="AC62" s="9"/>
+      <c r="AD62" s="8"/>
       <c r="AE62" s="8"/>
       <c r="AF62" s="8"/>
       <c r="AG62" s="10"/>
@@ -5862,24 +4980,12 @@
       <c r="V63" s="11"/>
       <c r="W63" s="11"/>
       <c r="X63" s="12"/>
-      <c r="Y63" s="11" t="s">
-        <v>440</v>
-      </c>
-      <c r="Z63" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="AA63" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="AB63" s="11" t="s">
-        <v>442</v>
-      </c>
-      <c r="AC63" s="12" t="s">
-        <v>440</v>
-      </c>
-      <c r="AD63" s="11" t="s">
-        <v>443</v>
-      </c>
+      <c r="Y63" s="11"/>
+      <c r="Z63" s="11"/>
+      <c r="AA63" s="11"/>
+      <c r="AB63" s="11"/>
+      <c r="AC63" s="12"/>
+      <c r="AD63" s="11"/>
       <c r="AE63" s="11"/>
       <c r="AF63" s="11"/>
       <c r="AG63" s="13"/>
@@ -5888,7 +4994,7 @@
       <c r="A64" s="17"/>
       <c r="B64" s="18"/>
       <c r="C64" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D64" s="9"/>
       <c r="E64" s="8"/>
@@ -5964,7 +5070,7 @@
       <c r="A66" s="17"/>
       <c r="B66" s="18"/>
       <c r="C66" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D66" s="9"/>
       <c r="E66" s="8"/>
@@ -6040,7 +5146,7 @@
       <c r="A68" s="17"/>
       <c r="B68" s="18"/>
       <c r="C68" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D68" s="9"/>
       <c r="E68" s="8"/>
@@ -6116,7 +5222,7 @@
       <c r="A70" s="17"/>
       <c r="B70" s="18"/>
       <c r="C70" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D70" s="9"/>
       <c r="E70" s="8"/>
@@ -6192,7 +5298,7 @@
       <c r="A72" s="17"/>
       <c r="B72" s="18"/>
       <c r="C72" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D72" s="9"/>
       <c r="E72" s="8"/>
@@ -6268,7 +5374,7 @@
       <c r="A74" s="17"/>
       <c r="B74" s="18"/>
       <c r="C74" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D74" s="9"/>
       <c r="E74" s="8"/>
@@ -6344,7 +5450,7 @@
       <c r="A76" s="17"/>
       <c r="B76" s="18"/>
       <c r="C76" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D76" s="9"/>
       <c r="E76" s="8"/>
@@ -6420,7 +5526,7 @@
       <c r="A78" s="17"/>
       <c r="B78" s="18"/>
       <c r="C78" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D78" s="9"/>
       <c r="E78" s="8"/>
@@ -6496,7 +5602,7 @@
       <c r="A80" s="17"/>
       <c r="B80" s="18"/>
       <c r="C80" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D80" s="9"/>
       <c r="E80" s="8"/>
@@ -6572,7 +5678,7 @@
       <c r="A82" s="17"/>
       <c r="B82" s="18"/>
       <c r="C82" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D82" s="9"/>
       <c r="E82" s="8"/>
@@ -6648,7 +5754,7 @@
       <c r="A84" s="17"/>
       <c r="B84" s="18"/>
       <c r="C84" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D84" s="9"/>
       <c r="E84" s="8"/>
@@ -6724,7 +5830,7 @@
       <c r="A86" s="17"/>
       <c r="B86" s="18"/>
       <c r="C86" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D86" s="9"/>
       <c r="E86" s="8"/>
@@ -6800,7 +5906,7 @@
       <c r="A88" s="17"/>
       <c r="B88" s="18"/>
       <c r="C88" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D88" s="9"/>
       <c r="E88" s="8"/>
@@ -6876,7 +5982,7 @@
       <c r="A90" s="17"/>
       <c r="B90" s="18"/>
       <c r="C90" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D90" s="9"/>
       <c r="E90" s="8"/>
@@ -6952,7 +6058,7 @@
       <c r="A92" s="17"/>
       <c r="B92" s="18"/>
       <c r="C92" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D92" s="9"/>
       <c r="E92" s="8"/>
@@ -7028,7 +6134,7 @@
       <c r="A94" s="17"/>
       <c r="B94" s="18"/>
       <c r="C94" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D94" s="9"/>
       <c r="E94" s="8"/>
@@ -7104,7 +6210,7 @@
       <c r="A96" s="17"/>
       <c r="B96" s="18"/>
       <c r="C96" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D96" s="9"/>
       <c r="E96" s="8"/>
@@ -7180,7 +6286,7 @@
       <c r="A98" s="17"/>
       <c r="B98" s="18"/>
       <c r="C98" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D98" s="9"/>
       <c r="E98" s="8"/>
@@ -7256,7 +6362,7 @@
       <c r="A100" s="17"/>
       <c r="B100" s="18"/>
       <c r="C100" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D100" s="9"/>
       <c r="E100" s="8"/>
@@ -7332,7 +6438,7 @@
       <c r="A102" s="17"/>
       <c r="B102" s="18"/>
       <c r="C102" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D102" s="9"/>
       <c r="E102" s="8"/>
@@ -7408,7 +6514,7 @@
       <c r="A104" s="17"/>
       <c r="B104" s="18"/>
       <c r="C104" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D104" s="9"/>
       <c r="E104" s="8"/>
@@ -7484,7 +6590,7 @@
       <c r="A106" s="17"/>
       <c r="B106" s="18"/>
       <c r="C106" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D106" s="9"/>
       <c r="E106" s="8"/>
@@ -7560,7 +6666,7 @@
       <c r="A108" s="17"/>
       <c r="B108" s="18"/>
       <c r="C108" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D108" s="9"/>
       <c r="E108" s="8"/>
@@ -7636,7 +6742,7 @@
       <c r="A110" s="17"/>
       <c r="B110" s="18"/>
       <c r="C110" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D110" s="9"/>
       <c r="E110" s="8"/>
@@ -7712,7 +6818,7 @@
       <c r="A112" s="17"/>
       <c r="B112" s="18"/>
       <c r="C112" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D112" s="9"/>
       <c r="E112" s="8"/>
@@ -7788,7 +6894,7 @@
       <c r="A114" s="17"/>
       <c r="B114" s="18"/>
       <c r="C114" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D114" s="9"/>
       <c r="E114" s="8"/>
@@ -7864,7 +6970,7 @@
       <c r="A116" s="17"/>
       <c r="B116" s="18"/>
       <c r="C116" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D116" s="9"/>
       <c r="E116" s="8"/>
@@ -7940,7 +7046,7 @@
       <c r="A118" s="17"/>
       <c r="B118" s="18"/>
       <c r="C118" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D118" s="9"/>
       <c r="E118" s="8"/>
@@ -8016,7 +7122,7 @@
       <c r="A120" s="17"/>
       <c r="B120" s="18"/>
       <c r="C120" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D120" s="9"/>
       <c r="E120" s="8"/>
@@ -8092,7 +7198,7 @@
       <c r="A122" s="17"/>
       <c r="B122" s="18"/>
       <c r="C122" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D122" s="9"/>
       <c r="E122" s="8"/>
@@ -8168,7 +7274,7 @@
       <c r="A124" s="17"/>
       <c r="B124" s="18"/>
       <c r="C124" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D124" s="9"/>
       <c r="E124" s="8"/>
@@ -8244,7 +7350,7 @@
       <c r="A126" s="17"/>
       <c r="B126" s="18"/>
       <c r="C126" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D126" s="9"/>
       <c r="E126" s="8"/>
@@ -8320,7 +7426,7 @@
       <c r="A128" s="17"/>
       <c r="B128" s="18"/>
       <c r="C128" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D128" s="9"/>
       <c r="E128" s="8"/>
@@ -8396,7 +7502,7 @@
       <c r="A130" s="17"/>
       <c r="B130" s="18"/>
       <c r="C130" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D130" s="9"/>
       <c r="E130" s="8"/>
@@ -8472,7 +7578,7 @@
       <c r="A132" s="17"/>
       <c r="B132" s="18"/>
       <c r="C132" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D132" s="9"/>
       <c r="E132" s="8"/>
@@ -8548,7 +7654,7 @@
       <c r="A134" s="17"/>
       <c r="B134" s="18"/>
       <c r="C134" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D134" s="9"/>
       <c r="E134" s="8"/>
@@ -8624,7 +7730,7 @@
       <c r="A136" s="17"/>
       <c r="B136" s="18"/>
       <c r="C136" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D136" s="9"/>
       <c r="E136" s="8"/>
@@ -8700,7 +7806,7 @@
       <c r="A138" s="17"/>
       <c r="B138" s="18"/>
       <c r="C138" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D138" s="9"/>
       <c r="E138" s="8"/>
@@ -8776,7 +7882,7 @@
       <c r="A140" s="17"/>
       <c r="B140" s="18"/>
       <c r="C140" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D140" s="9"/>
       <c r="E140" s="8"/>
@@ -8852,7 +7958,7 @@
       <c r="A142" s="17"/>
       <c r="B142" s="18"/>
       <c r="C142" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D142" s="9"/>
       <c r="E142" s="8"/>
@@ -8928,7 +8034,7 @@
       <c r="A144" s="17"/>
       <c r="B144" s="18"/>
       <c r="C144" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D144" s="9"/>
       <c r="E144" s="8"/>
@@ -9004,7 +8110,7 @@
       <c r="A146" s="17"/>
       <c r="B146" s="18"/>
       <c r="C146" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D146" s="9"/>
       <c r="E146" s="8"/>
@@ -9080,7 +8186,7 @@
       <c r="A148" s="17"/>
       <c r="B148" s="18"/>
       <c r="C148" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D148" s="9"/>
       <c r="E148" s="8"/>
@@ -9156,7 +8262,7 @@
       <c r="A150" s="17"/>
       <c r="B150" s="18"/>
       <c r="C150" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D150" s="9"/>
       <c r="E150" s="8"/>
@@ -9232,7 +8338,7 @@
       <c r="A152" s="17"/>
       <c r="B152" s="18"/>
       <c r="C152" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D152" s="9"/>
       <c r="E152" s="8"/>
@@ -9308,7 +8414,7 @@
       <c r="A154" s="17"/>
       <c r="B154" s="18"/>
       <c r="C154" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D154" s="9"/>
       <c r="E154" s="8"/>
@@ -9384,7 +8490,7 @@
       <c r="A156" s="17"/>
       <c r="B156" s="18"/>
       <c r="C156" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D156" s="9"/>
       <c r="E156" s="8"/>
@@ -9460,7 +8566,7 @@
       <c r="A158" s="17"/>
       <c r="B158" s="18"/>
       <c r="C158" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D158" s="9"/>
       <c r="E158" s="8"/>
@@ -9536,7 +8642,7 @@
       <c r="A160" s="17"/>
       <c r="B160" s="18"/>
       <c r="C160" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D160" s="9"/>
       <c r="E160" s="8"/>
@@ -9612,7 +8718,7 @@
       <c r="A162" s="17"/>
       <c r="B162" s="18"/>
       <c r="C162" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D162" s="9"/>
       <c r="E162" s="8"/>
@@ -9688,7 +8794,7 @@
       <c r="A164" s="17"/>
       <c r="B164" s="18"/>
       <c r="C164" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D164" s="9"/>
       <c r="E164" s="8"/>
@@ -9764,7 +8870,7 @@
       <c r="A166" s="17"/>
       <c r="B166" s="18"/>
       <c r="C166" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D166" s="9"/>
       <c r="E166" s="8"/>
@@ -9840,7 +8946,7 @@
       <c r="A168" s="17"/>
       <c r="B168" s="18"/>
       <c r="C168" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D168" s="9"/>
       <c r="E168" s="8"/>
@@ -9916,7 +9022,7 @@
       <c r="A170" s="17"/>
       <c r="B170" s="18"/>
       <c r="C170" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D170" s="9"/>
       <c r="E170" s="8"/>
@@ -9992,7 +9098,7 @@
       <c r="A172" s="17"/>
       <c r="B172" s="18"/>
       <c r="C172" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D172" s="9"/>
       <c r="E172" s="8"/>
@@ -10068,7 +9174,7 @@
       <c r="A174" s="17"/>
       <c r="B174" s="18"/>
       <c r="C174" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D174" s="9"/>
       <c r="E174" s="8"/>
@@ -10144,7 +9250,7 @@
       <c r="A176" s="17"/>
       <c r="B176" s="18"/>
       <c r="C176" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D176" s="9"/>
       <c r="E176" s="8"/>
@@ -10220,7 +9326,7 @@
       <c r="A178" s="17"/>
       <c r="B178" s="18"/>
       <c r="C178" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D178" s="9"/>
       <c r="E178" s="8"/>
@@ -10296,7 +9402,7 @@
       <c r="A180" s="17"/>
       <c r="B180" s="18"/>
       <c r="C180" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D180" s="9"/>
       <c r="E180" s="8"/>
@@ -10372,7 +9478,7 @@
       <c r="A182" s="17"/>
       <c r="B182" s="18"/>
       <c r="C182" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D182" s="9"/>
       <c r="E182" s="8"/>
@@ -10448,7 +9554,7 @@
       <c r="A184" s="17"/>
       <c r="B184" s="18"/>
       <c r="C184" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D184" s="9"/>
       <c r="E184" s="8"/>
@@ -10524,7 +9630,7 @@
       <c r="A186" s="30"/>
       <c r="B186" s="31"/>
       <c r="C186" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D186" s="15"/>
       <c r="E186" s="14"/>
@@ -10559,7 +9665,7 @@
     </row>
     <row r="187" spans="1:35" customHeight="1" ht="15.75">
       <c r="AB187" s="21" t="s">
-        <v>444</v>
+        <v>314</v>
       </c>
       <c r="AC187" s="21"/>
       <c r="AD187" s="21"/>
@@ -10569,7 +9675,7 @@
     </row>
     <row r="188" spans="1:35" customHeight="1" ht="15.75">
       <c r="AB188" s="21" t="s">
-        <v>445</v>
+        <v>315</v>
       </c>
       <c r="AC188" s="21"/>
       <c r="AD188" s="21"/>

--- a/public/export/tkbgiaovien.xlsx
+++ b/public/export/tkbgiaovien.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
   <si>
     <t>THỜI KHÓA BIỂU GIÁO VIÊN</t>
   </si>
@@ -111,726 +111,6 @@
   </si>
   <si>
     <t>Chào cờ-5D</t>
-  </si>
-  <si>
-    <t>Lê Xuân Phong</t>
-  </si>
-  <si>
-    <t>Tập đọc-5C</t>
-  </si>
-  <si>
-    <t>Luyện từ và câu-5C</t>
-  </si>
-  <si>
-    <t>Tập làm văn-5C</t>
-  </si>
-  <si>
-    <t>Toán-5C</t>
-  </si>
-  <si>
-    <t>Đạo đức-5C</t>
-  </si>
-  <si>
-    <t>Mỹ thuật-5C</t>
-  </si>
-  <si>
-    <t>Chính tả-5C</t>
-  </si>
-  <si>
-    <t>Sinh hoạt lớp-5C</t>
-  </si>
-  <si>
-    <t>Chào cờ-5C</t>
-  </si>
-  <si>
-    <t>Lịch sử-5C</t>
-  </si>
-  <si>
-    <t>Nguyễn Thanh Tùng</t>
-  </si>
-  <si>
-    <t>Tập đọc-5B</t>
-  </si>
-  <si>
-    <t>Luyện từ và câu-5B</t>
-  </si>
-  <si>
-    <t>Tập làm văn-5B</t>
-  </si>
-  <si>
-    <t>Toán-5B</t>
-  </si>
-  <si>
-    <t>Đạo đức-5B</t>
-  </si>
-  <si>
-    <t>Mỹ thuật-5B</t>
-  </si>
-  <si>
-    <t>Chính tả-5B</t>
-  </si>
-  <si>
-    <t>Sinh hoạt lớp-5B</t>
-  </si>
-  <si>
-    <t>Chào cờ-5B</t>
-  </si>
-  <si>
-    <t>Khoa học-5B</t>
-  </si>
-  <si>
-    <t>Lịch sử-5B</t>
-  </si>
-  <si>
-    <t>Địa lý-5B</t>
-  </si>
-  <si>
-    <t>Võ Thị Hồng Phương</t>
-  </si>
-  <si>
-    <t>Tập đọc-5A</t>
-  </si>
-  <si>
-    <t>Luyện từ và câu-5A</t>
-  </si>
-  <si>
-    <t>Tập làm văn-5A</t>
-  </si>
-  <si>
-    <t>Toán-5A</t>
-  </si>
-  <si>
-    <t>Đạo đức-5A</t>
-  </si>
-  <si>
-    <t>Mỹ thuật-5A</t>
-  </si>
-  <si>
-    <t>Chính tả-5A</t>
-  </si>
-  <si>
-    <t>Sinh hoạt lớp-5A</t>
-  </si>
-  <si>
-    <t>Chào cờ-5A</t>
-  </si>
-  <si>
-    <t>Khoa học-5A</t>
-  </si>
-  <si>
-    <t>Lịch sử-5A</t>
-  </si>
-  <si>
-    <t>Kỹ thuật-5A</t>
-  </si>
-  <si>
-    <t>Trần Công Đức</t>
-  </si>
-  <si>
-    <t>Tập đọc-4C</t>
-  </si>
-  <si>
-    <t>Luyện từ và câu-4C</t>
-  </si>
-  <si>
-    <t>Tập làm văn-4C</t>
-  </si>
-  <si>
-    <t>Toán-4C</t>
-  </si>
-  <si>
-    <t>Đạo đức-4C</t>
-  </si>
-  <si>
-    <t>Chính tả-4C</t>
-  </si>
-  <si>
-    <t>Sinh hoạt lớp-4C</t>
-  </si>
-  <si>
-    <t>Chào cờ-4C</t>
-  </si>
-  <si>
-    <t>Khoa học-4C</t>
-  </si>
-  <si>
-    <t>Lịch sử-4C</t>
-  </si>
-  <si>
-    <t>Địa lý-4C</t>
-  </si>
-  <si>
-    <t>Kỹ thuật-4C</t>
-  </si>
-  <si>
-    <t>Huỳnh Thị Diễm</t>
-  </si>
-  <si>
-    <t>Tập đọc-4B</t>
-  </si>
-  <si>
-    <t>Luyện từ và câu-4B</t>
-  </si>
-  <si>
-    <t>Tập làm văn-4B</t>
-  </si>
-  <si>
-    <t>Toán-4B</t>
-  </si>
-  <si>
-    <t>Đạo đức-4B</t>
-  </si>
-  <si>
-    <t>Mỹ thuật-4B</t>
-  </si>
-  <si>
-    <t>Chính tả-4B</t>
-  </si>
-  <si>
-    <t>Sinh hoạt lớp-4B</t>
-  </si>
-  <si>
-    <t>Chào cờ-4B</t>
-  </si>
-  <si>
-    <t>Khoa học-4B</t>
-  </si>
-  <si>
-    <t>Lịch sử-4B</t>
-  </si>
-  <si>
-    <t>Địa lý-4B</t>
-  </si>
-  <si>
-    <t>Đỗ Thị Quốc Danh</t>
-  </si>
-  <si>
-    <t>Tập đọc-4A</t>
-  </si>
-  <si>
-    <t>Luyện từ và câu-4A</t>
-  </si>
-  <si>
-    <t>Tập làm văn-4A</t>
-  </si>
-  <si>
-    <t>Toán-4A</t>
-  </si>
-  <si>
-    <t>Đạo đức-4A</t>
-  </si>
-  <si>
-    <t>Mỹ thuật-4A</t>
-  </si>
-  <si>
-    <t>Chính tả-4A</t>
-  </si>
-  <si>
-    <t>Sinh hoạt lớp-4A</t>
-  </si>
-  <si>
-    <t>Chào cờ-4A</t>
-  </si>
-  <si>
-    <t>Khoa học-4A</t>
-  </si>
-  <si>
-    <t>Lịch sử-4A</t>
-  </si>
-  <si>
-    <t>Địa lý-4A</t>
-  </si>
-  <si>
-    <t>Trần Quang Phú</t>
-  </si>
-  <si>
-    <t>Tập đọc-3D</t>
-  </si>
-  <si>
-    <t>Luyện từ và câu-3D</t>
-  </si>
-  <si>
-    <t>Tập viết-3D</t>
-  </si>
-  <si>
-    <t>Tập làm văn-3D</t>
-  </si>
-  <si>
-    <t>Toán-3D</t>
-  </si>
-  <si>
-    <t>Đạo đức-3D</t>
-  </si>
-  <si>
-    <t>Tự nhiên và Xã hội-3D</t>
-  </si>
-  <si>
-    <t>Thủ công-3D</t>
-  </si>
-  <si>
-    <t>Thể dục-3D</t>
-  </si>
-  <si>
-    <t>Mỹ thuật-3D</t>
-  </si>
-  <si>
-    <t>Chính tả-3D</t>
-  </si>
-  <si>
-    <t>Sinh hoạt lớp-3D</t>
-  </si>
-  <si>
-    <t>Mai Anh Tùng</t>
-  </si>
-  <si>
-    <t>Tập đọc-3C</t>
-  </si>
-  <si>
-    <t>Luyện từ và câu-3C</t>
-  </si>
-  <si>
-    <t>Tập viết-3C</t>
-  </si>
-  <si>
-    <t>Tập làm văn-3C</t>
-  </si>
-  <si>
-    <t>Toán-3C</t>
-  </si>
-  <si>
-    <t>Đạo đức-3C</t>
-  </si>
-  <si>
-    <t>Tự nhiên và Xã hội-3C</t>
-  </si>
-  <si>
-    <t>Thủ công-3C</t>
-  </si>
-  <si>
-    <t>Thể dục-3C</t>
-  </si>
-  <si>
-    <t>Mỹ thuật-3C</t>
-  </si>
-  <si>
-    <t>Chính tả-3C</t>
-  </si>
-  <si>
-    <t>Sinh hoạt lớp-3C</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Nga</t>
-  </si>
-  <si>
-    <t>Tập đọc-3B</t>
-  </si>
-  <si>
-    <t>Luyện từ và câu-3B</t>
-  </si>
-  <si>
-    <t>Tập viết-3B</t>
-  </si>
-  <si>
-    <t>Tập làm văn-3B</t>
-  </si>
-  <si>
-    <t>Toán-3B</t>
-  </si>
-  <si>
-    <t>Đạo đức-3B</t>
-  </si>
-  <si>
-    <t>Tự nhiên và Xã hội-3B</t>
-  </si>
-  <si>
-    <t>Thủ công-3B</t>
-  </si>
-  <si>
-    <t>Thể dục-3B</t>
-  </si>
-  <si>
-    <t>Mỹ thuật-3B</t>
-  </si>
-  <si>
-    <t>Chính tả-3B</t>
-  </si>
-  <si>
-    <t>Sinh hoạt lớp-3B</t>
-  </si>
-  <si>
-    <t>Lê Thị Diễm Lệ</t>
-  </si>
-  <si>
-    <t>Tập đọc-3A</t>
-  </si>
-  <si>
-    <t>Luyện từ và câu-3A</t>
-  </si>
-  <si>
-    <t>Tập viết-3A</t>
-  </si>
-  <si>
-    <t>Tập làm văn-3A</t>
-  </si>
-  <si>
-    <t>Toán-3A</t>
-  </si>
-  <si>
-    <t>Đạo đức-3A</t>
-  </si>
-  <si>
-    <t>Tự nhiên và Xã hội-3A</t>
-  </si>
-  <si>
-    <t>Thủ công-3A</t>
-  </si>
-  <si>
-    <t>Thể dục-3A</t>
-  </si>
-  <si>
-    <t>Mỹ thuật-3A</t>
-  </si>
-  <si>
-    <t>Chính tả-3A</t>
-  </si>
-  <si>
-    <t>Sinh hoạt lớp-3A</t>
-  </si>
-  <si>
-    <t>Phan Thị Đức</t>
-  </si>
-  <si>
-    <t>Tập đọc-2E</t>
-  </si>
-  <si>
-    <t>Kể chuyện-2E</t>
-  </si>
-  <si>
-    <t>Luyện từ và câu-2E</t>
-  </si>
-  <si>
-    <t>Tập viết-2E</t>
-  </si>
-  <si>
-    <t>Tập làm văn-2E</t>
-  </si>
-  <si>
-    <t>Toán-2E</t>
-  </si>
-  <si>
-    <t>Đạo đức-2E</t>
-  </si>
-  <si>
-    <t>Tự nhiên và Xã hội-2E</t>
-  </si>
-  <si>
-    <t>Thủ công-2E</t>
-  </si>
-  <si>
-    <t>Thể dục-2E</t>
-  </si>
-  <si>
-    <t>Mỹ thuật-2E</t>
-  </si>
-  <si>
-    <t>Chính tả-2E</t>
-  </si>
-  <si>
-    <t>Nguyễn Công Mỹ Trang</t>
-  </si>
-  <si>
-    <t>Tập đọc-2D</t>
-  </si>
-  <si>
-    <t>Kể chuyện-2D</t>
-  </si>
-  <si>
-    <t>Luyện từ và câu-2D</t>
-  </si>
-  <si>
-    <t>Tập viết-2D</t>
-  </si>
-  <si>
-    <t>Tập làm văn-2D</t>
-  </si>
-  <si>
-    <t>Toán-2D</t>
-  </si>
-  <si>
-    <t>Đạo đức-2D</t>
-  </si>
-  <si>
-    <t>Tự nhiên và Xã hội-2D</t>
-  </si>
-  <si>
-    <t>Thủ công-2D</t>
-  </si>
-  <si>
-    <t>Thể dục-2D</t>
-  </si>
-  <si>
-    <t>Mỹ thuật-2D</t>
-  </si>
-  <si>
-    <t>Chính tả-2D</t>
-  </si>
-  <si>
-    <t>Trần Thị Thu Hà</t>
-  </si>
-  <si>
-    <t>Tập đọc-2C</t>
-  </si>
-  <si>
-    <t>Kể chuyện-2C</t>
-  </si>
-  <si>
-    <t>Luyện từ và câu-2C</t>
-  </si>
-  <si>
-    <t>Tập viết-2C</t>
-  </si>
-  <si>
-    <t>Tập làm văn-2C</t>
-  </si>
-  <si>
-    <t>Toán-2C</t>
-  </si>
-  <si>
-    <t>Đạo đức-2C</t>
-  </si>
-  <si>
-    <t>Tự nhiên và Xã hội-2C</t>
-  </si>
-  <si>
-    <t>Thủ công-2C</t>
-  </si>
-  <si>
-    <t>Thể dục-2C</t>
-  </si>
-  <si>
-    <t>Mỹ thuật-2C</t>
-  </si>
-  <si>
-    <t>Chính tả-2C</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Ngọc Thạch</t>
-  </si>
-  <si>
-    <t>Tập đọc-2B</t>
-  </si>
-  <si>
-    <t>Kể chuyện-2B</t>
-  </si>
-  <si>
-    <t>Luyện từ và câu-2B</t>
-  </si>
-  <si>
-    <t>Tập viết-2B</t>
-  </si>
-  <si>
-    <t>Tập làm văn-2B</t>
-  </si>
-  <si>
-    <t>Toán-2B</t>
-  </si>
-  <si>
-    <t>Đạo đức-2B</t>
-  </si>
-  <si>
-    <t>Tự nhiên và Xã hội-2B</t>
-  </si>
-  <si>
-    <t>Thủ công-2B</t>
-  </si>
-  <si>
-    <t>Thể dục-2B</t>
-  </si>
-  <si>
-    <t>Mỹ thuật-2B</t>
-  </si>
-  <si>
-    <t>Chính tả-2B</t>
-  </si>
-  <si>
-    <t>Đào Thị Ngọc</t>
-  </si>
-  <si>
-    <t>Tập đọc-2A</t>
-  </si>
-  <si>
-    <t>Kể chuyện-2A</t>
-  </si>
-  <si>
-    <t>Luyện từ và câu-2A</t>
-  </si>
-  <si>
-    <t>Tập viết-2A</t>
-  </si>
-  <si>
-    <t>Tập làm văn-2A</t>
-  </si>
-  <si>
-    <t>Toán-2A</t>
-  </si>
-  <si>
-    <t>Đạo đức-2A</t>
-  </si>
-  <si>
-    <t>Tự nhiên và Xã hội-2A</t>
-  </si>
-  <si>
-    <t>Thủ công-2A</t>
-  </si>
-  <si>
-    <t>Thể dục-2A</t>
-  </si>
-  <si>
-    <t>Mỹ thuật-2A</t>
-  </si>
-  <si>
-    <t>Chính tả-2A</t>
-  </si>
-  <si>
-    <t>Tạ Nguyễn Hướng Dương</t>
-  </si>
-  <si>
-    <t>Học vần-1D</t>
-  </si>
-  <si>
-    <t>Toán-1D</t>
-  </si>
-  <si>
-    <t>Đạo đức-1D</t>
-  </si>
-  <si>
-    <t>Tự nhiên và Xã hội-1D</t>
-  </si>
-  <si>
-    <t>Thủ công-1D</t>
-  </si>
-  <si>
-    <t>Thể dục-1D</t>
-  </si>
-  <si>
-    <t>Mỹ thuật-1D</t>
-  </si>
-  <si>
-    <t>Sinh hoạt lớp-1D</t>
-  </si>
-  <si>
-    <t>Chào cờ-1D</t>
-  </si>
-  <si>
-    <t>Đỗ Thị Phân</t>
-  </si>
-  <si>
-    <t>Học vần-1C</t>
-  </si>
-  <si>
-    <t>Toán-1C</t>
-  </si>
-  <si>
-    <t>Đạo đức-1C</t>
-  </si>
-  <si>
-    <t>Tự nhiên và Xã hội-1C</t>
-  </si>
-  <si>
-    <t>Thủ công-1C</t>
-  </si>
-  <si>
-    <t>Thể dục-1C</t>
-  </si>
-  <si>
-    <t>Mỹ thuật-1C</t>
-  </si>
-  <si>
-    <t>Sinh hoạt lớp-1C</t>
-  </si>
-  <si>
-    <t>Chào cờ-1C</t>
-  </si>
-  <si>
-    <t>Phan Thị Ngân</t>
-  </si>
-  <si>
-    <t>Học vần-1B</t>
-  </si>
-  <si>
-    <t>Toán-1B</t>
-  </si>
-  <si>
-    <t>Đạo đức-1B</t>
-  </si>
-  <si>
-    <t>Tự nhiên và Xã hội-1B</t>
-  </si>
-  <si>
-    <t>Thủ công-1B</t>
-  </si>
-  <si>
-    <t>Thể dục-1B</t>
-  </si>
-  <si>
-    <t>Mỹ thuật-1B</t>
-  </si>
-  <si>
-    <t>Sinh hoạt lớp-1B</t>
-  </si>
-  <si>
-    <t>Chào cờ-1B</t>
-  </si>
-  <si>
-    <t>Trịnh Thị Lệ Hoa</t>
-  </si>
-  <si>
-    <t>Toán-1A</t>
-  </si>
-  <si>
-    <t>Đạo đức-1A</t>
-  </si>
-  <si>
-    <t>Tự nhiên và Xã hội-1A</t>
-  </si>
-  <si>
-    <t>Thủ công-1A</t>
-  </si>
-  <si>
-    <t>Thể dục-1A</t>
-  </si>
-  <si>
-    <t>Mỹ thuật-1A</t>
-  </si>
-  <si>
-    <t>Sinh hoạt lớp-1A</t>
-  </si>
-  <si>
-    <t>Chào cờ-1A</t>
-  </si>
-  <si>
-    <t>Học vần-1A</t>
-  </si>
-  <si>
-    <t>Võ Thị Thanh Khiết</t>
-  </si>
-  <si>
-    <t>Anh văn-5C</t>
-  </si>
-  <si>
-    <t>Trần Văn Thành</t>
-  </si>
-  <si>
-    <t>Âm nhạc-4D</t>
-  </si>
-  <si>
-    <t>Âm nhạc-5D</t>
-  </si>
-  <si>
-    <t>Âm nhạc-5C</t>
-  </si>
-  <si>
-    <t>Âm nhạc-1A</t>
   </si>
   <si>
     <t>KT. HIỆU TRƯỞNG</t>
@@ -1611,33 +891,33 @@
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="4.570313" bestFit="true" customWidth="true" style="1"/>
-    <col min="2" max="2" width="25.85083" bestFit="true" customWidth="true" style="1"/>
+    <col min="2" max="2" width="24.708252" bestFit="true" customWidth="true" style="1"/>
     <col min="3" max="3" width="10.568848" bestFit="true" customWidth="true" style="1"/>
     <col min="4" max="4" width="12.854004" bestFit="true" customWidth="true" style="1"/>
     <col min="5" max="5" width="13.996582" bestFit="true" customWidth="true" style="1"/>
-    <col min="6" max="6" width="22.280273" bestFit="true" customWidth="true" style="1"/>
-    <col min="7" max="7" width="22.280273" bestFit="true" customWidth="true" style="1"/>
-    <col min="8" max="8" width="22.280273" bestFit="true" customWidth="true" style="1"/>
-    <col min="9" max="9" width="22.280273" bestFit="true" customWidth="true" style="1"/>
+    <col min="6" max="6" width="12.854004" bestFit="true" customWidth="true" style="1"/>
+    <col min="7" max="7" width="13.996582" bestFit="true" customWidth="true" style="1"/>
+    <col min="8" max="8" width="12.854004" bestFit="true" customWidth="true" style="1"/>
+    <col min="9" max="9" width="12.854004" bestFit="true" customWidth="true" style="1"/>
     <col min="10" max="10" width="22.280273" bestFit="true" customWidth="true" style="1"/>
     <col min="11" max="11" width="22.280273" bestFit="true" customWidth="true" style="1"/>
     <col min="12" max="12" width="17.567139" bestFit="true" customWidth="true" style="1"/>
     <col min="13" max="13" width="17.567139" bestFit="true" customWidth="true" style="1"/>
-    <col min="14" max="14" width="25.85083" bestFit="true" customWidth="true" style="1"/>
-    <col min="15" max="15" width="13.996582" bestFit="true" customWidth="true" style="1"/>
-    <col min="16" max="16" width="12.854004" bestFit="true" customWidth="true" style="1"/>
-    <col min="17" max="17" width="13.996582" bestFit="true" customWidth="true" style="1"/>
-    <col min="18" max="18" width="19.995117" bestFit="true" customWidth="true" style="1"/>
-    <col min="19" max="19" width="12.854004" bestFit="true" customWidth="true" style="1"/>
-    <col min="20" max="20" width="25.85083" bestFit="true" customWidth="true" style="1"/>
-    <col min="21" max="21" width="25.85083" bestFit="true" customWidth="true" style="1"/>
-    <col min="22" max="22" width="25.85083" bestFit="true" customWidth="true" style="1"/>
-    <col min="23" max="23" width="25.85083" bestFit="true" customWidth="true" style="1"/>
-    <col min="24" max="24" width="13.996582" bestFit="true" customWidth="true" style="1"/>
+    <col min="14" max="14" width="9.283447" bestFit="true" customWidth="true" style="1"/>
+    <col min="15" max="15" width="9.283447" bestFit="true" customWidth="true" style="1"/>
+    <col min="16" max="16" width="9.283447" bestFit="true" customWidth="true" style="1"/>
+    <col min="17" max="17" width="9.283447" bestFit="true" customWidth="true" style="1"/>
+    <col min="18" max="18" width="9.283447" bestFit="true" customWidth="true" style="1"/>
+    <col min="19" max="19" width="9.283447" bestFit="true" customWidth="true" style="1"/>
+    <col min="20" max="20" width="9.283447" bestFit="true" customWidth="true" style="1"/>
+    <col min="21" max="21" width="9.283447" bestFit="true" customWidth="true" style="1"/>
+    <col min="22" max="22" width="9.283447" bestFit="true" customWidth="true" style="1"/>
+    <col min="23" max="23" width="9.283447" bestFit="true" customWidth="true" style="1"/>
+    <col min="24" max="24" width="12.854004" bestFit="true" customWidth="true" style="1"/>
     <col min="25" max="25" width="13.996582" bestFit="true" customWidth="true" style="1"/>
-    <col min="26" max="26" width="19.995117" bestFit="true" customWidth="true" style="1"/>
+    <col min="26" max="26" width="13.996582" bestFit="true" customWidth="true" style="1"/>
     <col min="27" max="27" width="19.995117" bestFit="true" customWidth="true" style="1"/>
-    <col min="28" max="28" width="19.995117" bestFit="true" customWidth="true" style="1"/>
+    <col min="28" max="28" width="12.854004" bestFit="true" customWidth="true" style="1"/>
     <col min="29" max="29" width="8.140869" bestFit="true" customWidth="true" style="1"/>
     <col min="30" max="30" width="8.140869" bestFit="true" customWidth="true" style="1"/>
     <col min="31" max="31" width="8.140869" bestFit="true" customWidth="true" style="1"/>
@@ -2079,81 +1359,35 @@
       <c r="A11" s="17">
         <v>3</v>
       </c>
-      <c r="B11" s="18" t="s">
-        <v>32</v>
-      </c>
+      <c r="B11" s="18"/>
       <c r="C11" s="11" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
-      <c r="G11" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="K11" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="L11" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="M11" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="N11" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="O11" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="P11" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q11" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="R11" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="S11" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="T11" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="U11" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="V11" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="W11" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="X11" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y11" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z11" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA11" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB11" s="11" t="s">
-        <v>42</v>
-      </c>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="11"/>
       <c r="AC11" s="12"/>
       <c r="AD11" s="11"/>
       <c r="AE11" s="11"/>
@@ -2201,87 +1435,35 @@
       <c r="A13" s="17">
         <v>4</v>
       </c>
-      <c r="B13" s="18" t="s">
-        <v>43</v>
-      </c>
+      <c r="B13" s="18"/>
       <c r="C13" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="L13" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="M13" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="N13" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="O13" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="P13" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q13" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="R13" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="S13" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="T13" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="U13" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="V13" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="W13" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="X13" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y13" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z13" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA13" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB13" s="11" t="s">
-        <v>55</v>
-      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="11"/>
+      <c r="AB13" s="11"/>
       <c r="AC13" s="12"/>
       <c r="AD13" s="11"/>
       <c r="AE13" s="11"/>
@@ -2329,87 +1511,35 @@
       <c r="A15" s="17">
         <v>5</v>
       </c>
-      <c r="B15" s="18" t="s">
-        <v>56</v>
-      </c>
+      <c r="B15" s="18"/>
       <c r="C15" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="I15" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="J15" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="K15" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="L15" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="M15" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="N15" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="O15" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="P15" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q15" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="R15" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="S15" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="T15" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="U15" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="V15" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="W15" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="X15" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y15" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z15" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA15" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB15" s="11" t="s">
-        <v>68</v>
-      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="12"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="11"/>
+      <c r="AB15" s="11"/>
       <c r="AC15" s="12"/>
       <c r="AD15" s="11"/>
       <c r="AE15" s="11"/>
@@ -2457,87 +1587,35 @@
       <c r="A17" s="17">
         <v>6</v>
       </c>
-      <c r="B17" s="18" t="s">
-        <v>69</v>
-      </c>
+      <c r="B17" s="18"/>
       <c r="C17" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="I17" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="J17" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="K17" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="L17" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="M17" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="N17" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="O17" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="P17" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q17" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="R17" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="S17" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="T17" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="U17" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="V17" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="W17" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="X17" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y17" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z17" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA17" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB17" s="11" t="s">
-        <v>81</v>
-      </c>
+      <c r="D17" s="12"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="12"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="11"/>
+      <c r="AB17" s="11"/>
       <c r="AC17" s="12"/>
       <c r="AD17" s="11"/>
       <c r="AE17" s="11"/>
@@ -2585,87 +1663,35 @@
       <c r="A19" s="17">
         <v>7</v>
       </c>
-      <c r="B19" s="18" t="s">
-        <v>82</v>
-      </c>
+      <c r="B19" s="18"/>
       <c r="C19" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="I19" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="J19" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="K19" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="L19" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="M19" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="N19" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="O19" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="P19" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q19" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="R19" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="S19" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="T19" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="U19" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="V19" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="W19" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="X19" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y19" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z19" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA19" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="AB19" s="11" t="s">
-        <v>94</v>
-      </c>
+      <c r="D19" s="12"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="12"/>
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="11"/>
+      <c r="AA19" s="11"/>
+      <c r="AB19" s="11"/>
       <c r="AC19" s="12"/>
       <c r="AD19" s="11"/>
       <c r="AE19" s="11"/>
@@ -2713,87 +1739,35 @@
       <c r="A21" s="17">
         <v>8</v>
       </c>
-      <c r="B21" s="18" t="s">
-        <v>95</v>
-      </c>
+      <c r="B21" s="18"/>
       <c r="C21" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="I21" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="J21" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="K21" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="L21" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="M21" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="N21" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="O21" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="P21" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q21" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="R21" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="S21" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="T21" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="U21" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="V21" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="W21" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="X21" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="Y21" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="Z21" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="AA21" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="AB21" s="11" t="s">
-        <v>107</v>
-      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="12"/>
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="11"/>
+      <c r="AA21" s="11"/>
+      <c r="AB21" s="11"/>
       <c r="AC21" s="12"/>
       <c r="AD21" s="11"/>
       <c r="AE21" s="11"/>
@@ -2841,87 +1815,35 @@
       <c r="A23" s="17">
         <v>9</v>
       </c>
-      <c r="B23" s="18" t="s">
-        <v>108</v>
-      </c>
+      <c r="B23" s="18"/>
       <c r="C23" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="I23" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="J23" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="K23" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="L23" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="M23" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="N23" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="O23" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="P23" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q23" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="R23" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="S23" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="T23" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="U23" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="V23" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="W23" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="X23" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="Y23" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="Z23" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="AA23" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB23" s="11" t="s">
-        <v>120</v>
-      </c>
+      <c r="D23" s="12"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="12"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="11"/>
+      <c r="X23" s="12"/>
+      <c r="Y23" s="11"/>
+      <c r="Z23" s="11"/>
+      <c r="AA23" s="11"/>
+      <c r="AB23" s="11"/>
       <c r="AC23" s="12"/>
       <c r="AD23" s="11"/>
       <c r="AE23" s="11"/>
@@ -2969,87 +1891,35 @@
       <c r="A25" s="17">
         <v>10</v>
       </c>
-      <c r="B25" s="18" t="s">
-        <v>121</v>
-      </c>
+      <c r="B25" s="18"/>
       <c r="C25" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="H25" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="I25" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="J25" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="K25" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="L25" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="M25" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="N25" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="O25" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="P25" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q25" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="R25" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="S25" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="T25" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="U25" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="V25" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="W25" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="X25" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="Y25" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="Z25" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="AA25" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="AB25" s="11" t="s">
-        <v>133</v>
-      </c>
+      <c r="D25" s="12"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="11"/>
+      <c r="U25" s="11"/>
+      <c r="V25" s="11"/>
+      <c r="W25" s="11"/>
+      <c r="X25" s="12"/>
+      <c r="Y25" s="11"/>
+      <c r="Z25" s="11"/>
+      <c r="AA25" s="11"/>
+      <c r="AB25" s="11"/>
       <c r="AC25" s="12"/>
       <c r="AD25" s="11"/>
       <c r="AE25" s="11"/>
@@ -3097,87 +1967,35 @@
       <c r="A27" s="17">
         <v>11</v>
       </c>
-      <c r="B27" s="18" t="s">
-        <v>134</v>
-      </c>
+      <c r="B27" s="18"/>
       <c r="C27" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="H27" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="I27" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="J27" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="K27" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="L27" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="M27" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="N27" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="O27" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="P27" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q27" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="R27" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="S27" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="T27" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="U27" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="V27" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="W27" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="X27" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="Y27" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="Z27" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="AA27" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="AB27" s="11" t="s">
-        <v>146</v>
-      </c>
+      <c r="D27" s="12"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="12"/>
+      <c r="T27" s="11"/>
+      <c r="U27" s="11"/>
+      <c r="V27" s="11"/>
+      <c r="W27" s="11"/>
+      <c r="X27" s="12"/>
+      <c r="Y27" s="11"/>
+      <c r="Z27" s="11"/>
+      <c r="AA27" s="11"/>
+      <c r="AB27" s="11"/>
       <c r="AC27" s="12"/>
       <c r="AD27" s="11"/>
       <c r="AE27" s="11"/>
@@ -3225,87 +2043,35 @@
       <c r="A29" s="17">
         <v>12</v>
       </c>
-      <c r="B29" s="18" t="s">
-        <v>147</v>
-      </c>
+      <c r="B29" s="18"/>
       <c r="C29" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="H29" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="I29" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="J29" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="K29" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="L29" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="M29" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="N29" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="O29" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="P29" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q29" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="R29" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="S29" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="T29" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="U29" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="V29" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="W29" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="X29" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y29" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="Z29" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="AA29" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="AB29" s="11" t="s">
-        <v>159</v>
-      </c>
+      <c r="D29" s="12"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="12"/>
+      <c r="T29" s="11"/>
+      <c r="U29" s="11"/>
+      <c r="V29" s="11"/>
+      <c r="W29" s="11"/>
+      <c r="X29" s="12"/>
+      <c r="Y29" s="11"/>
+      <c r="Z29" s="11"/>
+      <c r="AA29" s="11"/>
+      <c r="AB29" s="11"/>
       <c r="AC29" s="12"/>
       <c r="AD29" s="11"/>
       <c r="AE29" s="11"/>
@@ -3353,87 +2119,35 @@
       <c r="A31" s="17">
         <v>13</v>
       </c>
-      <c r="B31" s="18" t="s">
-        <v>160</v>
-      </c>
+      <c r="B31" s="18"/>
       <c r="C31" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D31" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="G31" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="H31" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="I31" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="J31" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="K31" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="L31" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="M31" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="N31" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="O31" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="P31" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q31" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="R31" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="S31" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="T31" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="U31" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="V31" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="W31" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="X31" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="Y31" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="Z31" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="AA31" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="AB31" s="11" t="s">
-        <v>172</v>
-      </c>
+      <c r="D31" s="12"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="12"/>
+      <c r="T31" s="11"/>
+      <c r="U31" s="11"/>
+      <c r="V31" s="11"/>
+      <c r="W31" s="11"/>
+      <c r="X31" s="12"/>
+      <c r="Y31" s="11"/>
+      <c r="Z31" s="11"/>
+      <c r="AA31" s="11"/>
+      <c r="AB31" s="11"/>
       <c r="AC31" s="12"/>
       <c r="AD31" s="11"/>
       <c r="AE31" s="11"/>
@@ -3481,87 +2195,35 @@
       <c r="A33" s="17">
         <v>14</v>
       </c>
-      <c r="B33" s="18" t="s">
-        <v>173</v>
-      </c>
+      <c r="B33" s="18"/>
       <c r="C33" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="G33" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="H33" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="I33" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="J33" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="K33" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="L33" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="M33" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="N33" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="O33" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="P33" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q33" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="R33" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="S33" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="T33" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="U33" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="V33" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="W33" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="X33" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="Y33" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="Z33" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="AA33" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="AB33" s="11" t="s">
-        <v>185</v>
-      </c>
+      <c r="D33" s="12"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="11"/>
+      <c r="S33" s="12"/>
+      <c r="T33" s="11"/>
+      <c r="U33" s="11"/>
+      <c r="V33" s="11"/>
+      <c r="W33" s="11"/>
+      <c r="X33" s="12"/>
+      <c r="Y33" s="11"/>
+      <c r="Z33" s="11"/>
+      <c r="AA33" s="11"/>
+      <c r="AB33" s="11"/>
       <c r="AC33" s="12"/>
       <c r="AD33" s="11"/>
       <c r="AE33" s="11"/>
@@ -3609,87 +2271,35 @@
       <c r="A35" s="17">
         <v>15</v>
       </c>
-      <c r="B35" s="18" t="s">
-        <v>186</v>
-      </c>
+      <c r="B35" s="18"/>
       <c r="C35" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D35" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="F35" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="G35" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="H35" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="I35" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="J35" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="K35" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="L35" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="M35" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="N35" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="O35" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="P35" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q35" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="R35" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="S35" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="T35" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="U35" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="V35" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="W35" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="X35" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="Y35" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="Z35" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="AA35" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="AB35" s="11" t="s">
-        <v>198</v>
-      </c>
+      <c r="D35" s="12"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="11"/>
+      <c r="R35" s="11"/>
+      <c r="S35" s="12"/>
+      <c r="T35" s="11"/>
+      <c r="U35" s="11"/>
+      <c r="V35" s="11"/>
+      <c r="W35" s="11"/>
+      <c r="X35" s="12"/>
+      <c r="Y35" s="11"/>
+      <c r="Z35" s="11"/>
+      <c r="AA35" s="11"/>
+      <c r="AB35" s="11"/>
       <c r="AC35" s="12"/>
       <c r="AD35" s="11"/>
       <c r="AE35" s="11"/>
@@ -3737,87 +2347,35 @@
       <c r="A37" s="17">
         <v>16</v>
       </c>
-      <c r="B37" s="18" t="s">
-        <v>199</v>
-      </c>
+      <c r="B37" s="18"/>
       <c r="C37" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D37" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="F37" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="G37" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="H37" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="I37" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="J37" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="K37" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="L37" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="M37" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="N37" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="O37" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="P37" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q37" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="R37" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="S37" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="T37" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="U37" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="V37" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="W37" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="X37" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="Y37" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="Z37" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="AA37" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="AB37" s="11" t="s">
-        <v>211</v>
-      </c>
+      <c r="D37" s="12"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="11"/>
+      <c r="S37" s="12"/>
+      <c r="T37" s="11"/>
+      <c r="U37" s="11"/>
+      <c r="V37" s="11"/>
+      <c r="W37" s="11"/>
+      <c r="X37" s="12"/>
+      <c r="Y37" s="11"/>
+      <c r="Z37" s="11"/>
+      <c r="AA37" s="11"/>
+      <c r="AB37" s="11"/>
       <c r="AC37" s="12"/>
       <c r="AD37" s="11"/>
       <c r="AE37" s="11"/>
@@ -3865,87 +2423,35 @@
       <c r="A39" s="17">
         <v>17</v>
       </c>
-      <c r="B39" s="18" t="s">
-        <v>212</v>
-      </c>
+      <c r="B39" s="18"/>
       <c r="C39" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D39" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="F39" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="G39" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="H39" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="I39" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="J39" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="K39" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="L39" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="M39" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="N39" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="O39" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="P39" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q39" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="R39" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="S39" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="T39" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="U39" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="V39" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="W39" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="X39" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="Y39" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="Z39" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="AA39" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="AB39" s="11" t="s">
-        <v>224</v>
-      </c>
+      <c r="D39" s="12"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="11"/>
+      <c r="R39" s="11"/>
+      <c r="S39" s="12"/>
+      <c r="T39" s="11"/>
+      <c r="U39" s="11"/>
+      <c r="V39" s="11"/>
+      <c r="W39" s="11"/>
+      <c r="X39" s="12"/>
+      <c r="Y39" s="11"/>
+      <c r="Z39" s="11"/>
+      <c r="AA39" s="11"/>
+      <c r="AB39" s="11"/>
       <c r="AC39" s="12"/>
       <c r="AD39" s="11"/>
       <c r="AE39" s="11"/>
@@ -3993,87 +2499,35 @@
       <c r="A41" s="17">
         <v>18</v>
       </c>
-      <c r="B41" s="18" t="s">
-        <v>225</v>
-      </c>
+      <c r="B41" s="18"/>
       <c r="C41" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D41" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="E41" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="F41" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="G41" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="H41" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="I41" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="J41" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="K41" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="L41" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="M41" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="N41" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="O41" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="P41" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q41" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="R41" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="S41" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="T41" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="U41" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="V41" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="W41" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="X41" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="Y41" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="Z41" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="AA41" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="AB41" s="11" t="s">
-        <v>234</v>
-      </c>
+      <c r="D41" s="12"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11"/>
+      <c r="Q41" s="11"/>
+      <c r="R41" s="11"/>
+      <c r="S41" s="12"/>
+      <c r="T41" s="11"/>
+      <c r="U41" s="11"/>
+      <c r="V41" s="11"/>
+      <c r="W41" s="11"/>
+      <c r="X41" s="12"/>
+      <c r="Y41" s="11"/>
+      <c r="Z41" s="11"/>
+      <c r="AA41" s="11"/>
+      <c r="AB41" s="11"/>
       <c r="AC41" s="12"/>
       <c r="AD41" s="11"/>
       <c r="AE41" s="11"/>
@@ -4121,85 +2575,35 @@
       <c r="A43" s="17">
         <v>19</v>
       </c>
-      <c r="B43" s="18" t="s">
-        <v>235</v>
-      </c>
+      <c r="B43" s="18"/>
       <c r="C43" s="11" t="s">
         <v>17</v>
       </c>
       <c r="D43" s="12"/>
-      <c r="E43" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="F43" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="G43" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="H43" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="I43" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="J43" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="K43" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="L43" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="M43" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="N43" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="O43" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="P43" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q43" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="R43" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="S43" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="T43" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="U43" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="V43" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="W43" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="X43" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="Y43" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="Z43" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="AA43" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="AB43" s="11" t="s">
-        <v>244</v>
-      </c>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="11"/>
+      <c r="Q43" s="11"/>
+      <c r="R43" s="11"/>
+      <c r="S43" s="12"/>
+      <c r="T43" s="11"/>
+      <c r="U43" s="11"/>
+      <c r="V43" s="11"/>
+      <c r="W43" s="11"/>
+      <c r="X43" s="12"/>
+      <c r="Y43" s="11"/>
+      <c r="Z43" s="11"/>
+      <c r="AA43" s="11"/>
+      <c r="AB43" s="11"/>
       <c r="AC43" s="12"/>
       <c r="AD43" s="11"/>
       <c r="AE43" s="11"/>
@@ -4212,9 +2616,7 @@
       <c r="C44" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D44" s="9" t="s">
-        <v>236</v>
-      </c>
+      <c r="D44" s="9"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
@@ -4249,85 +2651,35 @@
       <c r="A45" s="17">
         <v>20</v>
       </c>
-      <c r="B45" s="18" t="s">
-        <v>245</v>
-      </c>
+      <c r="B45" s="18"/>
       <c r="C45" s="11" t="s">
         <v>17</v>
       </c>
       <c r="D45" s="12"/>
-      <c r="E45" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="F45" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="G45" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="H45" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="I45" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="J45" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="K45" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="L45" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="M45" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="N45" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="O45" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="P45" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q45" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="R45" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="S45" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="T45" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="U45" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="V45" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="W45" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="X45" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="Y45" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="Z45" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="AA45" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="AB45" s="11" t="s">
-        <v>254</v>
-      </c>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="12"/>
+      <c r="O45" s="11"/>
+      <c r="P45" s="11"/>
+      <c r="Q45" s="11"/>
+      <c r="R45" s="11"/>
+      <c r="S45" s="12"/>
+      <c r="T45" s="11"/>
+      <c r="U45" s="11"/>
+      <c r="V45" s="11"/>
+      <c r="W45" s="11"/>
+      <c r="X45" s="12"/>
+      <c r="Y45" s="11"/>
+      <c r="Z45" s="11"/>
+      <c r="AA45" s="11"/>
+      <c r="AB45" s="11"/>
       <c r="AC45" s="12"/>
       <c r="AD45" s="11"/>
       <c r="AE45" s="11"/>
@@ -4340,9 +2692,7 @@
       <c r="C46" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D46" s="9" t="s">
-        <v>246</v>
-      </c>
+      <c r="D46" s="9"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
@@ -4377,58 +2727,26 @@
       <c r="A47" s="17">
         <v>21</v>
       </c>
-      <c r="B47" s="18" t="s">
-        <v>255</v>
-      </c>
+      <c r="B47" s="18"/>
       <c r="C47" s="11" t="s">
         <v>17</v>
       </c>
       <c r="D47" s="12"/>
-      <c r="E47" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="F47" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="G47" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="H47" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="I47" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="J47" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="K47" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="L47" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="M47" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="N47" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="O47" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="P47" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q47" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="R47" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="S47" s="12" t="s">
-        <v>263</v>
-      </c>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="11"/>
+      <c r="N47" s="12"/>
+      <c r="O47" s="11"/>
+      <c r="P47" s="11"/>
+      <c r="Q47" s="11"/>
+      <c r="R47" s="11"/>
+      <c r="S47" s="12"/>
       <c r="T47" s="11"/>
       <c r="U47" s="11"/>
       <c r="V47" s="11"/>
@@ -4450,9 +2768,7 @@
       <c r="C48" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D48" s="9" t="s">
-        <v>264</v>
-      </c>
+      <c r="D48" s="9"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
@@ -4487,18 +2803,12 @@
       <c r="A49" s="17">
         <v>22</v>
       </c>
-      <c r="B49" s="18" t="s">
-        <v>265</v>
-      </c>
+      <c r="B49" s="18"/>
       <c r="C49" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D49" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="E49" s="11" t="s">
-        <v>266</v>
-      </c>
+      <c r="D49" s="12"/>
+      <c r="E49" s="11"/>
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
       <c r="H49" s="11"/>
@@ -4569,21 +2879,13 @@
       <c r="A51" s="17">
         <v>23</v>
       </c>
-      <c r="B51" s="18" t="s">
-        <v>267</v>
-      </c>
+      <c r="B51" s="18"/>
       <c r="C51" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D51" s="12" t="s">
-        <v>268</v>
-      </c>
-      <c r="E51" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="F51" s="11" t="s">
-        <v>270</v>
-      </c>
+      <c r="D51" s="12"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
       <c r="G51" s="11"/>
       <c r="H51" s="11"/>
       <c r="I51" s="12"/>
@@ -4597,9 +2899,7 @@
       <c r="Q51" s="11"/>
       <c r="R51" s="11"/>
       <c r="S51" s="12"/>
-      <c r="T51" s="11" t="s">
-        <v>271</v>
-      </c>
+      <c r="T51" s="11"/>
       <c r="U51" s="11"/>
       <c r="V51" s="11"/>
       <c r="W51" s="11"/>
@@ -9745,7 +8045,7 @@
     </row>
     <row r="187" spans="1:35" customHeight="1" ht="15.75">
       <c r="AB187" s="21" t="s">
-        <v>272</v>
+        <v>32</v>
       </c>
       <c r="AC187" s="21"/>
       <c r="AD187" s="21"/>
@@ -9755,7 +8055,7 @@
     </row>
     <row r="188" spans="1:35" customHeight="1" ht="15.75">
       <c r="AB188" s="21" t="s">
-        <v>273</v>
+        <v>33</v>
       </c>
       <c r="AC188" s="21"/>
       <c r="AD188" s="21"/>

--- a/public/export/tkbgiaovien.xlsx
+++ b/public/export/tkbgiaovien.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="274">
   <si>
     <t>THỜI KHÓA BIỂU GIÁO VIÊN</t>
   </si>
@@ -111,6 +111,726 @@
   </si>
   <si>
     <t>Chào cờ-5D</t>
+  </si>
+  <si>
+    <t>Lê Xuân Phong</t>
+  </si>
+  <si>
+    <t>Tập đọc-5C</t>
+  </si>
+  <si>
+    <t>Luyện từ và câu-5C</t>
+  </si>
+  <si>
+    <t>Tập làm văn-5C</t>
+  </si>
+  <si>
+    <t>Toán-5C</t>
+  </si>
+  <si>
+    <t>Đạo đức-5C</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-5C</t>
+  </si>
+  <si>
+    <t>Chính tả-5C</t>
+  </si>
+  <si>
+    <t>Sinh hoạt lớp-5C</t>
+  </si>
+  <si>
+    <t>Chào cờ-5C</t>
+  </si>
+  <si>
+    <t>Lịch sử-5C</t>
+  </si>
+  <si>
+    <t>Nguyễn Thanh Tùng</t>
+  </si>
+  <si>
+    <t>Tập đọc-5B</t>
+  </si>
+  <si>
+    <t>Luyện từ và câu-5B</t>
+  </si>
+  <si>
+    <t>Tập làm văn-5B</t>
+  </si>
+  <si>
+    <t>Toán-5B</t>
+  </si>
+  <si>
+    <t>Đạo đức-5B</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-5B</t>
+  </si>
+  <si>
+    <t>Chính tả-5B</t>
+  </si>
+  <si>
+    <t>Sinh hoạt lớp-5B</t>
+  </si>
+  <si>
+    <t>Chào cờ-5B</t>
+  </si>
+  <si>
+    <t>Khoa học-5B</t>
+  </si>
+  <si>
+    <t>Lịch sử-5B</t>
+  </si>
+  <si>
+    <t>Địa lý-5B</t>
+  </si>
+  <si>
+    <t>Võ Thị Hồng Phương</t>
+  </si>
+  <si>
+    <t>Tập đọc-5A</t>
+  </si>
+  <si>
+    <t>Luyện từ và câu-5A</t>
+  </si>
+  <si>
+    <t>Tập làm văn-5A</t>
+  </si>
+  <si>
+    <t>Toán-5A</t>
+  </si>
+  <si>
+    <t>Đạo đức-5A</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-5A</t>
+  </si>
+  <si>
+    <t>Chính tả-5A</t>
+  </si>
+  <si>
+    <t>Sinh hoạt lớp-5A</t>
+  </si>
+  <si>
+    <t>Chào cờ-5A</t>
+  </si>
+  <si>
+    <t>Khoa học-5A</t>
+  </si>
+  <si>
+    <t>Lịch sử-5A</t>
+  </si>
+  <si>
+    <t>Kỹ thuật-5A</t>
+  </si>
+  <si>
+    <t>Trần Công Đức</t>
+  </si>
+  <si>
+    <t>Tập đọc-4C</t>
+  </si>
+  <si>
+    <t>Luyện từ và câu-4C</t>
+  </si>
+  <si>
+    <t>Tập làm văn-4C</t>
+  </si>
+  <si>
+    <t>Toán-4C</t>
+  </si>
+  <si>
+    <t>Đạo đức-4C</t>
+  </si>
+  <si>
+    <t>Chính tả-4C</t>
+  </si>
+  <si>
+    <t>Sinh hoạt lớp-4C</t>
+  </si>
+  <si>
+    <t>Chào cờ-4C</t>
+  </si>
+  <si>
+    <t>Khoa học-4C</t>
+  </si>
+  <si>
+    <t>Lịch sử-4C</t>
+  </si>
+  <si>
+    <t>Địa lý-4C</t>
+  </si>
+  <si>
+    <t>Kỹ thuật-4C</t>
+  </si>
+  <si>
+    <t>Huỳnh Thị Diễm</t>
+  </si>
+  <si>
+    <t>Tập đọc-4B</t>
+  </si>
+  <si>
+    <t>Luyện từ và câu-4B</t>
+  </si>
+  <si>
+    <t>Tập làm văn-4B</t>
+  </si>
+  <si>
+    <t>Toán-4B</t>
+  </si>
+  <si>
+    <t>Đạo đức-4B</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-4B</t>
+  </si>
+  <si>
+    <t>Chính tả-4B</t>
+  </si>
+  <si>
+    <t>Sinh hoạt lớp-4B</t>
+  </si>
+  <si>
+    <t>Chào cờ-4B</t>
+  </si>
+  <si>
+    <t>Khoa học-4B</t>
+  </si>
+  <si>
+    <t>Lịch sử-4B</t>
+  </si>
+  <si>
+    <t>Địa lý-4B</t>
+  </si>
+  <si>
+    <t>Đỗ Thị Quốc Danh</t>
+  </si>
+  <si>
+    <t>Tập đọc-4A</t>
+  </si>
+  <si>
+    <t>Luyện từ và câu-4A</t>
+  </si>
+  <si>
+    <t>Tập làm văn-4A</t>
+  </si>
+  <si>
+    <t>Toán-4A</t>
+  </si>
+  <si>
+    <t>Đạo đức-4A</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-4A</t>
+  </si>
+  <si>
+    <t>Chính tả-4A</t>
+  </si>
+  <si>
+    <t>Sinh hoạt lớp-4A</t>
+  </si>
+  <si>
+    <t>Chào cờ-4A</t>
+  </si>
+  <si>
+    <t>Khoa học-4A</t>
+  </si>
+  <si>
+    <t>Lịch sử-4A</t>
+  </si>
+  <si>
+    <t>Địa lý-4A</t>
+  </si>
+  <si>
+    <t>Trần Quang Phú</t>
+  </si>
+  <si>
+    <t>Tập đọc-3D</t>
+  </si>
+  <si>
+    <t>Luyện từ và câu-3D</t>
+  </si>
+  <si>
+    <t>Tập viết-3D</t>
+  </si>
+  <si>
+    <t>Tập làm văn-3D</t>
+  </si>
+  <si>
+    <t>Toán-3D</t>
+  </si>
+  <si>
+    <t>Đạo đức-3D</t>
+  </si>
+  <si>
+    <t>Tự nhiên và Xã hội-3D</t>
+  </si>
+  <si>
+    <t>Thủ công-3D</t>
+  </si>
+  <si>
+    <t>Thể dục-3D</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-3D</t>
+  </si>
+  <si>
+    <t>Chính tả-3D</t>
+  </si>
+  <si>
+    <t>Sinh hoạt lớp-3D</t>
+  </si>
+  <si>
+    <t>Mai Anh Tùng</t>
+  </si>
+  <si>
+    <t>Tập đọc-3C</t>
+  </si>
+  <si>
+    <t>Luyện từ và câu-3C</t>
+  </si>
+  <si>
+    <t>Tập viết-3C</t>
+  </si>
+  <si>
+    <t>Tập làm văn-3C</t>
+  </si>
+  <si>
+    <t>Toán-3C</t>
+  </si>
+  <si>
+    <t>Đạo đức-3C</t>
+  </si>
+  <si>
+    <t>Tự nhiên và Xã hội-3C</t>
+  </si>
+  <si>
+    <t>Thủ công-3C</t>
+  </si>
+  <si>
+    <t>Thể dục-3C</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-3C</t>
+  </si>
+  <si>
+    <t>Chính tả-3C</t>
+  </si>
+  <si>
+    <t>Sinh hoạt lớp-3C</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Nga</t>
+  </si>
+  <si>
+    <t>Tập đọc-3B</t>
+  </si>
+  <si>
+    <t>Luyện từ và câu-3B</t>
+  </si>
+  <si>
+    <t>Tập viết-3B</t>
+  </si>
+  <si>
+    <t>Tập làm văn-3B</t>
+  </si>
+  <si>
+    <t>Toán-3B</t>
+  </si>
+  <si>
+    <t>Đạo đức-3B</t>
+  </si>
+  <si>
+    <t>Tự nhiên và Xã hội-3B</t>
+  </si>
+  <si>
+    <t>Thủ công-3B</t>
+  </si>
+  <si>
+    <t>Thể dục-3B</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-3B</t>
+  </si>
+  <si>
+    <t>Chính tả-3B</t>
+  </si>
+  <si>
+    <t>Sinh hoạt lớp-3B</t>
+  </si>
+  <si>
+    <t>Lê Thị Diễm Lệ</t>
+  </si>
+  <si>
+    <t>Tập đọc-3A</t>
+  </si>
+  <si>
+    <t>Luyện từ và câu-3A</t>
+  </si>
+  <si>
+    <t>Tập viết-3A</t>
+  </si>
+  <si>
+    <t>Tập làm văn-3A</t>
+  </si>
+  <si>
+    <t>Toán-3A</t>
+  </si>
+  <si>
+    <t>Đạo đức-3A</t>
+  </si>
+  <si>
+    <t>Tự nhiên và Xã hội-3A</t>
+  </si>
+  <si>
+    <t>Thủ công-3A</t>
+  </si>
+  <si>
+    <t>Thể dục-3A</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-3A</t>
+  </si>
+  <si>
+    <t>Chính tả-3A</t>
+  </si>
+  <si>
+    <t>Sinh hoạt lớp-3A</t>
+  </si>
+  <si>
+    <t>Phan Thị Đức</t>
+  </si>
+  <si>
+    <t>Tập đọc-2E</t>
+  </si>
+  <si>
+    <t>Kể chuyện-2E</t>
+  </si>
+  <si>
+    <t>Luyện từ và câu-2E</t>
+  </si>
+  <si>
+    <t>Tập viết-2E</t>
+  </si>
+  <si>
+    <t>Tập làm văn-2E</t>
+  </si>
+  <si>
+    <t>Toán-2E</t>
+  </si>
+  <si>
+    <t>Đạo đức-2E</t>
+  </si>
+  <si>
+    <t>Tự nhiên và Xã hội-2E</t>
+  </si>
+  <si>
+    <t>Thủ công-2E</t>
+  </si>
+  <si>
+    <t>Thể dục-2E</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-2E</t>
+  </si>
+  <si>
+    <t>Chính tả-2E</t>
+  </si>
+  <si>
+    <t>Nguyễn Công Mỹ Trang</t>
+  </si>
+  <si>
+    <t>Tập đọc-2D</t>
+  </si>
+  <si>
+    <t>Kể chuyện-2D</t>
+  </si>
+  <si>
+    <t>Luyện từ và câu-2D</t>
+  </si>
+  <si>
+    <t>Tập viết-2D</t>
+  </si>
+  <si>
+    <t>Tập làm văn-2D</t>
+  </si>
+  <si>
+    <t>Toán-2D</t>
+  </si>
+  <si>
+    <t>Đạo đức-2D</t>
+  </si>
+  <si>
+    <t>Tự nhiên và Xã hội-2D</t>
+  </si>
+  <si>
+    <t>Thủ công-2D</t>
+  </si>
+  <si>
+    <t>Thể dục-2D</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-2D</t>
+  </si>
+  <si>
+    <t>Chính tả-2D</t>
+  </si>
+  <si>
+    <t>Trần Thị Thu Hà</t>
+  </si>
+  <si>
+    <t>Tập đọc-2C</t>
+  </si>
+  <si>
+    <t>Kể chuyện-2C</t>
+  </si>
+  <si>
+    <t>Luyện từ và câu-2C</t>
+  </si>
+  <si>
+    <t>Tập viết-2C</t>
+  </si>
+  <si>
+    <t>Tập làm văn-2C</t>
+  </si>
+  <si>
+    <t>Toán-2C</t>
+  </si>
+  <si>
+    <t>Đạo đức-2C</t>
+  </si>
+  <si>
+    <t>Tự nhiên và Xã hội-2C</t>
+  </si>
+  <si>
+    <t>Thủ công-2C</t>
+  </si>
+  <si>
+    <t>Thể dục-2C</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-2C</t>
+  </si>
+  <si>
+    <t>Chính tả-2C</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Ngọc Thạch</t>
+  </si>
+  <si>
+    <t>Tập đọc-2B</t>
+  </si>
+  <si>
+    <t>Kể chuyện-2B</t>
+  </si>
+  <si>
+    <t>Luyện từ và câu-2B</t>
+  </si>
+  <si>
+    <t>Tập viết-2B</t>
+  </si>
+  <si>
+    <t>Tập làm văn-2B</t>
+  </si>
+  <si>
+    <t>Toán-2B</t>
+  </si>
+  <si>
+    <t>Đạo đức-2B</t>
+  </si>
+  <si>
+    <t>Tự nhiên và Xã hội-2B</t>
+  </si>
+  <si>
+    <t>Thủ công-2B</t>
+  </si>
+  <si>
+    <t>Thể dục-2B</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-2B</t>
+  </si>
+  <si>
+    <t>Chính tả-2B</t>
+  </si>
+  <si>
+    <t>Đào Thị Ngọc</t>
+  </si>
+  <si>
+    <t>Tập đọc-2A</t>
+  </si>
+  <si>
+    <t>Kể chuyện-2A</t>
+  </si>
+  <si>
+    <t>Luyện từ và câu-2A</t>
+  </si>
+  <si>
+    <t>Tập viết-2A</t>
+  </si>
+  <si>
+    <t>Tập làm văn-2A</t>
+  </si>
+  <si>
+    <t>Toán-2A</t>
+  </si>
+  <si>
+    <t>Đạo đức-2A</t>
+  </si>
+  <si>
+    <t>Tự nhiên và Xã hội-2A</t>
+  </si>
+  <si>
+    <t>Thủ công-2A</t>
+  </si>
+  <si>
+    <t>Thể dục-2A</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-2A</t>
+  </si>
+  <si>
+    <t>Chính tả-2A</t>
+  </si>
+  <si>
+    <t>Tạ Nguyễn Hướng Dương</t>
+  </si>
+  <si>
+    <t>Học vần-1D</t>
+  </si>
+  <si>
+    <t>Toán-1D</t>
+  </si>
+  <si>
+    <t>Đạo đức-1D</t>
+  </si>
+  <si>
+    <t>Tự nhiên và Xã hội-1D</t>
+  </si>
+  <si>
+    <t>Thủ công-1D</t>
+  </si>
+  <si>
+    <t>Thể dục-1D</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-1D</t>
+  </si>
+  <si>
+    <t>Sinh hoạt lớp-1D</t>
+  </si>
+  <si>
+    <t>Chào cờ-1D</t>
+  </si>
+  <si>
+    <t>Đỗ Thị Phân</t>
+  </si>
+  <si>
+    <t>Học vần-1C</t>
+  </si>
+  <si>
+    <t>Toán-1C</t>
+  </si>
+  <si>
+    <t>Đạo đức-1C</t>
+  </si>
+  <si>
+    <t>Tự nhiên và Xã hội-1C</t>
+  </si>
+  <si>
+    <t>Thủ công-1C</t>
+  </si>
+  <si>
+    <t>Thể dục-1C</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-1C</t>
+  </si>
+  <si>
+    <t>Sinh hoạt lớp-1C</t>
+  </si>
+  <si>
+    <t>Chào cờ-1C</t>
+  </si>
+  <si>
+    <t>Phan Thị Ngân</t>
+  </si>
+  <si>
+    <t>Học vần-1B</t>
+  </si>
+  <si>
+    <t>Toán-1B</t>
+  </si>
+  <si>
+    <t>Đạo đức-1B</t>
+  </si>
+  <si>
+    <t>Tự nhiên và Xã hội-1B</t>
+  </si>
+  <si>
+    <t>Thủ công-1B</t>
+  </si>
+  <si>
+    <t>Thể dục-1B</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-1B</t>
+  </si>
+  <si>
+    <t>Sinh hoạt lớp-1B</t>
+  </si>
+  <si>
+    <t>Chào cờ-1B</t>
+  </si>
+  <si>
+    <t>Trịnh Thị Lệ Hoa</t>
+  </si>
+  <si>
+    <t>Toán-1A</t>
+  </si>
+  <si>
+    <t>Đạo đức-1A</t>
+  </si>
+  <si>
+    <t>Tự nhiên và Xã hội-1A</t>
+  </si>
+  <si>
+    <t>Thủ công-1A</t>
+  </si>
+  <si>
+    <t>Thể dục-1A</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-1A</t>
+  </si>
+  <si>
+    <t>Sinh hoạt lớp-1A</t>
+  </si>
+  <si>
+    <t>Chào cờ-1A</t>
+  </si>
+  <si>
+    <t>Học vần-1A</t>
+  </si>
+  <si>
+    <t>Võ Thị Thanh Khiết</t>
+  </si>
+  <si>
+    <t>Anh văn-5C</t>
+  </si>
+  <si>
+    <t>Trần Văn Thành</t>
+  </si>
+  <si>
+    <t>Âm nhạc-4D</t>
+  </si>
+  <si>
+    <t>Âm nhạc-5D</t>
+  </si>
+  <si>
+    <t>Âm nhạc-5C</t>
+  </si>
+  <si>
+    <t>Âm nhạc-1A</t>
   </si>
   <si>
     <t>KT. HIỆU TRƯỞNG</t>
@@ -891,33 +1611,33 @@
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="4.570313" bestFit="true" customWidth="true" style="1"/>
-    <col min="2" max="2" width="24.708252" bestFit="true" customWidth="true" style="1"/>
+    <col min="2" max="2" width="25.85083" bestFit="true" customWidth="true" style="1"/>
     <col min="3" max="3" width="10.568848" bestFit="true" customWidth="true" style="1"/>
     <col min="4" max="4" width="12.854004" bestFit="true" customWidth="true" style="1"/>
     <col min="5" max="5" width="13.996582" bestFit="true" customWidth="true" style="1"/>
-    <col min="6" max="6" width="12.854004" bestFit="true" customWidth="true" style="1"/>
-    <col min="7" max="7" width="13.996582" bestFit="true" customWidth="true" style="1"/>
-    <col min="8" max="8" width="12.854004" bestFit="true" customWidth="true" style="1"/>
-    <col min="9" max="9" width="12.854004" bestFit="true" customWidth="true" style="1"/>
+    <col min="6" max="6" width="22.280273" bestFit="true" customWidth="true" style="1"/>
+    <col min="7" max="7" width="22.280273" bestFit="true" customWidth="true" style="1"/>
+    <col min="8" max="8" width="22.280273" bestFit="true" customWidth="true" style="1"/>
+    <col min="9" max="9" width="22.280273" bestFit="true" customWidth="true" style="1"/>
     <col min="10" max="10" width="22.280273" bestFit="true" customWidth="true" style="1"/>
     <col min="11" max="11" width="22.280273" bestFit="true" customWidth="true" style="1"/>
     <col min="12" max="12" width="17.567139" bestFit="true" customWidth="true" style="1"/>
     <col min="13" max="13" width="17.567139" bestFit="true" customWidth="true" style="1"/>
-    <col min="14" max="14" width="9.283447" bestFit="true" customWidth="true" style="1"/>
-    <col min="15" max="15" width="9.283447" bestFit="true" customWidth="true" style="1"/>
-    <col min="16" max="16" width="9.283447" bestFit="true" customWidth="true" style="1"/>
-    <col min="17" max="17" width="9.283447" bestFit="true" customWidth="true" style="1"/>
-    <col min="18" max="18" width="9.283447" bestFit="true" customWidth="true" style="1"/>
-    <col min="19" max="19" width="9.283447" bestFit="true" customWidth="true" style="1"/>
-    <col min="20" max="20" width="9.283447" bestFit="true" customWidth="true" style="1"/>
-    <col min="21" max="21" width="9.283447" bestFit="true" customWidth="true" style="1"/>
-    <col min="22" max="22" width="9.283447" bestFit="true" customWidth="true" style="1"/>
-    <col min="23" max="23" width="9.283447" bestFit="true" customWidth="true" style="1"/>
-    <col min="24" max="24" width="12.854004" bestFit="true" customWidth="true" style="1"/>
+    <col min="14" max="14" width="25.85083" bestFit="true" customWidth="true" style="1"/>
+    <col min="15" max="15" width="13.996582" bestFit="true" customWidth="true" style="1"/>
+    <col min="16" max="16" width="12.854004" bestFit="true" customWidth="true" style="1"/>
+    <col min="17" max="17" width="13.996582" bestFit="true" customWidth="true" style="1"/>
+    <col min="18" max="18" width="19.995117" bestFit="true" customWidth="true" style="1"/>
+    <col min="19" max="19" width="12.854004" bestFit="true" customWidth="true" style="1"/>
+    <col min="20" max="20" width="25.85083" bestFit="true" customWidth="true" style="1"/>
+    <col min="21" max="21" width="25.85083" bestFit="true" customWidth="true" style="1"/>
+    <col min="22" max="22" width="25.85083" bestFit="true" customWidth="true" style="1"/>
+    <col min="23" max="23" width="25.85083" bestFit="true" customWidth="true" style="1"/>
+    <col min="24" max="24" width="13.996582" bestFit="true" customWidth="true" style="1"/>
     <col min="25" max="25" width="13.996582" bestFit="true" customWidth="true" style="1"/>
-    <col min="26" max="26" width="13.996582" bestFit="true" customWidth="true" style="1"/>
+    <col min="26" max="26" width="19.995117" bestFit="true" customWidth="true" style="1"/>
     <col min="27" max="27" width="19.995117" bestFit="true" customWidth="true" style="1"/>
-    <col min="28" max="28" width="12.854004" bestFit="true" customWidth="true" style="1"/>
+    <col min="28" max="28" width="19.995117" bestFit="true" customWidth="true" style="1"/>
     <col min="29" max="29" width="8.140869" bestFit="true" customWidth="true" style="1"/>
     <col min="30" max="30" width="8.140869" bestFit="true" customWidth="true" style="1"/>
     <col min="31" max="31" width="8.140869" bestFit="true" customWidth="true" style="1"/>
@@ -1359,35 +2079,81 @@
       <c r="A11" s="17">
         <v>3</v>
       </c>
-      <c r="B11" s="18"/>
+      <c r="B11" s="18" t="s">
+        <v>32</v>
+      </c>
       <c r="C11" s="11" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11"/>
-      <c r="V11" s="11"/>
-      <c r="W11" s="11"/>
-      <c r="X11" s="12"/>
-      <c r="Y11" s="11"/>
-      <c r="Z11" s="11"/>
-      <c r="AA11" s="11"/>
-      <c r="AB11" s="11"/>
+      <c r="G11" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="N11" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="O11" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="P11" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q11" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="R11" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="S11" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="T11" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="U11" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="V11" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="W11" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="X11" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y11" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z11" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA11" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB11" s="11" t="s">
+        <v>42</v>
+      </c>
       <c r="AC11" s="12"/>
       <c r="AD11" s="11"/>
       <c r="AE11" s="11"/>
@@ -1435,35 +2201,87 @@
       <c r="A13" s="17">
         <v>4</v>
       </c>
-      <c r="B13" s="18"/>
+      <c r="B13" s="18" t="s">
+        <v>43</v>
+      </c>
       <c r="C13" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="12"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="11"/>
-      <c r="V13" s="11"/>
-      <c r="W13" s="11"/>
-      <c r="X13" s="12"/>
-      <c r="Y13" s="11"/>
-      <c r="Z13" s="11"/>
-      <c r="AA13" s="11"/>
-      <c r="AB13" s="11"/>
+      <c r="D13" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="N13" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="O13" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="P13" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q13" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="R13" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="S13" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="T13" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="U13" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="V13" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="W13" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="X13" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y13" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z13" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA13" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB13" s="11" t="s">
+        <v>55</v>
+      </c>
       <c r="AC13" s="12"/>
       <c r="AD13" s="11"/>
       <c r="AE13" s="11"/>
@@ -1511,35 +2329,87 @@
       <c r="A15" s="17">
         <v>5</v>
       </c>
-      <c r="B15" s="18"/>
+      <c r="B15" s="18" t="s">
+        <v>56</v>
+      </c>
       <c r="C15" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="11"/>
-      <c r="U15" s="11"/>
-      <c r="V15" s="11"/>
-      <c r="W15" s="11"/>
-      <c r="X15" s="12"/>
-      <c r="Y15" s="11"/>
-      <c r="Z15" s="11"/>
-      <c r="AA15" s="11"/>
-      <c r="AB15" s="11"/>
+      <c r="D15" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="M15" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="N15" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="O15" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P15" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q15" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="R15" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="S15" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="T15" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="U15" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="V15" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="W15" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="X15" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y15" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z15" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA15" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB15" s="11" t="s">
+        <v>68</v>
+      </c>
       <c r="AC15" s="12"/>
       <c r="AD15" s="11"/>
       <c r="AE15" s="11"/>
@@ -1587,35 +2457,87 @@
       <c r="A17" s="17">
         <v>6</v>
       </c>
-      <c r="B17" s="18"/>
+      <c r="B17" s="18" t="s">
+        <v>69</v>
+      </c>
       <c r="C17" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="11"/>
-      <c r="V17" s="11"/>
-      <c r="W17" s="11"/>
-      <c r="X17" s="12"/>
-      <c r="Y17" s="11"/>
-      <c r="Z17" s="11"/>
-      <c r="AA17" s="11"/>
-      <c r="AB17" s="11"/>
+      <c r="D17" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="L17" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="M17" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="N17" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="O17" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="P17" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q17" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="R17" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="S17" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="T17" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="U17" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="V17" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="W17" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="X17" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y17" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z17" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA17" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB17" s="11" t="s">
+        <v>81</v>
+      </c>
       <c r="AC17" s="12"/>
       <c r="AD17" s="11"/>
       <c r="AE17" s="11"/>
@@ -1663,35 +2585,87 @@
       <c r="A19" s="17">
         <v>7</v>
       </c>
-      <c r="B19" s="18"/>
+      <c r="B19" s="18" t="s">
+        <v>82</v>
+      </c>
       <c r="C19" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="12"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="11"/>
-      <c r="V19" s="11"/>
-      <c r="W19" s="11"/>
-      <c r="X19" s="12"/>
-      <c r="Y19" s="11"/>
-      <c r="Z19" s="11"/>
-      <c r="AA19" s="11"/>
-      <c r="AB19" s="11"/>
+      <c r="D19" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="K19" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="L19" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="M19" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="N19" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="O19" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="P19" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q19" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="R19" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="S19" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="T19" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="U19" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="V19" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="W19" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="X19" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y19" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z19" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA19" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB19" s="11" t="s">
+        <v>94</v>
+      </c>
       <c r="AC19" s="12"/>
       <c r="AD19" s="11"/>
       <c r="AE19" s="11"/>
@@ -1739,35 +2713,87 @@
       <c r="A21" s="17">
         <v>8</v>
       </c>
-      <c r="B21" s="18"/>
+      <c r="B21" s="18" t="s">
+        <v>95</v>
+      </c>
       <c r="C21" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="11"/>
-      <c r="S21" s="12"/>
-      <c r="T21" s="11"/>
-      <c r="U21" s="11"/>
-      <c r="V21" s="11"/>
-      <c r="W21" s="11"/>
-      <c r="X21" s="12"/>
-      <c r="Y21" s="11"/>
-      <c r="Z21" s="11"/>
-      <c r="AA21" s="11"/>
-      <c r="AB21" s="11"/>
+      <c r="D21" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="K21" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="L21" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="M21" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="N21" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="O21" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="P21" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q21" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="R21" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="S21" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="T21" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="U21" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="V21" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="W21" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="X21" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y21" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z21" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA21" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB21" s="11" t="s">
+        <v>107</v>
+      </c>
       <c r="AC21" s="12"/>
       <c r="AD21" s="11"/>
       <c r="AE21" s="11"/>
@@ -1815,35 +2841,87 @@
       <c r="A23" s="17">
         <v>9</v>
       </c>
-      <c r="B23" s="18"/>
+      <c r="B23" s="18" t="s">
+        <v>108</v>
+      </c>
       <c r="C23" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="11"/>
-      <c r="S23" s="12"/>
-      <c r="T23" s="11"/>
-      <c r="U23" s="11"/>
-      <c r="V23" s="11"/>
-      <c r="W23" s="11"/>
-      <c r="X23" s="12"/>
-      <c r="Y23" s="11"/>
-      <c r="Z23" s="11"/>
-      <c r="AA23" s="11"/>
-      <c r="AB23" s="11"/>
+      <c r="D23" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="K23" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="L23" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="M23" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="N23" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="O23" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="P23" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q23" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="R23" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="S23" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="T23" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="U23" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="V23" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="W23" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="X23" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y23" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z23" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA23" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB23" s="11" t="s">
+        <v>120</v>
+      </c>
       <c r="AC23" s="12"/>
       <c r="AD23" s="11"/>
       <c r="AE23" s="11"/>
@@ -1891,35 +2969,87 @@
       <c r="A25" s="17">
         <v>10</v>
       </c>
-      <c r="B25" s="18"/>
+      <c r="B25" s="18" t="s">
+        <v>121</v>
+      </c>
       <c r="C25" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="12"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="11"/>
-      <c r="R25" s="11"/>
-      <c r="S25" s="12"/>
-      <c r="T25" s="11"/>
-      <c r="U25" s="11"/>
-      <c r="V25" s="11"/>
-      <c r="W25" s="11"/>
-      <c r="X25" s="12"/>
-      <c r="Y25" s="11"/>
-      <c r="Z25" s="11"/>
-      <c r="AA25" s="11"/>
-      <c r="AB25" s="11"/>
+      <c r="D25" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="K25" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="L25" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="M25" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="N25" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="O25" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="P25" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q25" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="R25" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="S25" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="T25" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="U25" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="V25" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="W25" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="X25" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y25" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z25" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA25" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB25" s="11" t="s">
+        <v>133</v>
+      </c>
       <c r="AC25" s="12"/>
       <c r="AD25" s="11"/>
       <c r="AE25" s="11"/>
@@ -1967,35 +3097,87 @@
       <c r="A27" s="17">
         <v>11</v>
       </c>
-      <c r="B27" s="18"/>
+      <c r="B27" s="18" t="s">
+        <v>134</v>
+      </c>
       <c r="C27" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="12"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="11"/>
-      <c r="R27" s="11"/>
-      <c r="S27" s="12"/>
-      <c r="T27" s="11"/>
-      <c r="U27" s="11"/>
-      <c r="V27" s="11"/>
-      <c r="W27" s="11"/>
-      <c r="X27" s="12"/>
-      <c r="Y27" s="11"/>
-      <c r="Z27" s="11"/>
-      <c r="AA27" s="11"/>
-      <c r="AB27" s="11"/>
+      <c r="D27" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="K27" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="L27" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="M27" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="N27" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="O27" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="P27" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q27" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="R27" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="S27" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="T27" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="U27" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="V27" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="W27" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="X27" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y27" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z27" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="AA27" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="AB27" s="11" t="s">
+        <v>146</v>
+      </c>
       <c r="AC27" s="12"/>
       <c r="AD27" s="11"/>
       <c r="AE27" s="11"/>
@@ -2043,35 +3225,87 @@
       <c r="A29" s="17">
         <v>12</v>
       </c>
-      <c r="B29" s="18"/>
+      <c r="B29" s="18" t="s">
+        <v>147</v>
+      </c>
       <c r="C29" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="12"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="11"/>
-      <c r="R29" s="11"/>
-      <c r="S29" s="12"/>
-      <c r="T29" s="11"/>
-      <c r="U29" s="11"/>
-      <c r="V29" s="11"/>
-      <c r="W29" s="11"/>
-      <c r="X29" s="12"/>
-      <c r="Y29" s="11"/>
-      <c r="Z29" s="11"/>
-      <c r="AA29" s="11"/>
-      <c r="AB29" s="11"/>
+      <c r="D29" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="I29" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="K29" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="L29" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="M29" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="N29" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="O29" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="P29" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q29" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="R29" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="S29" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="T29" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="U29" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="V29" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="W29" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="X29" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y29" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z29" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="AA29" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB29" s="11" t="s">
+        <v>159</v>
+      </c>
       <c r="AC29" s="12"/>
       <c r="AD29" s="11"/>
       <c r="AE29" s="11"/>
@@ -2119,35 +3353,87 @@
       <c r="A31" s="17">
         <v>13</v>
       </c>
-      <c r="B31" s="18"/>
+      <c r="B31" s="18" t="s">
+        <v>160</v>
+      </c>
       <c r="C31" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D31" s="12"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="12"/>
-      <c r="O31" s="11"/>
-      <c r="P31" s="11"/>
-      <c r="Q31" s="11"/>
-      <c r="R31" s="11"/>
-      <c r="S31" s="12"/>
-      <c r="T31" s="11"/>
-      <c r="U31" s="11"/>
-      <c r="V31" s="11"/>
-      <c r="W31" s="11"/>
-      <c r="X31" s="12"/>
-      <c r="Y31" s="11"/>
-      <c r="Z31" s="11"/>
-      <c r="AA31" s="11"/>
-      <c r="AB31" s="11"/>
+      <c r="D31" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="I31" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="J31" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="K31" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="L31" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="M31" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="N31" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="O31" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="P31" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q31" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="R31" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="S31" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="T31" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="U31" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="V31" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="W31" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="X31" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y31" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z31" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="AA31" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB31" s="11" t="s">
+        <v>172</v>
+      </c>
       <c r="AC31" s="12"/>
       <c r="AD31" s="11"/>
       <c r="AE31" s="11"/>
@@ -2195,35 +3481,87 @@
       <c r="A33" s="17">
         <v>14</v>
       </c>
-      <c r="B33" s="18"/>
+      <c r="B33" s="18" t="s">
+        <v>173</v>
+      </c>
       <c r="C33" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="12"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="12"/>
-      <c r="O33" s="11"/>
-      <c r="P33" s="11"/>
-      <c r="Q33" s="11"/>
-      <c r="R33" s="11"/>
-      <c r="S33" s="12"/>
-      <c r="T33" s="11"/>
-      <c r="U33" s="11"/>
-      <c r="V33" s="11"/>
-      <c r="W33" s="11"/>
-      <c r="X33" s="12"/>
-      <c r="Y33" s="11"/>
-      <c r="Z33" s="11"/>
-      <c r="AA33" s="11"/>
-      <c r="AB33" s="11"/>
+      <c r="D33" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="I33" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="J33" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="K33" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="L33" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="M33" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="N33" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="O33" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="P33" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q33" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="R33" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="S33" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="T33" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="U33" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="V33" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="W33" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="X33" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y33" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="Z33" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA33" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="AB33" s="11" t="s">
+        <v>185</v>
+      </c>
       <c r="AC33" s="12"/>
       <c r="AD33" s="11"/>
       <c r="AE33" s="11"/>
@@ -2271,35 +3609,87 @@
       <c r="A35" s="17">
         <v>15</v>
       </c>
-      <c r="B35" s="18"/>
+      <c r="B35" s="18" t="s">
+        <v>186</v>
+      </c>
       <c r="C35" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D35" s="12"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="11"/>
-      <c r="N35" s="12"/>
-      <c r="O35" s="11"/>
-      <c r="P35" s="11"/>
-      <c r="Q35" s="11"/>
-      <c r="R35" s="11"/>
-      <c r="S35" s="12"/>
-      <c r="T35" s="11"/>
-      <c r="U35" s="11"/>
-      <c r="V35" s="11"/>
-      <c r="W35" s="11"/>
-      <c r="X35" s="12"/>
-      <c r="Y35" s="11"/>
-      <c r="Z35" s="11"/>
-      <c r="AA35" s="11"/>
-      <c r="AB35" s="11"/>
+      <c r="D35" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="I35" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="J35" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="K35" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="L35" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="M35" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="N35" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="O35" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="P35" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q35" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="R35" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="S35" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="T35" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="U35" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="V35" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="W35" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="X35" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y35" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="Z35" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA35" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="AB35" s="11" t="s">
+        <v>198</v>
+      </c>
       <c r="AC35" s="12"/>
       <c r="AD35" s="11"/>
       <c r="AE35" s="11"/>
@@ -2347,35 +3737,87 @@
       <c r="A37" s="17">
         <v>16</v>
       </c>
-      <c r="B37" s="18"/>
+      <c r="B37" s="18" t="s">
+        <v>199</v>
+      </c>
       <c r="C37" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D37" s="12"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="11"/>
-      <c r="L37" s="11"/>
-      <c r="M37" s="11"/>
-      <c r="N37" s="12"/>
-      <c r="O37" s="11"/>
-      <c r="P37" s="11"/>
-      <c r="Q37" s="11"/>
-      <c r="R37" s="11"/>
-      <c r="S37" s="12"/>
-      <c r="T37" s="11"/>
-      <c r="U37" s="11"/>
-      <c r="V37" s="11"/>
-      <c r="W37" s="11"/>
-      <c r="X37" s="12"/>
-      <c r="Y37" s="11"/>
-      <c r="Z37" s="11"/>
-      <c r="AA37" s="11"/>
-      <c r="AB37" s="11"/>
+      <c r="D37" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="I37" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="J37" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="K37" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="L37" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="M37" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="N37" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="O37" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="P37" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q37" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="R37" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="S37" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="T37" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="U37" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="V37" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="W37" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="X37" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y37" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="Z37" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="AA37" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="AB37" s="11" t="s">
+        <v>211</v>
+      </c>
       <c r="AC37" s="12"/>
       <c r="AD37" s="11"/>
       <c r="AE37" s="11"/>
@@ -2423,35 +3865,87 @@
       <c r="A39" s="17">
         <v>17</v>
       </c>
-      <c r="B39" s="18"/>
+      <c r="B39" s="18" t="s">
+        <v>212</v>
+      </c>
       <c r="C39" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D39" s="12"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="11"/>
-      <c r="K39" s="11"/>
-      <c r="L39" s="11"/>
-      <c r="M39" s="11"/>
-      <c r="N39" s="12"/>
-      <c r="O39" s="11"/>
-      <c r="P39" s="11"/>
-      <c r="Q39" s="11"/>
-      <c r="R39" s="11"/>
-      <c r="S39" s="12"/>
-      <c r="T39" s="11"/>
-      <c r="U39" s="11"/>
-      <c r="V39" s="11"/>
-      <c r="W39" s="11"/>
-      <c r="X39" s="12"/>
-      <c r="Y39" s="11"/>
-      <c r="Z39" s="11"/>
-      <c r="AA39" s="11"/>
-      <c r="AB39" s="11"/>
+      <c r="D39" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="I39" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="J39" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="K39" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="L39" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="M39" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="N39" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="O39" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="P39" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q39" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="R39" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="S39" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="T39" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="U39" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="V39" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="W39" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="X39" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y39" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="Z39" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="AA39" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="AB39" s="11" t="s">
+        <v>224</v>
+      </c>
       <c r="AC39" s="12"/>
       <c r="AD39" s="11"/>
       <c r="AE39" s="11"/>
@@ -2499,35 +3993,87 @@
       <c r="A41" s="17">
         <v>18</v>
       </c>
-      <c r="B41" s="18"/>
+      <c r="B41" s="18" t="s">
+        <v>225</v>
+      </c>
       <c r="C41" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D41" s="12"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="11"/>
-      <c r="K41" s="11"/>
-      <c r="L41" s="11"/>
-      <c r="M41" s="11"/>
-      <c r="N41" s="12"/>
-      <c r="O41" s="11"/>
-      <c r="P41" s="11"/>
-      <c r="Q41" s="11"/>
-      <c r="R41" s="11"/>
-      <c r="S41" s="12"/>
-      <c r="T41" s="11"/>
-      <c r="U41" s="11"/>
-      <c r="V41" s="11"/>
-      <c r="W41" s="11"/>
-      <c r="X41" s="12"/>
-      <c r="Y41" s="11"/>
-      <c r="Z41" s="11"/>
-      <c r="AA41" s="11"/>
-      <c r="AB41" s="11"/>
+      <c r="D41" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="I41" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="J41" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="K41" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="L41" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="M41" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="N41" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="O41" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="P41" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q41" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="R41" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="S41" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="T41" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="U41" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="V41" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="W41" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="X41" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y41" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="Z41" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="AA41" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="AB41" s="11" t="s">
+        <v>234</v>
+      </c>
       <c r="AC41" s="12"/>
       <c r="AD41" s="11"/>
       <c r="AE41" s="11"/>
@@ -2575,35 +4121,85 @@
       <c r="A43" s="17">
         <v>19</v>
       </c>
-      <c r="B43" s="18"/>
+      <c r="B43" s="18" t="s">
+        <v>235</v>
+      </c>
       <c r="C43" s="11" t="s">
         <v>17</v>
       </c>
       <c r="D43" s="12"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="11"/>
-      <c r="K43" s="11"/>
-      <c r="L43" s="11"/>
-      <c r="M43" s="11"/>
-      <c r="N43" s="12"/>
-      <c r="O43" s="11"/>
-      <c r="P43" s="11"/>
-      <c r="Q43" s="11"/>
-      <c r="R43" s="11"/>
-      <c r="S43" s="12"/>
-      <c r="T43" s="11"/>
-      <c r="U43" s="11"/>
-      <c r="V43" s="11"/>
-      <c r="W43" s="11"/>
-      <c r="X43" s="12"/>
-      <c r="Y43" s="11"/>
-      <c r="Z43" s="11"/>
-      <c r="AA43" s="11"/>
-      <c r="AB43" s="11"/>
+      <c r="E43" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="I43" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="J43" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="K43" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="L43" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="M43" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="N43" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="O43" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="P43" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q43" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="R43" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="S43" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="T43" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="U43" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="V43" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="W43" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="X43" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y43" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="Z43" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="AA43" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="AB43" s="11" t="s">
+        <v>244</v>
+      </c>
       <c r="AC43" s="12"/>
       <c r="AD43" s="11"/>
       <c r="AE43" s="11"/>
@@ -2616,7 +4212,9 @@
       <c r="C44" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D44" s="9"/>
+      <c r="D44" s="9" t="s">
+        <v>236</v>
+      </c>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
@@ -2651,35 +4249,85 @@
       <c r="A45" s="17">
         <v>20</v>
       </c>
-      <c r="B45" s="18"/>
+      <c r="B45" s="18" t="s">
+        <v>245</v>
+      </c>
       <c r="C45" s="11" t="s">
         <v>17</v>
       </c>
       <c r="D45" s="12"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="12"/>
-      <c r="J45" s="11"/>
-      <c r="K45" s="11"/>
-      <c r="L45" s="11"/>
-      <c r="M45" s="11"/>
-      <c r="N45" s="12"/>
-      <c r="O45" s="11"/>
-      <c r="P45" s="11"/>
-      <c r="Q45" s="11"/>
-      <c r="R45" s="11"/>
-      <c r="S45" s="12"/>
-      <c r="T45" s="11"/>
-      <c r="U45" s="11"/>
-      <c r="V45" s="11"/>
-      <c r="W45" s="11"/>
-      <c r="X45" s="12"/>
-      <c r="Y45" s="11"/>
-      <c r="Z45" s="11"/>
-      <c r="AA45" s="11"/>
-      <c r="AB45" s="11"/>
+      <c r="E45" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="I45" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="J45" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="K45" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="L45" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="M45" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="N45" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="O45" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="P45" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q45" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="R45" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="S45" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="T45" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="U45" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="V45" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="W45" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="X45" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y45" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z45" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA45" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="AB45" s="11" t="s">
+        <v>254</v>
+      </c>
       <c r="AC45" s="12"/>
       <c r="AD45" s="11"/>
       <c r="AE45" s="11"/>
@@ -2692,7 +4340,9 @@
       <c r="C46" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D46" s="9"/>
+      <c r="D46" s="9" t="s">
+        <v>246</v>
+      </c>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
@@ -2727,26 +4377,58 @@
       <c r="A47" s="17">
         <v>21</v>
       </c>
-      <c r="B47" s="18"/>
+      <c r="B47" s="18" t="s">
+        <v>255</v>
+      </c>
       <c r="C47" s="11" t="s">
         <v>17</v>
       </c>
       <c r="D47" s="12"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="12"/>
-      <c r="J47" s="11"/>
-      <c r="K47" s="11"/>
-      <c r="L47" s="11"/>
-      <c r="M47" s="11"/>
-      <c r="N47" s="12"/>
-      <c r="O47" s="11"/>
-      <c r="P47" s="11"/>
-      <c r="Q47" s="11"/>
-      <c r="R47" s="11"/>
-      <c r="S47" s="12"/>
+      <c r="E47" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="G47" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="H47" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="I47" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="J47" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="K47" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="L47" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="M47" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="N47" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="O47" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="P47" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q47" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="R47" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="S47" s="12" t="s">
+        <v>263</v>
+      </c>
       <c r="T47" s="11"/>
       <c r="U47" s="11"/>
       <c r="V47" s="11"/>
@@ -2768,7 +4450,9 @@
       <c r="C48" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D48" s="9"/>
+      <c r="D48" s="9" t="s">
+        <v>264</v>
+      </c>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
@@ -2803,12 +4487,18 @@
       <c r="A49" s="17">
         <v>22</v>
       </c>
-      <c r="B49" s="18"/>
+      <c r="B49" s="18" t="s">
+        <v>265</v>
+      </c>
       <c r="C49" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D49" s="12"/>
-      <c r="E49" s="11"/>
+      <c r="D49" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>266</v>
+      </c>
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
       <c r="H49" s="11"/>
@@ -2879,13 +4569,21 @@
       <c r="A51" s="17">
         <v>23</v>
       </c>
-      <c r="B51" s="18"/>
+      <c r="B51" s="18" t="s">
+        <v>267</v>
+      </c>
       <c r="C51" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D51" s="12"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
+      <c r="D51" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>270</v>
+      </c>
       <c r="G51" s="11"/>
       <c r="H51" s="11"/>
       <c r="I51" s="12"/>
@@ -2899,7 +4597,9 @@
       <c r="Q51" s="11"/>
       <c r="R51" s="11"/>
       <c r="S51" s="12"/>
-      <c r="T51" s="11"/>
+      <c r="T51" s="11" t="s">
+        <v>271</v>
+      </c>
       <c r="U51" s="11"/>
       <c r="V51" s="11"/>
       <c r="W51" s="11"/>
@@ -8045,7 +9745,7 @@
     </row>
     <row r="187" spans="1:35" customHeight="1" ht="15.75">
       <c r="AB187" s="21" t="s">
-        <v>32</v>
+        <v>272</v>
       </c>
       <c r="AC187" s="21"/>
       <c r="AD187" s="21"/>
@@ -8055,7 +9755,7 @@
     </row>
     <row r="188" spans="1:35" customHeight="1" ht="15.75">
       <c r="AB188" s="21" t="s">
-        <v>33</v>
+        <v>273</v>
       </c>
       <c r="AC188" s="21"/>
       <c r="AD188" s="21"/>

--- a/public/export/tkbgiaovien.xlsx
+++ b/public/export/tkbgiaovien.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="246">
   <si>
     <t>THỜI KHÓA BIỂU GIÁO VIÊN</t>
   </si>
@@ -89,609 +89,543 @@
     <t>Tập đọc-5D</t>
   </si>
   <si>
+    <t>Toán-5D</t>
+  </si>
+  <si>
+    <t>Đạo đức-5D</t>
+  </si>
+  <si>
     <t>Luyện từ và câu-5D</t>
   </si>
   <si>
+    <t>Mỹ thuật-5D</t>
+  </si>
+  <si>
+    <t>Chính tả-5D</t>
+  </si>
+  <si>
     <t>Tập làm văn-5D</t>
   </si>
   <si>
-    <t>Toán-5D</t>
-  </si>
-  <si>
-    <t>Đạo đức-5D</t>
-  </si>
-  <si>
-    <t>Mỹ thuật-5D</t>
-  </si>
-  <si>
-    <t>Chính tả-5D</t>
-  </si>
-  <si>
     <t>Sinh hoạt lớp-5D</t>
   </si>
   <si>
-    <t>Chào cờ-5D</t>
-  </si>
-  <si>
     <t>Lê Xuân Phong</t>
   </si>
   <si>
+    <t>Luyện từ và câu-5C</t>
+  </si>
+  <si>
+    <t>Toán-5C</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-5C</t>
+  </si>
+  <si>
+    <t>Chính tả-5C</t>
+  </si>
+  <si>
+    <t>Tập làm văn-5C</t>
+  </si>
+  <si>
+    <t>Sinh hoạt lớp-5C</t>
+  </si>
+  <si>
     <t>Tập đọc-5C</t>
   </si>
   <si>
-    <t>Luyện từ và câu-5C</t>
-  </si>
-  <si>
-    <t>Tập làm văn-5C</t>
-  </si>
-  <si>
-    <t>Toán-5C</t>
-  </si>
-  <si>
-    <t>Đạo đức-5C</t>
-  </si>
-  <si>
-    <t>Mỹ thuật-5C</t>
-  </si>
-  <si>
-    <t>Chính tả-5C</t>
-  </si>
-  <si>
-    <t>Sinh hoạt lớp-5C</t>
-  </si>
-  <si>
     <t>Chào cờ-5C</t>
   </si>
   <si>
-    <t>Lịch sử-5C</t>
-  </si>
-  <si>
     <t>Nguyễn Thanh Tùng</t>
   </si>
   <si>
     <t>Tập đọc-5B</t>
   </si>
   <si>
+    <t>Tập làm văn-5B</t>
+  </si>
+  <si>
+    <t>Toán-5B</t>
+  </si>
+  <si>
+    <t>Chào cờ-5B</t>
+  </si>
+  <si>
+    <t>Đạo đức-5B</t>
+  </si>
+  <si>
+    <t>Khoa học-5B</t>
+  </si>
+  <si>
     <t>Luyện từ và câu-5B</t>
   </si>
   <si>
-    <t>Tập làm văn-5B</t>
-  </si>
-  <si>
-    <t>Toán-5B</t>
-  </si>
-  <si>
-    <t>Đạo đức-5B</t>
-  </si>
-  <si>
     <t>Mỹ thuật-5B</t>
   </si>
   <si>
     <t>Chính tả-5B</t>
   </si>
   <si>
-    <t>Sinh hoạt lớp-5B</t>
-  </si>
-  <si>
-    <t>Chào cờ-5B</t>
-  </si>
-  <si>
-    <t>Khoa học-5B</t>
-  </si>
-  <si>
     <t>Lịch sử-5B</t>
   </si>
   <si>
-    <t>Địa lý-5B</t>
-  </si>
-  <si>
     <t>Võ Thị Hồng Phương</t>
   </si>
   <si>
     <t>Tập đọc-5A</t>
   </si>
   <si>
+    <t>Tập làm văn-5A</t>
+  </si>
+  <si>
+    <t>Toán-5A</t>
+  </si>
+  <si>
+    <t>Chào cờ-5A</t>
+  </si>
+  <si>
+    <t>Đạo đức-5A</t>
+  </si>
+  <si>
+    <t>Khoa học-5A</t>
+  </si>
+  <si>
     <t>Luyện từ và câu-5A</t>
   </si>
   <si>
-    <t>Tập làm văn-5A</t>
-  </si>
-  <si>
-    <t>Toán-5A</t>
-  </si>
-  <si>
-    <t>Đạo đức-5A</t>
-  </si>
-  <si>
     <t>Mỹ thuật-5A</t>
   </si>
   <si>
     <t>Chính tả-5A</t>
   </si>
   <si>
-    <t>Sinh hoạt lớp-5A</t>
-  </si>
-  <si>
-    <t>Chào cờ-5A</t>
-  </si>
-  <si>
-    <t>Khoa học-5A</t>
-  </si>
-  <si>
     <t>Lịch sử-5A</t>
   </si>
   <si>
-    <t>Kỹ thuật-5A</t>
-  </si>
-  <si>
     <t>Trần Công Đức</t>
   </si>
   <si>
     <t>Tập đọc-4C</t>
   </si>
   <si>
+    <t>Tập làm văn-4C</t>
+  </si>
+  <si>
+    <t>Toán-4C</t>
+  </si>
+  <si>
+    <t>Khoa học-4C</t>
+  </si>
+  <si>
+    <t>Đạo đức-4C</t>
+  </si>
+  <si>
     <t>Luyện từ và câu-4C</t>
   </si>
   <si>
-    <t>Tập làm văn-4C</t>
-  </si>
-  <si>
-    <t>Toán-4C</t>
-  </si>
-  <si>
-    <t>Đạo đức-4C</t>
-  </si>
-  <si>
     <t>Chính tả-4C</t>
   </si>
   <si>
+    <t>Lịch sử-4C</t>
+  </si>
+  <si>
     <t>Sinh hoạt lớp-4C</t>
   </si>
   <si>
-    <t>Chào cờ-4C</t>
-  </si>
-  <si>
-    <t>Khoa học-4C</t>
-  </si>
-  <si>
-    <t>Lịch sử-4C</t>
-  </si>
-  <si>
     <t>Địa lý-4C</t>
   </si>
   <si>
-    <t>Kỹ thuật-4C</t>
-  </si>
-  <si>
     <t>Huỳnh Thị Diễm</t>
   </si>
   <si>
     <t>Tập đọc-4B</t>
   </si>
   <si>
+    <t>Tập làm văn-4B</t>
+  </si>
+  <si>
+    <t>Toán-4B</t>
+  </si>
+  <si>
+    <t>Chào cờ-4B</t>
+  </si>
+  <si>
+    <t>Đạo đức-4B</t>
+  </si>
+  <si>
+    <t>Khoa học-4B</t>
+  </si>
+  <si>
     <t>Luyện từ và câu-4B</t>
   </si>
   <si>
-    <t>Tập làm văn-4B</t>
-  </si>
-  <si>
-    <t>Toán-4B</t>
-  </si>
-  <si>
-    <t>Đạo đức-4B</t>
-  </si>
-  <si>
     <t>Mỹ thuật-4B</t>
   </si>
   <si>
     <t>Chính tả-4B</t>
   </si>
   <si>
-    <t>Sinh hoạt lớp-4B</t>
-  </si>
-  <si>
-    <t>Chào cờ-4B</t>
-  </si>
-  <si>
-    <t>Khoa học-4B</t>
-  </si>
-  <si>
     <t>Lịch sử-4B</t>
   </si>
   <si>
-    <t>Địa lý-4B</t>
-  </si>
-  <si>
     <t>Đỗ Thị Quốc Danh</t>
   </si>
   <si>
     <t>Tập đọc-4A</t>
   </si>
   <si>
+    <t>Tập làm văn-4A</t>
+  </si>
+  <si>
+    <t>Toán-4A</t>
+  </si>
+  <si>
+    <t>Chào cờ-4A</t>
+  </si>
+  <si>
+    <t>Đạo đức-4A</t>
+  </si>
+  <si>
+    <t>Khoa học-4A</t>
+  </si>
+  <si>
     <t>Luyện từ và câu-4A</t>
   </si>
   <si>
-    <t>Tập làm văn-4A</t>
-  </si>
-  <si>
-    <t>Toán-4A</t>
-  </si>
-  <si>
-    <t>Đạo đức-4A</t>
-  </si>
-  <si>
     <t>Mỹ thuật-4A</t>
   </si>
   <si>
     <t>Chính tả-4A</t>
   </si>
   <si>
-    <t>Sinh hoạt lớp-4A</t>
-  </si>
-  <si>
-    <t>Chào cờ-4A</t>
-  </si>
-  <si>
-    <t>Khoa học-4A</t>
-  </si>
-  <si>
     <t>Lịch sử-4A</t>
   </si>
   <si>
-    <t>Địa lý-4A</t>
-  </si>
-  <si>
     <t>Trần Quang Phú</t>
   </si>
   <si>
     <t>Tập đọc-3D</t>
   </si>
   <si>
+    <t>Toán-3D</t>
+  </si>
+  <si>
+    <t>Đạo đức-3D</t>
+  </si>
+  <si>
+    <t>Thể dục-3D</t>
+  </si>
+  <si>
+    <t>Tự nhiên và Xã hội-3D</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-3D</t>
+  </si>
+  <si>
     <t>Luyện từ và câu-3D</t>
   </si>
   <si>
+    <t>Chính tả-3D</t>
+  </si>
+  <si>
     <t>Tập viết-3D</t>
   </si>
   <si>
+    <t>Thủ công-3D</t>
+  </si>
+  <si>
     <t>Tập làm văn-3D</t>
   </si>
   <si>
-    <t>Toán-3D</t>
-  </si>
-  <si>
-    <t>Đạo đức-3D</t>
-  </si>
-  <si>
-    <t>Tự nhiên và Xã hội-3D</t>
-  </si>
-  <si>
-    <t>Thủ công-3D</t>
-  </si>
-  <si>
-    <t>Thể dục-3D</t>
-  </si>
-  <si>
-    <t>Mỹ thuật-3D</t>
-  </si>
-  <si>
-    <t>Chính tả-3D</t>
-  </si>
-  <si>
-    <t>Sinh hoạt lớp-3D</t>
-  </si>
-  <si>
     <t>Mai Anh Tùng</t>
   </si>
   <si>
     <t>Tập đọc-3C</t>
   </si>
   <si>
+    <t>Toán-3C</t>
+  </si>
+  <si>
+    <t>Đạo đức-3C</t>
+  </si>
+  <si>
+    <t>Thể dục-3C</t>
+  </si>
+  <si>
+    <t>Tự nhiên và Xã hội-3C</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-3C</t>
+  </si>
+  <si>
     <t>Luyện từ và câu-3C</t>
   </si>
   <si>
+    <t>Chính tả-3C</t>
+  </si>
+  <si>
     <t>Tập viết-3C</t>
   </si>
   <si>
+    <t>Thủ công-3C</t>
+  </si>
+  <si>
     <t>Tập làm văn-3C</t>
   </si>
   <si>
-    <t>Toán-3C</t>
-  </si>
-  <si>
-    <t>Đạo đức-3C</t>
-  </si>
-  <si>
-    <t>Tự nhiên và Xã hội-3C</t>
-  </si>
-  <si>
-    <t>Thủ công-3C</t>
-  </si>
-  <si>
-    <t>Thể dục-3C</t>
-  </si>
-  <si>
-    <t>Mỹ thuật-3C</t>
-  </si>
-  <si>
-    <t>Chính tả-3C</t>
-  </si>
-  <si>
-    <t>Sinh hoạt lớp-3C</t>
-  </si>
-  <si>
     <t>Nguyễn Thị Nga</t>
   </si>
   <si>
     <t>Tập đọc-3B</t>
   </si>
   <si>
+    <t>Toán-3B</t>
+  </si>
+  <si>
+    <t>Đạo đức-3B</t>
+  </si>
+  <si>
+    <t>Thể dục-3B</t>
+  </si>
+  <si>
+    <t>Tự nhiên và Xã hội-3B</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-3B</t>
+  </si>
+  <si>
     <t>Luyện từ và câu-3B</t>
   </si>
   <si>
+    <t>Chính tả-3B</t>
+  </si>
+  <si>
     <t>Tập viết-3B</t>
   </si>
   <si>
+    <t>Thủ công-3B</t>
+  </si>
+  <si>
     <t>Tập làm văn-3B</t>
   </si>
   <si>
-    <t>Toán-3B</t>
-  </si>
-  <si>
-    <t>Đạo đức-3B</t>
-  </si>
-  <si>
-    <t>Tự nhiên và Xã hội-3B</t>
-  </si>
-  <si>
-    <t>Thủ công-3B</t>
-  </si>
-  <si>
-    <t>Thể dục-3B</t>
-  </si>
-  <si>
-    <t>Mỹ thuật-3B</t>
-  </si>
-  <si>
-    <t>Chính tả-3B</t>
-  </si>
-  <si>
-    <t>Sinh hoạt lớp-3B</t>
-  </si>
-  <si>
     <t>Lê Thị Diễm Lệ</t>
   </si>
   <si>
     <t>Tập đọc-3A</t>
   </si>
   <si>
+    <t>Toán-3A</t>
+  </si>
+  <si>
+    <t>Đạo đức-3A</t>
+  </si>
+  <si>
+    <t>Thể dục-3A</t>
+  </si>
+  <si>
+    <t>Tự nhiên và Xã hội-3A</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-3A</t>
+  </si>
+  <si>
     <t>Luyện từ và câu-3A</t>
   </si>
   <si>
+    <t>Chính tả-3A</t>
+  </si>
+  <si>
     <t>Tập viết-3A</t>
   </si>
   <si>
+    <t>Thủ công-3A</t>
+  </si>
+  <si>
     <t>Tập làm văn-3A</t>
   </si>
   <si>
-    <t>Toán-3A</t>
-  </si>
-  <si>
-    <t>Đạo đức-3A</t>
-  </si>
-  <si>
-    <t>Tự nhiên và Xã hội-3A</t>
-  </si>
-  <si>
-    <t>Thủ công-3A</t>
-  </si>
-  <si>
-    <t>Thể dục-3A</t>
-  </si>
-  <si>
-    <t>Mỹ thuật-3A</t>
-  </si>
-  <si>
-    <t>Chính tả-3A</t>
-  </si>
-  <si>
-    <t>Sinh hoạt lớp-3A</t>
-  </si>
-  <si>
     <t>Phan Thị Đức</t>
   </si>
   <si>
     <t>Tập đọc-2E</t>
   </si>
   <si>
+    <t>Tập viết-2E</t>
+  </si>
+  <si>
+    <t>Toán-2E</t>
+  </si>
+  <si>
+    <t>Thể dục-2E</t>
+  </si>
+  <si>
+    <t>Tập làm văn-2E</t>
+  </si>
+  <si>
+    <t>Đạo đức-2E</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-2E</t>
+  </si>
+  <si>
     <t>Kể chuyện-2E</t>
   </si>
   <si>
+    <t>Tự nhiên và Xã hội-2E</t>
+  </si>
+  <si>
+    <t>Chính tả-2E</t>
+  </si>
+  <si>
     <t>Luyện từ và câu-2E</t>
   </si>
   <si>
-    <t>Tập viết-2E</t>
-  </si>
-  <si>
-    <t>Tập làm văn-2E</t>
-  </si>
-  <si>
-    <t>Toán-2E</t>
-  </si>
-  <si>
-    <t>Đạo đức-2E</t>
-  </si>
-  <si>
-    <t>Tự nhiên và Xã hội-2E</t>
-  </si>
-  <si>
-    <t>Thủ công-2E</t>
-  </si>
-  <si>
-    <t>Thể dục-2E</t>
-  </si>
-  <si>
-    <t>Mỹ thuật-2E</t>
-  </si>
-  <si>
-    <t>Chính tả-2E</t>
-  </si>
-  <si>
     <t>Nguyễn Công Mỹ Trang</t>
   </si>
   <si>
     <t>Tập đọc-2D</t>
   </si>
   <si>
+    <t>Tập viết-2D</t>
+  </si>
+  <si>
+    <t>Toán-2D</t>
+  </si>
+  <si>
+    <t>Thể dục-2D</t>
+  </si>
+  <si>
+    <t>Tập làm văn-2D</t>
+  </si>
+  <si>
+    <t>Đạo đức-2D</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-2D</t>
+  </si>
+  <si>
     <t>Kể chuyện-2D</t>
   </si>
   <si>
+    <t>Tự nhiên và Xã hội-2D</t>
+  </si>
+  <si>
+    <t>Chính tả-2D</t>
+  </si>
+  <si>
     <t>Luyện từ và câu-2D</t>
   </si>
   <si>
-    <t>Tập viết-2D</t>
-  </si>
-  <si>
-    <t>Tập làm văn-2D</t>
-  </si>
-  <si>
-    <t>Toán-2D</t>
-  </si>
-  <si>
-    <t>Đạo đức-2D</t>
-  </si>
-  <si>
-    <t>Tự nhiên và Xã hội-2D</t>
-  </si>
-  <si>
-    <t>Thủ công-2D</t>
-  </si>
-  <si>
-    <t>Thể dục-2D</t>
-  </si>
-  <si>
-    <t>Mỹ thuật-2D</t>
-  </si>
-  <si>
-    <t>Chính tả-2D</t>
-  </si>
-  <si>
     <t>Trần Thị Thu Hà</t>
   </si>
   <si>
     <t>Tập đọc-2C</t>
   </si>
   <si>
+    <t>Tập viết-2C</t>
+  </si>
+  <si>
+    <t>Toán-2C</t>
+  </si>
+  <si>
+    <t>Thể dục-2C</t>
+  </si>
+  <si>
+    <t>Tập làm văn-2C</t>
+  </si>
+  <si>
+    <t>Đạo đức-2C</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-2C</t>
+  </si>
+  <si>
     <t>Kể chuyện-2C</t>
   </si>
   <si>
+    <t>Tự nhiên và Xã hội-2C</t>
+  </si>
+  <si>
+    <t>Chính tả-2C</t>
+  </si>
+  <si>
     <t>Luyện từ và câu-2C</t>
   </si>
   <si>
-    <t>Tập viết-2C</t>
-  </si>
-  <si>
-    <t>Tập làm văn-2C</t>
-  </si>
-  <si>
-    <t>Toán-2C</t>
-  </si>
-  <si>
-    <t>Đạo đức-2C</t>
-  </si>
-  <si>
-    <t>Tự nhiên và Xã hội-2C</t>
-  </si>
-  <si>
-    <t>Thủ công-2C</t>
-  </si>
-  <si>
-    <t>Thể dục-2C</t>
-  </si>
-  <si>
-    <t>Mỹ thuật-2C</t>
-  </si>
-  <si>
-    <t>Chính tả-2C</t>
-  </si>
-  <si>
     <t>Nguyễn Thị Ngọc Thạch</t>
   </si>
   <si>
     <t>Tập đọc-2B</t>
   </si>
   <si>
+    <t>Tập viết-2B</t>
+  </si>
+  <si>
+    <t>Toán-2B</t>
+  </si>
+  <si>
+    <t>Thể dục-2B</t>
+  </si>
+  <si>
+    <t>Tập làm văn-2B</t>
+  </si>
+  <si>
+    <t>Đạo đức-2B</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-2B</t>
+  </si>
+  <si>
     <t>Kể chuyện-2B</t>
   </si>
   <si>
+    <t>Tự nhiên và Xã hội-2B</t>
+  </si>
+  <si>
+    <t>Chính tả-2B</t>
+  </si>
+  <si>
     <t>Luyện từ và câu-2B</t>
   </si>
   <si>
-    <t>Tập viết-2B</t>
-  </si>
-  <si>
-    <t>Tập làm văn-2B</t>
-  </si>
-  <si>
-    <t>Toán-2B</t>
-  </si>
-  <si>
-    <t>Đạo đức-2B</t>
-  </si>
-  <si>
-    <t>Tự nhiên và Xã hội-2B</t>
-  </si>
-  <si>
-    <t>Thủ công-2B</t>
-  </si>
-  <si>
-    <t>Thể dục-2B</t>
-  </si>
-  <si>
-    <t>Mỹ thuật-2B</t>
-  </si>
-  <si>
-    <t>Chính tả-2B</t>
-  </si>
-  <si>
     <t>Đào Thị Ngọc</t>
   </si>
   <si>
     <t>Tập đọc-2A</t>
   </si>
   <si>
+    <t>Tập viết-2A</t>
+  </si>
+  <si>
+    <t>Toán-2A</t>
+  </si>
+  <si>
+    <t>Thể dục-2A</t>
+  </si>
+  <si>
+    <t>Tập làm văn-2A</t>
+  </si>
+  <si>
+    <t>Đạo đức-2A</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-2A</t>
+  </si>
+  <si>
     <t>Kể chuyện-2A</t>
   </si>
   <si>
+    <t>Tự nhiên và Xã hội-2A</t>
+  </si>
+  <si>
+    <t>Chính tả-2A</t>
+  </si>
+  <si>
     <t>Luyện từ và câu-2A</t>
   </si>
   <si>
-    <t>Tập viết-2A</t>
-  </si>
-  <si>
-    <t>Tập làm văn-2A</t>
-  </si>
-  <si>
-    <t>Toán-2A</t>
-  </si>
-  <si>
-    <t>Đạo đức-2A</t>
-  </si>
-  <si>
-    <t>Tự nhiên và Xã hội-2A</t>
-  </si>
-  <si>
-    <t>Thủ công-2A</t>
-  </si>
-  <si>
-    <t>Thể dục-2A</t>
-  </si>
-  <si>
-    <t>Mỹ thuật-2A</t>
-  </si>
-  <si>
-    <t>Chính tả-2A</t>
-  </si>
-  <si>
     <t>Tạ Nguyễn Hướng Dương</t>
   </si>
   <si>
@@ -701,27 +635,21 @@
     <t>Toán-1D</t>
   </si>
   <si>
+    <t>Thủ công-1D</t>
+  </si>
+  <si>
+    <t>Thể dục-1D</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-1D</t>
+  </si>
+  <si>
     <t>Đạo đức-1D</t>
   </si>
   <si>
-    <t>Tự nhiên và Xã hội-1D</t>
-  </si>
-  <si>
-    <t>Thủ công-1D</t>
-  </si>
-  <si>
-    <t>Thể dục-1D</t>
-  </si>
-  <si>
-    <t>Mỹ thuật-1D</t>
-  </si>
-  <si>
     <t>Sinh hoạt lớp-1D</t>
   </si>
   <si>
-    <t>Chào cờ-1D</t>
-  </si>
-  <si>
     <t>Đỗ Thị Phân</t>
   </si>
   <si>
@@ -731,27 +659,21 @@
     <t>Toán-1C</t>
   </si>
   <si>
+    <t>Thủ công-1C</t>
+  </si>
+  <si>
+    <t>Thể dục-1C</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-1C</t>
+  </si>
+  <si>
     <t>Đạo đức-1C</t>
   </si>
   <si>
-    <t>Tự nhiên và Xã hội-1C</t>
-  </si>
-  <si>
-    <t>Thủ công-1C</t>
-  </si>
-  <si>
-    <t>Thể dục-1C</t>
-  </si>
-  <si>
-    <t>Mỹ thuật-1C</t>
-  </si>
-  <si>
     <t>Sinh hoạt lớp-1C</t>
   </si>
   <si>
-    <t>Chào cờ-1C</t>
-  </si>
-  <si>
     <t>Phan Thị Ngân</t>
   </si>
   <si>
@@ -761,54 +683,48 @@
     <t>Toán-1B</t>
   </si>
   <si>
+    <t>Thủ công-1B</t>
+  </si>
+  <si>
+    <t>Thể dục-1B</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-1B</t>
+  </si>
+  <si>
     <t>Đạo đức-1B</t>
   </si>
   <si>
-    <t>Tự nhiên và Xã hội-1B</t>
-  </si>
-  <si>
-    <t>Thủ công-1B</t>
-  </si>
-  <si>
-    <t>Thể dục-1B</t>
-  </si>
-  <si>
-    <t>Mỹ thuật-1B</t>
-  </si>
-  <si>
     <t>Sinh hoạt lớp-1B</t>
   </si>
   <si>
-    <t>Chào cờ-1B</t>
-  </si>
-  <si>
     <t>Trịnh Thị Lệ Hoa</t>
   </si>
   <si>
     <t>Toán-1A</t>
   </si>
   <si>
+    <t>Tự nhiên và Xã hội-1A</t>
+  </si>
+  <si>
+    <t>Chào cờ-1A</t>
+  </si>
+  <si>
+    <t>Thủ công-1A</t>
+  </si>
+  <si>
+    <t>Thể dục-1A</t>
+  </si>
+  <si>
+    <t>Mỹ thuật-1A</t>
+  </si>
+  <si>
     <t>Đạo đức-1A</t>
   </si>
   <si>
-    <t>Tự nhiên và Xã hội-1A</t>
-  </si>
-  <si>
-    <t>Thủ công-1A</t>
-  </si>
-  <si>
-    <t>Thể dục-1A</t>
-  </si>
-  <si>
-    <t>Mỹ thuật-1A</t>
-  </si>
-  <si>
     <t>Sinh hoạt lớp-1A</t>
   </si>
   <si>
-    <t>Chào cờ-1A</t>
-  </si>
-  <si>
     <t>Học vần-1A</t>
   </si>
   <si>
@@ -827,10 +743,10 @@
     <t>Âm nhạc-5D</t>
   </si>
   <si>
+    <t>Âm nhạc-1A</t>
+  </si>
+  <si>
     <t>Âm nhạc-5C</t>
-  </si>
-  <si>
-    <t>Âm nhạc-1A</t>
   </si>
   <si>
     <t>KT. HIỆU TRƯỞNG</t>
@@ -1614,32 +1530,32 @@
     <col min="2" max="2" width="25.85083" bestFit="true" customWidth="true" style="1"/>
     <col min="3" max="3" width="10.568848" bestFit="true" customWidth="true" style="1"/>
     <col min="4" max="4" width="12.854004" bestFit="true" customWidth="true" style="1"/>
-    <col min="5" max="5" width="13.996582" bestFit="true" customWidth="true" style="1"/>
-    <col min="6" max="6" width="22.280273" bestFit="true" customWidth="true" style="1"/>
-    <col min="7" max="7" width="22.280273" bestFit="true" customWidth="true" style="1"/>
-    <col min="8" max="8" width="22.280273" bestFit="true" customWidth="true" style="1"/>
-    <col min="9" max="9" width="22.280273" bestFit="true" customWidth="true" style="1"/>
-    <col min="10" max="10" width="22.280273" bestFit="true" customWidth="true" style="1"/>
+    <col min="5" max="5" width="22.280273" bestFit="true" customWidth="true" style="1"/>
+    <col min="6" max="6" width="25.85083" bestFit="true" customWidth="true" style="1"/>
+    <col min="7" max="7" width="12.854004" bestFit="true" customWidth="true" style="1"/>
+    <col min="8" max="8" width="13.996582" bestFit="true" customWidth="true" style="1"/>
+    <col min="9" max="9" width="8.140869" bestFit="true" customWidth="true" style="1"/>
+    <col min="10" max="10" width="13.996582" bestFit="true" customWidth="true" style="1"/>
     <col min="11" max="11" width="22.280273" bestFit="true" customWidth="true" style="1"/>
-    <col min="12" max="12" width="17.567139" bestFit="true" customWidth="true" style="1"/>
-    <col min="13" max="13" width="17.567139" bestFit="true" customWidth="true" style="1"/>
-    <col min="14" max="14" width="25.85083" bestFit="true" customWidth="true" style="1"/>
-    <col min="15" max="15" width="13.996582" bestFit="true" customWidth="true" style="1"/>
-    <col min="16" max="16" width="12.854004" bestFit="true" customWidth="true" style="1"/>
-    <col min="17" max="17" width="13.996582" bestFit="true" customWidth="true" style="1"/>
-    <col min="18" max="18" width="19.995117" bestFit="true" customWidth="true" style="1"/>
-    <col min="19" max="19" width="12.854004" bestFit="true" customWidth="true" style="1"/>
-    <col min="20" max="20" width="25.85083" bestFit="true" customWidth="true" style="1"/>
-    <col min="21" max="21" width="25.85083" bestFit="true" customWidth="true" style="1"/>
-    <col min="22" max="22" width="25.85083" bestFit="true" customWidth="true" style="1"/>
-    <col min="23" max="23" width="25.85083" bestFit="true" customWidth="true" style="1"/>
+    <col min="12" max="12" width="13.996582" bestFit="true" customWidth="true" style="1"/>
+    <col min="13" max="13" width="25.85083" bestFit="true" customWidth="true" style="1"/>
+    <col min="14" max="14" width="13.996582" bestFit="true" customWidth="true" style="1"/>
+    <col min="15" max="15" width="8.140869" bestFit="true" customWidth="true" style="1"/>
+    <col min="16" max="16" width="22.280273" bestFit="true" customWidth="true" style="1"/>
+    <col min="17" max="17" width="22.280273" bestFit="true" customWidth="true" style="1"/>
+    <col min="18" max="18" width="12.854004" bestFit="true" customWidth="true" style="1"/>
+    <col min="19" max="19" width="25.85083" bestFit="true" customWidth="true" style="1"/>
+    <col min="20" max="20" width="19.995117" bestFit="true" customWidth="true" style="1"/>
+    <col min="21" max="21" width="8.140869" bestFit="true" customWidth="true" style="1"/>
+    <col min="22" max="22" width="22.280273" bestFit="true" customWidth="true" style="1"/>
+    <col min="23" max="23" width="17.567139" bestFit="true" customWidth="true" style="1"/>
     <col min="24" max="24" width="13.996582" bestFit="true" customWidth="true" style="1"/>
-    <col min="25" max="25" width="13.996582" bestFit="true" customWidth="true" style="1"/>
+    <col min="25" max="25" width="25.85083" bestFit="true" customWidth="true" style="1"/>
     <col min="26" max="26" width="19.995117" bestFit="true" customWidth="true" style="1"/>
-    <col min="27" max="27" width="19.995117" bestFit="true" customWidth="true" style="1"/>
-    <col min="28" max="28" width="19.995117" bestFit="true" customWidth="true" style="1"/>
-    <col min="29" max="29" width="8.140869" bestFit="true" customWidth="true" style="1"/>
-    <col min="30" max="30" width="8.140869" bestFit="true" customWidth="true" style="1"/>
+    <col min="27" max="27" width="8.140869" bestFit="true" customWidth="true" style="1"/>
+    <col min="28" max="28" width="22.280273" bestFit="true" customWidth="true" style="1"/>
+    <col min="29" max="29" width="17.567139" bestFit="true" customWidth="true" style="1"/>
+    <col min="30" max="30" width="19.995117" bestFit="true" customWidth="true" style="1"/>
     <col min="31" max="31" width="8.140869" bestFit="true" customWidth="true" style="1"/>
     <col min="32" max="32" width="8.140869" bestFit="true" customWidth="true" style="1"/>
     <col min="33" max="33" width="8.140869" bestFit="true" customWidth="true" style="1"/>
@@ -1882,30 +1798,30 @@
       <c r="D7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="6"/>
-      <c r="J7" s="5"/>
+      <c r="J7" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="6"/>
       <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
+      <c r="P7" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
       <c r="S7" s="6"/>
       <c r="T7" s="5"/>
       <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
+      <c r="V7" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="W7" s="5"/>
       <c r="X7" s="6"/>
       <c r="Y7" s="5"/>
@@ -1966,74 +1882,70 @@
         <v>17</v>
       </c>
       <c r="D9" s="12"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
+      <c r="E9" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>24</v>
+      </c>
       <c r="H9" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="12"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="L9" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="M9" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="L9" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="M9" s="11" t="s">
-        <v>25</v>
-      </c>
       <c r="N9" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="O9" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="P9" s="11" t="s">
-        <v>26</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
       <c r="Q9" s="11" t="s">
         <v>26</v>
       </c>
       <c r="R9" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="S9" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="T9" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="U9" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="V9" s="11" t="s">
-        <v>26</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
       <c r="W9" s="11" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X9" s="12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="Y9" s="11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="Z9" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC9" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="AA9" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB9" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC9" s="12"/>
-      <c r="AD9" s="11"/>
+      <c r="AD9" s="11" t="s">
+        <v>24</v>
+      </c>
       <c r="AE9" s="11"/>
       <c r="AF9" s="11"/>
       <c r="AG9" s="13"/>
@@ -2080,82 +1992,78 @@
         <v>3</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="12"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
+      <c r="E11" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="G11" s="11" t="s">
         <v>33</v>
       </c>
       <c r="H11" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="12"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L11" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="K11" s="11" t="s">
+      <c r="M11" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="N11" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="L11" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="M11" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="N11" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="O11" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="P11" s="11" t="s">
-        <v>36</v>
-      </c>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
       <c r="Q11" s="11" t="s">
         <v>36</v>
       </c>
       <c r="R11" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="S11" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="T11" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="W11" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="S11" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="T11" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="U11" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="V11" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="W11" s="11" t="s">
-        <v>37</v>
-      </c>
       <c r="X11" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y11" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z11" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="Y11" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z11" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA11" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB11" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC11" s="12"/>
-      <c r="AD11" s="11"/>
+      <c r="AC11" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD11" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="AE11" s="11"/>
       <c r="AF11" s="11"/>
       <c r="AG11" s="13"/>
@@ -2202,88 +2110,84 @@
         <v>4</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>17</v>
       </c>
       <c r="D13" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="11" t="s">
+      <c r="I13" s="12"/>
+      <c r="J13" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="M13" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="G13" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="H13" s="11" t="s">
+      <c r="N13" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="I13" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="L13" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="M13" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="N13" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="O13" s="11" t="s">
-        <v>47</v>
-      </c>
+      <c r="O13" s="11"/>
       <c r="P13" s="11" t="s">
         <v>47</v>
       </c>
       <c r="Q13" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="R13" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="S13" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="T13" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="R13" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="S13" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="T13" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="U13" s="11" t="s">
+      <c r="W13" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="X13" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y13" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="V13" s="11" t="s">
+      <c r="Z13" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="W13" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="X13" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y13" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z13" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA13" s="11" t="s">
-        <v>54</v>
-      </c>
+      <c r="AA13" s="11"/>
       <c r="AB13" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC13" s="12"/>
-      <c r="AD13" s="11"/>
+        <v>42</v>
+      </c>
+      <c r="AC13" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD13" s="11" t="s">
+        <v>43</v>
+      </c>
       <c r="AE13" s="11"/>
       <c r="AF13" s="11"/>
       <c r="AG13" s="13"/>
@@ -2330,88 +2234,84 @@
         <v>5</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>17</v>
       </c>
       <c r="D15" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="I15" s="12"/>
+      <c r="J15" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="M15" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="N15" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="O15" s="11"/>
+      <c r="P15" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q15" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="R15" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="S15" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="T15" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="U15" s="11"/>
+      <c r="V15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="G15" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="I15" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="J15" s="11" t="s">
+      <c r="W15" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="X15" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y15" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="K15" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="L15" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="M15" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="N15" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="O15" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="P15" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q15" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="R15" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="S15" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="T15" s="11" t="s">
+      <c r="Z15" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="U15" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="V15" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="W15" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="X15" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y15" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z15" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA15" s="11" t="s">
-        <v>67</v>
-      </c>
+      <c r="AA15" s="11"/>
       <c r="AB15" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC15" s="12"/>
-      <c r="AD15" s="11"/>
+        <v>53</v>
+      </c>
+      <c r="AC15" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD15" s="11" t="s">
+        <v>54</v>
+      </c>
       <c r="AE15" s="11"/>
       <c r="AF15" s="11"/>
       <c r="AG15" s="13"/>
@@ -2458,88 +2358,84 @@
         <v>6</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>17</v>
       </c>
       <c r="D17" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="I17" s="12"/>
+      <c r="J17" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="L17" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="M17" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="N17" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q17" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="R17" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="S17" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="T17" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="E17" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="F17" s="11" t="s">
+      <c r="U17" s="11"/>
+      <c r="V17" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="W17" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="X17" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y17" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="G17" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="H17" s="11" t="s">
+      <c r="Z17" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="I17" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="J17" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="K17" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="L17" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="M17" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="N17" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="O17" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="P17" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q17" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="R17" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="S17" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="T17" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="U17" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="V17" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="W17" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="X17" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y17" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z17" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA17" s="11" t="s">
-        <v>80</v>
-      </c>
+      <c r="AA17" s="11"/>
       <c r="AB17" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="AC17" s="12"/>
-      <c r="AD17" s="11"/>
+        <v>64</v>
+      </c>
+      <c r="AC17" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD17" s="11" t="s">
+        <v>65</v>
+      </c>
       <c r="AE17" s="11"/>
       <c r="AF17" s="11"/>
       <c r="AG17" s="13"/>
@@ -2586,88 +2482,84 @@
         <v>7</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>17</v>
       </c>
       <c r="D19" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="I19" s="12"/>
+      <c r="J19" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="K19" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="L19" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="M19" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="N19" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q19" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="R19" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="S19" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="T19" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="W19" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="X19" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y19" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z19" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="E19" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="I19" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="J19" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="K19" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="L19" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="M19" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="N19" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="O19" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="P19" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q19" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="R19" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="S19" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="T19" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="U19" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="V19" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="W19" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="X19" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y19" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z19" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA19" s="11" t="s">
-        <v>93</v>
-      </c>
+      <c r="AA19" s="11"/>
       <c r="AB19" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC19" s="12"/>
-      <c r="AD19" s="11"/>
+        <v>75</v>
+      </c>
+      <c r="AC19" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD19" s="11" t="s">
+        <v>76</v>
+      </c>
       <c r="AE19" s="11"/>
       <c r="AF19" s="11"/>
       <c r="AG19" s="13"/>
@@ -2714,88 +2606,84 @@
         <v>8</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>17</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="I21" s="12" t="s">
-        <v>98</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="I21" s="12"/>
       <c r="J21" s="11" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="K21" s="11" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="L21" s="11" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="M21" s="11" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="N21" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="O21" s="11" t="s">
-        <v>99</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="O21" s="11"/>
       <c r="P21" s="11" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="Q21" s="11" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="R21" s="11" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="S21" s="12" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="T21" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="U21" s="11" t="s">
-        <v>101</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="U21" s="11"/>
       <c r="V21" s="11" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="W21" s="11" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="X21" s="12" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="Y21" s="11" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="Z21" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="AA21" s="11" t="s">
-        <v>106</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="AA21" s="11"/>
       <c r="AB21" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="AC21" s="12"/>
-      <c r="AD21" s="11"/>
+        <v>86</v>
+      </c>
+      <c r="AC21" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD21" s="11" t="s">
+        <v>87</v>
+      </c>
       <c r="AE21" s="11"/>
       <c r="AF21" s="11"/>
       <c r="AG21" s="13"/>
@@ -2842,88 +2730,84 @@
         <v>9</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="I23" s="12" t="s">
-        <v>113</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="I23" s="12"/>
       <c r="J23" s="11" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="K23" s="11" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="L23" s="11" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="M23" s="11" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="N23" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="O23" s="11" t="s">
-        <v>113</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="O23" s="11"/>
       <c r="P23" s="11" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="Q23" s="11" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="R23" s="11" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="S23" s="12" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="T23" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="U23" s="11" t="s">
-        <v>115</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="U23" s="11"/>
       <c r="V23" s="11" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="W23" s="11" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="X23" s="12" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="Y23" s="11" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="Z23" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="AA23" s="11" t="s">
-        <v>119</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="AA23" s="11"/>
       <c r="AB23" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="AC23" s="12"/>
-      <c r="AD23" s="11"/>
+        <v>106</v>
+      </c>
+      <c r="AC23" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD23" s="11" t="s">
+        <v>97</v>
+      </c>
       <c r="AE23" s="11"/>
       <c r="AF23" s="11"/>
       <c r="AG23" s="13"/>
@@ -2970,88 +2854,84 @@
         <v>10</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>17</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="I25" s="12" t="s">
-        <v>126</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="I25" s="12"/>
       <c r="J25" s="11" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="K25" s="11" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="L25" s="11" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="M25" s="11" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="N25" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="O25" s="11" t="s">
-        <v>126</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="O25" s="11"/>
       <c r="P25" s="11" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="Q25" s="11" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="R25" s="11" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="S25" s="12" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="T25" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="U25" s="11" t="s">
-        <v>128</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="U25" s="11"/>
       <c r="V25" s="11" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="W25" s="11" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="X25" s="12" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="Y25" s="11" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="Z25" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="AA25" s="11" t="s">
-        <v>132</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="AA25" s="11"/>
       <c r="AB25" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC25" s="12"/>
-      <c r="AD25" s="11"/>
+        <v>118</v>
+      </c>
+      <c r="AC25" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD25" s="11" t="s">
+        <v>109</v>
+      </c>
       <c r="AE25" s="11"/>
       <c r="AF25" s="11"/>
       <c r="AG25" s="13"/>
@@ -3098,88 +2978,84 @@
         <v>11</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>17</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="I27" s="12" t="s">
-        <v>139</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="I27" s="12"/>
       <c r="J27" s="11" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="K27" s="11" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="L27" s="11" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="M27" s="11" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="N27" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="O27" s="11" t="s">
-        <v>139</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="O27" s="11"/>
       <c r="P27" s="11" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="Q27" s="11" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="R27" s="11" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="S27" s="12" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="T27" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="U27" s="11" t="s">
-        <v>141</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="U27" s="11"/>
       <c r="V27" s="11" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="W27" s="11" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="X27" s="12" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="Y27" s="11" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="Z27" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="AA27" s="11" t="s">
-        <v>145</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="AA27" s="11"/>
       <c r="AB27" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="AC27" s="12"/>
-      <c r="AD27" s="11"/>
+        <v>130</v>
+      </c>
+      <c r="AC27" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD27" s="11" t="s">
+        <v>121</v>
+      </c>
       <c r="AE27" s="11"/>
       <c r="AF27" s="11"/>
       <c r="AG27" s="13"/>
@@ -3226,88 +3102,84 @@
         <v>12</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>17</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="I29" s="12" t="s">
-        <v>152</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="I29" s="12"/>
       <c r="J29" s="11" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="K29" s="11" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="L29" s="11" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="M29" s="11" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="N29" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="O29" s="11" t="s">
-        <v>152</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="O29" s="11"/>
       <c r="P29" s="11" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="Q29" s="11" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="R29" s="11" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="S29" s="12" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="T29" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="U29" s="11" t="s">
-        <v>154</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="U29" s="11"/>
       <c r="V29" s="11" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="W29" s="11" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="X29" s="12" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="Y29" s="11" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="Z29" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="AA29" s="11" t="s">
-        <v>158</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="AA29" s="11"/>
       <c r="AB29" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="AC29" s="12"/>
-      <c r="AD29" s="11"/>
+        <v>142</v>
+      </c>
+      <c r="AC29" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD29" s="11" t="s">
+        <v>133</v>
+      </c>
       <c r="AE29" s="11"/>
       <c r="AF29" s="11"/>
       <c r="AG29" s="13"/>
@@ -3354,88 +3226,84 @@
         <v>13</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>17</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="I31" s="12" t="s">
-        <v>164</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="I31" s="12"/>
       <c r="J31" s="11" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="K31" s="11" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="L31" s="11" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="M31" s="11" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="N31" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="O31" s="11" t="s">
-        <v>166</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="O31" s="11"/>
       <c r="P31" s="11" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="Q31" s="11" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="R31" s="11" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="S31" s="12" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="T31" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="U31" s="11" t="s">
-        <v>167</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="U31" s="11"/>
       <c r="V31" s="11" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="W31" s="11" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="X31" s="12" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="Y31" s="11" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="Z31" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="AA31" s="11" t="s">
-        <v>172</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="AA31" s="11"/>
       <c r="AB31" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="AC31" s="12"/>
-      <c r="AD31" s="11"/>
+        <v>154</v>
+      </c>
+      <c r="AC31" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="AD31" s="11" t="s">
+        <v>146</v>
+      </c>
       <c r="AE31" s="11"/>
       <c r="AF31" s="11"/>
       <c r="AG31" s="13"/>
@@ -3482,88 +3350,84 @@
         <v>14</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>17</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="I33" s="12" t="s">
-        <v>177</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="I33" s="12"/>
       <c r="J33" s="11" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="K33" s="11" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="L33" s="11" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="M33" s="11" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="N33" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="O33" s="11" t="s">
-        <v>179</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="O33" s="11"/>
       <c r="P33" s="11" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="Q33" s="11" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="R33" s="11" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="S33" s="12" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="T33" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="U33" s="11" t="s">
-        <v>180</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="U33" s="11"/>
       <c r="V33" s="11" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="W33" s="11" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="X33" s="12" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="Y33" s="11" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="Z33" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="AA33" s="11" t="s">
-        <v>185</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="AA33" s="11"/>
       <c r="AB33" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="AC33" s="12"/>
-      <c r="AD33" s="11"/>
+        <v>166</v>
+      </c>
+      <c r="AC33" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD33" s="11" t="s">
+        <v>158</v>
+      </c>
       <c r="AE33" s="11"/>
       <c r="AF33" s="11"/>
       <c r="AG33" s="13"/>
@@ -3610,88 +3474,84 @@
         <v>15</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>17</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="I35" s="12" t="s">
-        <v>190</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="I35" s="12"/>
       <c r="J35" s="11" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="K35" s="11" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="L35" s="11" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="M35" s="11" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="N35" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="O35" s="11" t="s">
-        <v>192</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="O35" s="11"/>
       <c r="P35" s="11" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="Q35" s="11" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="R35" s="11" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="S35" s="12" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="T35" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="U35" s="11" t="s">
-        <v>193</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="U35" s="11"/>
       <c r="V35" s="11" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="W35" s="11" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="X35" s="12" t="s">
-        <v>196</v>
+        <v>170</v>
       </c>
       <c r="Y35" s="11" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="Z35" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="AA35" s="11" t="s">
-        <v>198</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="AA35" s="11"/>
       <c r="AB35" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="AC35" s="12"/>
-      <c r="AD35" s="11"/>
+        <v>178</v>
+      </c>
+      <c r="AC35" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD35" s="11" t="s">
+        <v>170</v>
+      </c>
       <c r="AE35" s="11"/>
       <c r="AF35" s="11"/>
       <c r="AG35" s="13"/>
@@ -3738,88 +3598,84 @@
         <v>16</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>17</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="I37" s="12" t="s">
-        <v>203</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="I37" s="12"/>
       <c r="J37" s="11" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="K37" s="11" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="L37" s="11" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="M37" s="11" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="N37" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="O37" s="11" t="s">
-        <v>205</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="O37" s="11"/>
       <c r="P37" s="11" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="Q37" s="11" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="R37" s="11" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="S37" s="12" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="T37" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="U37" s="11" t="s">
-        <v>206</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="U37" s="11"/>
       <c r="V37" s="11" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="W37" s="11" t="s">
-        <v>208</v>
+        <v>182</v>
       </c>
       <c r="X37" s="12" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="Y37" s="11" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="Z37" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="AA37" s="11" t="s">
-        <v>211</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="AA37" s="11"/>
       <c r="AB37" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="AC37" s="12"/>
-      <c r="AD37" s="11"/>
+        <v>190</v>
+      </c>
+      <c r="AC37" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AD37" s="11" t="s">
+        <v>182</v>
+      </c>
       <c r="AE37" s="11"/>
       <c r="AF37" s="11"/>
       <c r="AG37" s="13"/>
@@ -3866,88 +3722,84 @@
         <v>17</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>17</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="I39" s="12" t="s">
-        <v>216</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="I39" s="12"/>
       <c r="J39" s="11" t="s">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="K39" s="11" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="L39" s="11" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="M39" s="11" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="N39" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="O39" s="11" t="s">
-        <v>218</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="O39" s="11"/>
       <c r="P39" s="11" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="Q39" s="11" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="R39" s="11" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="S39" s="12" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="T39" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="U39" s="11" t="s">
-        <v>219</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="U39" s="11"/>
       <c r="V39" s="11" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="W39" s="11" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="X39" s="12" t="s">
-        <v>222</v>
+        <v>194</v>
       </c>
       <c r="Y39" s="11" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="Z39" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="AA39" s="11" t="s">
-        <v>224</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="AA39" s="11"/>
       <c r="AB39" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="AC39" s="12"/>
-      <c r="AD39" s="11"/>
+        <v>202</v>
+      </c>
+      <c r="AC39" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="AD39" s="11" t="s">
+        <v>194</v>
+      </c>
       <c r="AE39" s="11"/>
       <c r="AF39" s="11"/>
       <c r="AG39" s="13"/>
@@ -3994,88 +3846,84 @@
         <v>18</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>17</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="I41" s="12" t="s">
-        <v>226</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="I41" s="12"/>
       <c r="J41" s="11" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="K41" s="11" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="L41" s="11" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="M41" s="11" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="N41" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="O41" s="11" t="s">
-        <v>227</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="O41" s="11"/>
       <c r="P41" s="11" t="s">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="Q41" s="11" t="s">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="R41" s="11" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="S41" s="12" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="T41" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="U41" s="11" t="s">
-        <v>227</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="U41" s="11"/>
       <c r="V41" s="11" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="W41" s="11" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
       <c r="X41" s="12" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="Y41" s="11" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="Z41" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="AA41" s="11" t="s">
-        <v>233</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="AA41" s="11"/>
       <c r="AB41" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="AC41" s="12"/>
-      <c r="AD41" s="11"/>
+        <v>204</v>
+      </c>
+      <c r="AC41" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="AD41" s="11" t="s">
+        <v>205</v>
+      </c>
       <c r="AE41" s="11"/>
       <c r="AF41" s="11"/>
       <c r="AG41" s="13"/>
@@ -4122,86 +3970,82 @@
         <v>19</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>17</v>
       </c>
       <c r="D43" s="12"/>
       <c r="E43" s="11" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>236</v>
+        <v>213</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>236</v>
+        <v>213</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="I43" s="12" t="s">
-        <v>236</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="I43" s="12"/>
       <c r="J43" s="11" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="K43" s="11" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="L43" s="11" t="s">
-        <v>236</v>
+        <v>213</v>
       </c>
       <c r="M43" s="11" t="s">
-        <v>236</v>
+        <v>213</v>
       </c>
       <c r="N43" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="O43" s="11" t="s">
-        <v>237</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="O43" s="11"/>
       <c r="P43" s="11" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="Q43" s="11" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="R43" s="11" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="S43" s="12" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="T43" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="U43" s="11" t="s">
-        <v>237</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="U43" s="11"/>
       <c r="V43" s="11" t="s">
-        <v>238</v>
+        <v>212</v>
       </c>
       <c r="W43" s="11" t="s">
-        <v>239</v>
+        <v>212</v>
       </c>
       <c r="X43" s="12" t="s">
-        <v>240</v>
+        <v>213</v>
       </c>
       <c r="Y43" s="11" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="Z43" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="AA43" s="11" t="s">
-        <v>243</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="AA43" s="11"/>
       <c r="AB43" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="AC43" s="12"/>
-      <c r="AD43" s="11"/>
+        <v>212</v>
+      </c>
+      <c r="AC43" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="AD43" s="11" t="s">
+        <v>213</v>
+      </c>
       <c r="AE43" s="11"/>
       <c r="AF43" s="11"/>
       <c r="AG43" s="13"/>
@@ -4213,7 +4057,7 @@
         <v>21</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
@@ -4250,86 +4094,82 @@
         <v>20</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>17</v>
       </c>
       <c r="D45" s="12"/>
       <c r="E45" s="11" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>246</v>
+        <v>221</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>246</v>
+        <v>221</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="I45" s="12" t="s">
-        <v>246</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="I45" s="12"/>
       <c r="J45" s="11" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c r="K45" s="11" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c r="L45" s="11" t="s">
-        <v>246</v>
+        <v>221</v>
       </c>
       <c r="M45" s="11" t="s">
-        <v>246</v>
+        <v>221</v>
       </c>
       <c r="N45" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="O45" s="11" t="s">
-        <v>247</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="O45" s="11"/>
       <c r="P45" s="11" t="s">
-        <v>247</v>
+        <v>220</v>
       </c>
       <c r="Q45" s="11" t="s">
-        <v>247</v>
+        <v>220</v>
       </c>
       <c r="R45" s="11" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="S45" s="12" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="T45" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="U45" s="11" t="s">
-        <v>247</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="U45" s="11"/>
       <c r="V45" s="11" t="s">
-        <v>248</v>
+        <v>220</v>
       </c>
       <c r="W45" s="11" t="s">
-        <v>249</v>
+        <v>220</v>
       </c>
       <c r="X45" s="12" t="s">
-        <v>250</v>
+        <v>221</v>
       </c>
       <c r="Y45" s="11" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="Z45" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="AA45" s="11" t="s">
-        <v>253</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="AA45" s="11"/>
       <c r="AB45" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="AC45" s="12"/>
-      <c r="AD45" s="11"/>
+        <v>220</v>
+      </c>
+      <c r="AC45" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="AD45" s="11" t="s">
+        <v>221</v>
+      </c>
       <c r="AE45" s="11"/>
       <c r="AF45" s="11"/>
       <c r="AG45" s="13"/>
@@ -4341,7 +4181,7 @@
         <v>21</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
@@ -4378,68 +4218,68 @@
         <v>21</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>255</v>
+        <v>227</v>
       </c>
       <c r="C47" s="11" t="s">
         <v>17</v>
       </c>
       <c r="D47" s="12"/>
       <c r="E47" s="11" t="s">
-        <v>256</v>
+        <v>228</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>256</v>
+        <v>229</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="H47" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="I47" s="12" t="s">
-        <v>256</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="H47" s="11"/>
+      <c r="I47" s="12"/>
       <c r="J47" s="11" t="s">
-        <v>256</v>
+        <v>228</v>
       </c>
       <c r="K47" s="11" t="s">
-        <v>256</v>
+        <v>228</v>
       </c>
       <c r="L47" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="M47" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="N47" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="O47" s="11" t="s">
-        <v>259</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="M47" s="11"/>
+      <c r="N47" s="12"/>
+      <c r="O47" s="11"/>
       <c r="P47" s="11" t="s">
-        <v>260</v>
+        <v>228</v>
       </c>
       <c r="Q47" s="11" t="s">
-        <v>261</v>
+        <v>228</v>
       </c>
       <c r="R47" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="S47" s="12" t="s">
-        <v>263</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="S47" s="12"/>
       <c r="T47" s="11"/>
       <c r="U47" s="11"/>
-      <c r="V47" s="11"/>
-      <c r="W47" s="11"/>
-      <c r="X47" s="12"/>
+      <c r="V47" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="W47" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="X47" s="12" t="s">
+        <v>233</v>
+      </c>
       <c r="Y47" s="11"/>
       <c r="Z47" s="11"/>
       <c r="AA47" s="11"/>
-      <c r="AB47" s="11"/>
-      <c r="AC47" s="12"/>
-      <c r="AD47" s="11"/>
+      <c r="AB47" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="AC47" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="AD47" s="11" t="s">
+        <v>235</v>
+      </c>
       <c r="AE47" s="11"/>
       <c r="AF47" s="11"/>
       <c r="AG47" s="13"/>
@@ -4451,7 +4291,7 @@
         <v>21</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>264</v>
+        <v>236</v>
       </c>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
@@ -4488,22 +4328,22 @@
         <v>22</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>265</v>
+        <v>237</v>
       </c>
       <c r="C49" s="11" t="s">
         <v>17</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="E49" s="11" t="s">
-        <v>266</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="E49" s="11"/>
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
       <c r="H49" s="11"/>
       <c r="I49" s="12"/>
-      <c r="J49" s="11"/>
+      <c r="J49" s="11" t="s">
+        <v>238</v>
+      </c>
       <c r="K49" s="11"/>
       <c r="L49" s="11"/>
       <c r="M49" s="11"/>
@@ -4570,36 +4410,36 @@
         <v>23</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>267</v>
+        <v>239</v>
       </c>
       <c r="C51" s="11" t="s">
         <v>17</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>268</v>
-      </c>
-      <c r="E51" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="F51" s="11" t="s">
-        <v>270</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
       <c r="G51" s="11"/>
       <c r="H51" s="11"/>
       <c r="I51" s="12"/>
-      <c r="J51" s="11"/>
+      <c r="J51" s="11" t="s">
+        <v>241</v>
+      </c>
       <c r="K51" s="11"/>
       <c r="L51" s="11"/>
-      <c r="M51" s="11"/>
+      <c r="M51" s="11" t="s">
+        <v>242</v>
+      </c>
       <c r="N51" s="12"/>
       <c r="O51" s="11"/>
-      <c r="P51" s="11"/>
+      <c r="P51" s="11" t="s">
+        <v>243</v>
+      </c>
       <c r="Q51" s="11"/>
       <c r="R51" s="11"/>
       <c r="S51" s="12"/>
-      <c r="T51" s="11" t="s">
-        <v>271</v>
-      </c>
+      <c r="T51" s="11"/>
       <c r="U51" s="11"/>
       <c r="V51" s="11"/>
       <c r="W51" s="11"/>
@@ -9745,7 +9585,7 @@
     </row>
     <row r="187" spans="1:35" customHeight="1" ht="15.75">
       <c r="AB187" s="21" t="s">
-        <v>272</v>
+        <v>244</v>
       </c>
       <c r="AC187" s="21"/>
       <c r="AD187" s="21"/>
@@ -9755,7 +9595,7 @@
     </row>
     <row r="188" spans="1:35" customHeight="1" ht="15.75">
       <c r="AB188" s="21" t="s">
-        <v>273</v>
+        <v>245</v>
       </c>
       <c r="AC188" s="21"/>
       <c r="AD188" s="21"/>
